--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CB545-513C-4E7C-A1C7-1EA6BD69C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28C8B82-92FE-4FA1-B97F-B1297B3F12B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2490" windowWidth="24345" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>Tabela</t>
   </si>
@@ -317,12 +317,45 @@
   <si>
     <t>0001-01-01 – 9999-12-31</t>
   </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Nome do índice</t>
+  </si>
+  <si>
+    <t>Clustered</t>
+  </si>
+  <si>
+    <t>NonClustered</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Colunas</t>
+  </si>
+  <si>
+    <t>Idx_clientes_nm_cliente</t>
+  </si>
+  <si>
+    <t>Idx_clientes_cpf</t>
+  </si>
+  <si>
+    <t>Idx_seguros_nm_seguradora</t>
+  </si>
+  <si>
+    <t>Idx_seguros_data_inicio_data_fim</t>
+  </si>
+  <si>
+    <t>data_inicio, data_fim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +388,23 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +417,20 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -450,11 +510,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -476,26 +551,56 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1006"/>
+  <dimension ref="A1:H1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F25" sqref="F25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -731,47 +836,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,10 +897,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -814,10 +919,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
@@ -834,10 +939,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -854,10 +959,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -874,417 +979,407 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="1" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="1" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -1292,19 +1387,19 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -1312,115 +1407,139 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="A35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
+      <c r="A36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
+      <c r="A37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>4</v>
+      <c r="A38" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>2</v>
+      <c r="A39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -1428,133 +1547,242 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="A45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="2" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="2" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2497,52 +2725,73 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A39:B39"/>
+  <mergeCells count="58">
     <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Downloads\APENAS MEU\Faculdade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C00C7-0A07-4C8D-8903-0411084F68F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D9505-89F9-4751-83A0-981614F752C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
   <si>
     <t>Tabela</t>
   </si>
@@ -164,6 +164,7 @@
         <sz val="11"/>
         <color rgb="FF262626"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Estado atual do seguro </t>
     </r>
@@ -172,6 +173,7 @@
         <sz val="11"/>
         <color rgb="FF7F7F7F"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(0 - Inativo | 1 - Ativo)</t>
     </r>
@@ -388,13 +390,34 @@
   </si>
   <si>
     <t>cd_tipo</t>
+  </si>
+  <si>
+    <t>StatusFuncionários</t>
+  </si>
+  <si>
+    <t>Tabela responsável por armazenar os possíveis status dos funcionários.</t>
+  </si>
+  <si>
+    <t>cd_statusFuncionarios</t>
+  </si>
+  <si>
+    <t>1 –  2.147.483.647</t>
+  </si>
+  <si>
+    <t>Código do Status do Funcionário</t>
+  </si>
+  <si>
+    <t>Descrição do Status</t>
+  </si>
+  <si>
+    <t>Idx_statusfuncionarios_descricao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,26 +429,31 @@
       <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -599,28 +627,37 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -631,15 +668,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,13 +883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1013"/>
+  <dimension ref="A1:Q1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
@@ -869,53 +897,59 @@
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="20" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,11 +969,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -957,11 +991,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
@@ -977,11 +1011,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -997,11 +1031,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1017,23 +1051,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="9" t="s">
         <v>94</v>
       </c>
@@ -1043,33 +1077,33 @@
       <c r="E10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>15</v>
@@ -1077,15 +1111,15 @@
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
@@ -1093,51 +1127,85 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="20" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="J16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1156,12 +1224,34 @@
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1178,12 +1268,32 @@
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1198,12 +1308,30 @@
       <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1218,12 +1346,22 @@
       <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1238,12 +1376,30 @@
       <c r="H21" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1258,24 +1414,40 @@
       <c r="H22" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="J22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="9" t="s">
         <v>94</v>
       </c>
@@ -1285,89 +1457,89 @@
       <c r="E24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="20" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1387,11 +1559,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1409,11 +1581,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
@@ -1429,11 +1601,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
@@ -1449,11 +1621,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1469,11 +1641,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1489,11 +1661,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1509,11 +1681,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1529,11 +1701,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
@@ -1549,11 +1721,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2" t="s">
         <v>68</v>
       </c>
@@ -1569,11 +1741,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1589,9 +1761,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
@@ -1599,51 +1771,51 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="15" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1663,11 +1835,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1685,11 +1857,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="2" t="s">
         <v>37</v>
       </c>
@@ -1705,11 +1877,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2" t="s">
         <v>37</v>
       </c>
@@ -1725,11 +1897,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="2" t="s">
         <v>81</v>
       </c>
@@ -1745,11 +1917,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="19"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
@@ -1767,11 +1939,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="8" t="s">
         <v>86</v>
       </c>
@@ -1789,11 +1961,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1811,52 +1983,52 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="20" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="15" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1876,11 +2048,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
@@ -1898,11 +2070,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
@@ -1918,11 +2090,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
@@ -1938,23 +2110,23 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="12" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="9" t="s">
         <v>94</v>
       </c>
@@ -1964,78 +2136,78 @@
       <c r="E63" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="11"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="19"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="20" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="15" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="19"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2055,11 +2227,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
@@ -2077,11 +2249,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2099,11 +2271,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -2121,11 +2293,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
@@ -2143,11 +2315,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
@@ -2165,23 +2337,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A77" s="12" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="12"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="9" t="s">
         <v>94</v>
       </c>
@@ -2191,998 +2363,1023 @@
       <c r="E77" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="11"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="11"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
+  <mergeCells count="99">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A39:B39"/>
@@ -3197,50 +3394,36 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A75:B75"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D9505-89F9-4751-83A0-981614F752C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7ACBB7-68D3-443D-B2AA-87E01858CC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,32 +392,32 @@
     <t>cd_tipo</t>
   </si>
   <si>
-    <t>StatusFuncionários</t>
-  </si>
-  <si>
-    <t>Tabela responsável por armazenar os possíveis status dos funcionários.</t>
-  </si>
-  <si>
-    <t>cd_statusFuncionarios</t>
-  </si>
-  <si>
     <t>1 –  2.147.483.647</t>
   </si>
   <si>
-    <t>Código do Status do Funcionário</t>
-  </si>
-  <si>
-    <t>Descrição do Status</t>
-  </si>
-  <si>
-    <t>Idx_statusfuncionarios_descricao</t>
+    <t>StatusSeguros</t>
+  </si>
+  <si>
+    <t>Tabela responsável por armazenar os possíveis status dos seguros.</t>
+  </si>
+  <si>
+    <t>cd_statusSeguros</t>
+  </si>
+  <si>
+    <t>Código do Status do Seguro</t>
+  </si>
+  <si>
+    <t>Descrição do Status (Ativo, Inativo)</t>
+  </si>
+  <si>
+    <t>Idx_statusSeguros_descricao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +469,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -596,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -627,9 +640,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -637,13 +647,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -653,20 +681,50 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,47 +967,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,10 +1028,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -992,10 +1050,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1012,10 +1070,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1032,10 +1090,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1052,22 +1110,22 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="9" t="s">
         <v>94</v>
       </c>
@@ -1077,33 +1135,33 @@
       <c r="E10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
         <v>15</v>
@@ -1111,15 +1169,15 @@
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
@@ -1131,81 +1189,81 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
-      <c r="J14" s="1" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="24"/>
+      <c r="K14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="24"/>
-      <c r="J15" s="1" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="24"/>
+      <c r="K15" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="J16" s="17" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="J16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1224,34 +1282,34 @@
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="37"/>
+      <c r="L17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1268,32 +1326,32 @@
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="2" t="s">
+      <c r="J18" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1308,30 +1366,30 @@
       <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="2" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1346,22 +1404,22 @@
       <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1376,30 +1434,30 @@
       <c r="H21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="9" t="s">
+      <c r="K21" s="39"/>
+      <c r="L21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1414,40 +1472,40 @@
       <c r="H22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="10" t="s">
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9" t="s">
         <v>94</v>
       </c>
@@ -1457,89 +1515,89 @@
       <c r="E24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="14"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1560,10 +1618,10 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1582,10 +1640,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
@@ -1602,10 +1660,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
@@ -1622,10 +1680,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1642,10 +1700,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1662,10 +1720,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1682,10 +1740,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1702,10 +1760,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
@@ -1722,10 +1780,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="2" t="s">
         <v>68</v>
       </c>
@@ -1742,10 +1800,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1762,8 +1820,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
@@ -1775,47 +1833,47 @@
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="14"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="14"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="14"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1836,10 +1894,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1858,10 +1916,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="2" t="s">
         <v>37</v>
       </c>
@@ -1878,10 +1936,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="2" t="s">
         <v>37</v>
       </c>
@@ -1898,10 +1956,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="2" t="s">
         <v>81</v>
       </c>
@@ -1918,10 +1976,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
@@ -1940,10 +1998,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="8" t="s">
         <v>86</v>
       </c>
@@ -1962,10 +2020,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1988,47 +2046,47 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="14"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="14"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="14"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2049,10 +2107,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
@@ -2071,10 +2129,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
@@ -2091,10 +2149,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="14"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
@@ -2111,22 +2169,22 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="9" t="s">
         <v>94</v>
       </c>
@@ -2136,78 +2194,78 @@
       <c r="E63" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="11"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="14"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="14"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="14"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2228,10 +2286,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
@@ -2250,10 +2308,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="14"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
@@ -2272,10 +2330,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="14"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -2294,10 +2352,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="14"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
@@ -2316,10 +2374,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
@@ -2338,22 +2396,22 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="9" t="s">
         <v>94</v>
       </c>
@@ -2363,31 +2421,31 @@
       <c r="E77" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="11"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="11"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3325,61 +3383,36 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A39:B39"/>
@@ -3394,36 +3427,61 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="O22:Q22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F760CD-1835-4AB6-B61D-3BF200DDC300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F9E568-5371-4A31-B0E5-7626F9881BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6t4p8d9fnOP31jw9sT4zKzQVz1wuTAFANE8+/ykcQTM="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="164">
   <si>
     <t>Tabela</t>
   </si>
@@ -186,24 +181,6 @@
     <t>0 – 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF262626"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Estado atual do seguro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(0 - Inativo | 1 - Ativo)</t>
-    </r>
-  </si>
-  <si>
     <t>Idx_seguros_nm_seguradora</t>
   </si>
   <si>
@@ -213,12 +190,6 @@
     <t>data_inicio, data_fim</t>
   </si>
   <si>
-    <t>Funcionários</t>
-  </si>
-  <si>
-    <t>Status_funcionário</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos funcionários cadastrados no sistema.</t>
   </si>
   <si>
@@ -300,9 +271,6 @@
     <t>Só pode ser "F" (Feminino) ou "M" (Masculino)</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Código do status do funcionario</t>
   </si>
   <si>
@@ -411,9 +379,6 @@
     <t>Descrição das alas</t>
   </si>
   <si>
-    <t>Manutenção</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados das manutenção cadastradas no sistema</t>
   </si>
   <si>
@@ -423,9 +388,6 @@
     <t>cd_tipo</t>
   </si>
   <si>
-    <t>Tipos_Manutenção</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos tipos de manutenção cadastradas no sistema</t>
   </si>
   <si>
@@ -436,17 +398,138 @@
   </si>
   <si>
     <t>descrição</t>
+  </si>
+  <si>
+    <t>Tabela responsável por armazenar os possíveis status dos seguros.</t>
+  </si>
+  <si>
+    <t>cd_statusSeguros</t>
+  </si>
+  <si>
+    <t>1 –  2.147.483.647</t>
+  </si>
+  <si>
+    <t>Código do Status do Seguro</t>
+  </si>
+  <si>
+    <t>Descrição do Status (Ativo, Inativo)</t>
+  </si>
+  <si>
+    <t>Idx_statusSeguros_descricao</t>
+  </si>
+  <si>
+    <t>Estado atual do seguro</t>
+  </si>
+  <si>
+    <t>Tabela responsável por armazenar os possíveis status de manutenção.</t>
+  </si>
+  <si>
+    <t>Código do Status de Manutenção</t>
+  </si>
+  <si>
+    <t>Descrição do Status (Em progresso, Concluída)</t>
+  </si>
+  <si>
+    <t>Idx_statusManutencao_descricao</t>
+  </si>
+  <si>
+    <t>Status_seguros</t>
+  </si>
+  <si>
+    <t>Veiculos</t>
+  </si>
+  <si>
+    <t>Nome da coluna</t>
+  </si>
+  <si>
+    <t>Tipo de dado</t>
+  </si>
+  <si>
+    <t>valor min e max</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>Veículos</t>
+  </si>
+  <si>
+    <t>Status_funcionario</t>
+  </si>
+  <si>
+    <t>Funcionarios</t>
+  </si>
+  <si>
+    <t>Manutencao</t>
+  </si>
+  <si>
+    <t>Tipos_manutecao</t>
+  </si>
+  <si>
+    <t>Tabela responsável por armazenar os dados dos veículos cadastrados no sistema</t>
+  </si>
+  <si>
+    <t>Número da Placa</t>
+  </si>
+  <si>
+    <t>int(4)</t>
+  </si>
+  <si>
+    <t>Código do Cliente</t>
+  </si>
+  <si>
+    <t>Marca do Automóvel</t>
+  </si>
+  <si>
+    <t>Modelo do Automóvel</t>
+  </si>
+  <si>
+    <t>Código do Seguro</t>
+  </si>
+  <si>
+    <t>Ano do Automóvel</t>
+  </si>
+  <si>
+    <t>1 – 9999</t>
+  </si>
+  <si>
+    <t>Código do tipo de manutenção</t>
+  </si>
+  <si>
+    <t>Código da ala</t>
+  </si>
+  <si>
+    <t>cd_statusManutencao</t>
+  </si>
+  <si>
+    <t>cd_statusFuncionario</t>
+  </si>
+  <si>
+    <t>Status_manutencao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,12 +559,38 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF262626"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +609,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -581,88 +702,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ADFCD18E-0E2A-4CB1-ACBA-2AE10F274B22}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -875,42 +1164,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Q1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:H81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="3.88671875" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -920,19 +1210,19 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -942,17 +1232,17 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -962,11 +1252,11 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,11 +1284,11 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1024,11 +1314,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1052,11 +1342,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1080,11 +1370,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1108,17 +1398,17 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1128,11 +1418,11 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1142,11 +1432,11 @@
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1156,11 +1446,11 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
         <v>15</v>
@@ -1169,8 +1459,8 @@
       <c r="F11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1180,11 +1470,11 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
         <v>15</v>
@@ -1195,8 +1485,8 @@
       <c r="F12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1206,9 +1496,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
@@ -1224,75 +1514,85 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="J15" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="J16" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1312,19 +1612,33 @@
         <v>2</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="J17" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1342,19 +1656,31 @@
         <v>41</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="J18" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1370,19 +1696,29 @@
         <v>43</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="J19" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
@@ -1398,19 +1734,21 @@
         <v>47</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="J20" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
@@ -1426,19 +1764,29 @@
         <v>49</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="J21" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
@@ -1451,28 +1799,36 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="11" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="J22" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1482,11 +1838,11 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,11 +1852,11 @@
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1510,11 +1866,11 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
         <v>15</v>
@@ -1523,8 +1879,8 @@
       <c r="F25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1534,21 +1890,21 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1558,88 +1914,88 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="B29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="K29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1681,11 +2037,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="22"/>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="24"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1700,11 +2056,11 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="5" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>12</v>
@@ -1720,19 +2076,19 @@
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -1740,17 +2096,17 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>14</v>
@@ -1758,19 +2114,19 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -1778,22 +2134,15 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>27</v>
       </c>
@@ -1806,27 +2155,20 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="22"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -1834,27 +2176,20 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="22"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -1862,7 +2197,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="9"/>
@@ -1873,16 +2208,16 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="22"/>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>24</v>
@@ -1890,7 +2225,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="9"/>
@@ -1901,16 +2236,16 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="22"/>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -1918,7 +2253,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="9"/>
@@ -1929,11 +2264,11 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="22"/>
+    <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
@@ -1945,10 +2280,10 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="9"/>
@@ -1959,9 +2294,9 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
       <c r="E41" s="9"/>
@@ -1977,85 +2312,85 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="K43" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
@@ -2097,11 +2432,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="22"/>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2116,11 +2451,11 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>12</v>
@@ -2136,19 +2471,19 @@
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="22"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -2156,7 +2491,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="5" t="s">
@@ -2166,7 +2501,7 @@
         <v>27</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>14</v>
@@ -2174,19 +2509,19 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="22"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -2194,7 +2529,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
@@ -2205,16 +2540,16 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -2222,7 +2557,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
@@ -2233,11 +2568,11 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="22"/>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
@@ -2252,27 +2587,27 @@
         <v>15</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I50" s="12"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="22"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -2282,7 +2617,7 @@
         <v>15</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
@@ -2293,11 +2628,11 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="22"/>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="5" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2647,7 @@
         <v>15</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
@@ -2323,11 +2658,11 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="22"/>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
         <v>12</v>
       </c>
@@ -2342,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
@@ -2353,7 +2688,7 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -2363,19 +2698,19 @@
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2385,19 +2720,19 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
+      <c r="B56" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -2407,17 +2742,17 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2427,11 +2762,11 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2459,11 +2794,11 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="22"/>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2813,7 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2489,11 +2824,11 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="22"/>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="5" t="s">
         <v>18</v>
       </c>
@@ -2506,7 +2841,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2517,16 +2852,16 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="22"/>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="24"/>
       <c r="C61" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>24</v>
@@ -2534,7 +2869,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2545,17 +2880,17 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -2565,11 +2900,11 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="1" t="s">
         <v>32</v>
       </c>
@@ -2579,11 +2914,11 @@
       <c r="E63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="22"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -2593,15 +2928,15 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2611,15 +2946,15 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="22"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2629,7 +2964,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -2639,75 +2974,88 @@
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="22"/>
+      <c r="B67" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="37"/>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
+      <c r="B68" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
+      <c r="J68" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="37"/>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+      <c r="J69" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="40"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="22"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2727,19 +3075,34 @@
         <v>2</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="22"/>
+      <c r="J70" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="42"/>
+      <c r="L70" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="5" t="s">
         <v>12</v>
       </c>
@@ -2757,19 +3120,32 @@
         <v>16</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="22"/>
+      <c r="J71" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="K71" s="37"/>
+      <c r="L71" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N71" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="5" t="s">
         <v>18</v>
       </c>
@@ -2787,19 +3163,30 @@
         <v>20</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="22"/>
+      <c r="J72" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="K72" s="44"/>
+      <c r="L72" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="24"/>
       <c r="C73" s="5" t="s">
         <v>12</v>
       </c>
@@ -2817,19 +3204,22 @@
         <v>25</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="22"/>
+      <c r="J73" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="5" t="s">
         <v>12</v>
       </c>
@@ -2844,22 +3234,33 @@
         <v>15</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="22"/>
+      <c r="J74" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="46"/>
+      <c r="L74" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" s="5" t="s">
         <v>12</v>
       </c>
@@ -2874,28 +3275,37 @@
         <v>15</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="J75" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="K75" s="48"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="N75" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O75" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="48"/>
+    </row>
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -2905,11 +3315,11 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="22"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="1" t="s">
         <v>32</v>
       </c>
@@ -2919,11 +3329,11 @@
       <c r="E77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G77" s="21"/>
-      <c r="H77" s="22"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -2933,15 +3343,15 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="22"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -2951,15 +3361,15 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="22"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -2969,2955 +3379,3169 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="B82" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="1" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="5" t="s">
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="24" t="s">
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="1" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F88" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="23"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="22"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I99" s="13"/>
-    </row>
-    <row r="100" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I101" s="13"/>
-    </row>
-    <row r="102" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="51"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="51"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="55"/>
+      <c r="C95" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" s="52"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="55"/>
+      <c r="C96" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="I96" s="52"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="55"/>
+      <c r="C97" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="I97" s="52"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I98" s="52"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="55"/>
+      <c r="C99" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="I99" s="52"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="55"/>
+      <c r="C100" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I100" s="52"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="55"/>
+      <c r="C101" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="I101" s="52"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I112" s="13"/>
     </row>
-    <row r="113" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I113" s="13"/>
     </row>
-    <row r="114" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I114" s="13"/>
     </row>
-    <row r="115" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I115" s="13"/>
     </row>
-    <row r="116" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I116" s="13"/>
     </row>
-    <row r="117" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I117" s="13"/>
     </row>
-    <row r="118" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I120" s="13"/>
     </row>
-    <row r="121" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I121" s="13"/>
     </row>
-    <row r="122" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I122" s="13"/>
     </row>
-    <row r="123" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I123" s="13"/>
     </row>
-    <row r="124" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I124" s="13"/>
     </row>
-    <row r="125" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I125" s="13"/>
     </row>
-    <row r="126" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" s="13"/>
     </row>
-    <row r="127" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I127" s="13"/>
     </row>
-    <row r="128" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="13"/>
     </row>
-    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I130" s="13"/>
     </row>
-    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I132" s="13"/>
     </row>
-    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I133" s="13"/>
     </row>
-    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I134" s="13"/>
     </row>
-    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I135" s="13"/>
     </row>
-    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I136" s="13"/>
     </row>
-    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I137" s="13"/>
     </row>
-    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I138" s="13"/>
     </row>
-    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I139" s="13"/>
     </row>
-    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I140" s="13"/>
     </row>
-    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I141" s="13"/>
     </row>
-    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I142" s="13"/>
     </row>
-    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I143" s="13"/>
     </row>
-    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I144" s="13"/>
     </row>
-    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I147" s="13"/>
     </row>
-    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I148" s="13"/>
     </row>
-    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="13"/>
     </row>
-    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I150" s="13"/>
     </row>
-    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I151" s="13"/>
     </row>
-    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I152" s="13"/>
     </row>
-    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I156" s="13"/>
     </row>
-    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I157" s="13"/>
     </row>
-    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I158" s="13"/>
     </row>
-    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I159" s="13"/>
     </row>
-    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I160" s="13"/>
     </row>
-    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I161" s="13"/>
     </row>
-    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="13"/>
     </row>
-    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I163" s="13"/>
     </row>
-    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="13"/>
     </row>
-    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="13"/>
     </row>
-    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="13"/>
     </row>
-    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I167" s="13"/>
     </row>
-    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I170" s="13"/>
     </row>
-    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I171" s="13"/>
     </row>
-    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I172" s="13"/>
     </row>
-    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I176" s="13"/>
     </row>
-    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I177" s="13"/>
     </row>
-    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I178" s="13"/>
     </row>
-    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I179" s="13"/>
     </row>
-    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I180" s="13"/>
     </row>
-    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I181" s="13"/>
     </row>
-    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I182" s="13"/>
     </row>
-    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I183" s="13"/>
     </row>
-    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I184" s="13"/>
     </row>
-    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I189" s="13"/>
     </row>
-    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I190" s="13"/>
     </row>
-    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I191" s="13"/>
     </row>
-    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I192" s="13"/>
     </row>
-    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I193" s="13"/>
     </row>
-    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I194" s="13"/>
     </row>
-    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I195" s="13"/>
     </row>
-    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I196" s="13"/>
     </row>
-    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I197" s="13"/>
     </row>
-    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I198" s="13"/>
     </row>
-    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I199" s="13"/>
     </row>
-    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I200" s="13"/>
     </row>
-    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I201" s="13"/>
     </row>
-    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I202" s="13"/>
     </row>
-    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I203" s="13"/>
     </row>
-    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I204" s="13"/>
     </row>
-    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I205" s="13"/>
     </row>
-    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I206" s="13"/>
     </row>
-    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I207" s="13"/>
     </row>
-    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I208" s="13"/>
     </row>
-    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I209" s="13"/>
     </row>
-    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I210" s="13"/>
     </row>
-    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I211" s="13"/>
     </row>
-    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I212" s="13"/>
     </row>
-    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I213" s="13"/>
     </row>
-    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I214" s="13"/>
     </row>
-    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I215" s="13"/>
     </row>
-    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I216" s="13"/>
     </row>
-    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I217" s="13"/>
     </row>
-    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I218" s="13"/>
     </row>
-    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I219" s="13"/>
     </row>
-    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I220" s="13"/>
     </row>
-    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I221" s="13"/>
     </row>
-    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I222" s="13"/>
     </row>
-    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I223" s="13"/>
     </row>
-    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I224" s="13"/>
     </row>
-    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I226" s="13"/>
     </row>
-    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I227" s="13"/>
     </row>
-    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I228" s="13"/>
     </row>
-    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I229" s="13"/>
     </row>
-    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I230" s="13"/>
     </row>
-    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I231" s="13"/>
     </row>
-    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I232" s="13"/>
     </row>
-    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I233" s="13"/>
     </row>
-    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I234" s="13"/>
     </row>
-    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I235" s="13"/>
     </row>
-    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I236" s="13"/>
     </row>
-    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I237" s="13"/>
     </row>
-    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I238" s="13"/>
     </row>
-    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I239" s="13"/>
     </row>
-    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I240" s="13"/>
     </row>
-    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I241" s="13"/>
     </row>
-    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I242" s="13"/>
     </row>
-    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I243" s="13"/>
     </row>
-    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I244" s="13"/>
     </row>
-    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I245" s="13"/>
     </row>
-    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I246" s="13"/>
     </row>
-    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I247" s="13"/>
     </row>
-    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I248" s="13"/>
     </row>
-    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I249" s="13"/>
     </row>
-    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I250" s="13"/>
     </row>
-    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I251" s="13"/>
     </row>
-    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I252" s="13"/>
     </row>
-    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I255" s="13"/>
     </row>
-    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I256" s="13"/>
     </row>
-    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I257" s="13"/>
     </row>
-    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I258" s="13"/>
     </row>
-    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I259" s="13"/>
     </row>
-    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I260" s="13"/>
     </row>
-    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I261" s="13"/>
     </row>
-    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I262" s="13"/>
     </row>
-    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I263" s="13"/>
     </row>
-    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I264" s="13"/>
     </row>
-    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I265" s="13"/>
     </row>
-    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I267" s="13"/>
     </row>
-    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I268" s="13"/>
     </row>
-    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I269" s="13"/>
     </row>
-    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I270" s="13"/>
     </row>
-    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I271" s="13"/>
     </row>
-    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I272" s="13"/>
     </row>
-    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I273" s="13"/>
     </row>
-    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I274" s="13"/>
     </row>
-    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I275" s="13"/>
     </row>
-    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I276" s="13"/>
     </row>
-    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I277" s="13"/>
     </row>
-    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I278" s="13"/>
     </row>
-    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I279" s="13"/>
     </row>
-    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I280" s="13"/>
     </row>
-    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I281" s="13"/>
     </row>
-    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I282" s="13"/>
     </row>
-    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I283" s="13"/>
     </row>
-    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I284" s="13"/>
     </row>
-    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I285" s="13"/>
     </row>
-    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I286" s="13"/>
     </row>
-    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I287" s="13"/>
     </row>
-    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I288" s="13"/>
     </row>
-    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I289" s="13"/>
     </row>
-    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I290" s="13"/>
     </row>
-    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I291" s="13"/>
     </row>
-    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I292" s="13"/>
     </row>
-    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I293" s="13"/>
     </row>
-    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I294" s="13"/>
     </row>
-    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I295" s="13"/>
     </row>
-    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I296" s="13"/>
     </row>
-    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I297" s="13"/>
     </row>
-    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I298" s="13"/>
     </row>
-    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I299" s="13"/>
     </row>
-    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I300" s="13"/>
     </row>
-    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I301" s="13"/>
     </row>
-    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I302" s="13"/>
     </row>
-    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I303" s="13"/>
     </row>
-    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I304" s="13"/>
     </row>
-    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I305" s="13"/>
     </row>
-    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I306" s="13"/>
     </row>
-    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I307" s="13"/>
     </row>
-    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I308" s="13"/>
     </row>
-    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I309" s="13"/>
     </row>
-    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I310" s="13"/>
     </row>
-    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I311" s="13"/>
     </row>
-    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I312" s="13"/>
     </row>
-    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I313" s="13"/>
     </row>
-    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I314" s="13"/>
     </row>
-    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I315" s="13"/>
     </row>
-    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I316" s="13"/>
     </row>
-    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I317" s="13"/>
     </row>
-    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I318" s="13"/>
     </row>
-    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I319" s="13"/>
     </row>
-    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I320" s="13"/>
     </row>
-    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I321" s="13"/>
     </row>
-    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I322" s="13"/>
     </row>
-    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I323" s="13"/>
     </row>
-    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I325" s="13"/>
     </row>
-    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I326" s="13"/>
     </row>
-    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I327" s="13"/>
     </row>
-    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I328" s="13"/>
     </row>
-    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I329" s="13"/>
     </row>
-    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I330" s="13"/>
     </row>
-    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I331" s="13"/>
     </row>
-    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I332" s="13"/>
     </row>
-    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I333" s="13"/>
     </row>
-    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I334" s="13"/>
     </row>
-    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I335" s="13"/>
     </row>
-    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I336" s="13"/>
     </row>
-    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I337" s="13"/>
     </row>
-    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I338" s="13"/>
     </row>
-    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I339" s="13"/>
     </row>
-    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I340" s="13"/>
     </row>
-    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I341" s="13"/>
     </row>
-    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I342" s="13"/>
     </row>
-    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I343" s="13"/>
     </row>
-    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I345" s="13"/>
     </row>
-    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I347" s="13"/>
     </row>
-    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I348" s="13"/>
     </row>
-    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I349" s="13"/>
     </row>
-    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I350" s="13"/>
     </row>
-    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I351" s="13"/>
     </row>
-    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I352" s="13"/>
     </row>
-    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I353" s="13"/>
     </row>
-    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I355" s="13"/>
     </row>
-    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I356" s="13"/>
     </row>
-    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I357" s="13"/>
     </row>
-    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I358" s="13"/>
     </row>
-    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I359" s="13"/>
     </row>
-    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I360" s="13"/>
     </row>
-    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I361" s="13"/>
     </row>
-    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I362" s="13"/>
     </row>
-    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I363" s="13"/>
     </row>
-    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I364" s="13"/>
     </row>
-    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I365" s="13"/>
     </row>
-    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I366" s="13"/>
     </row>
-    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I367" s="13"/>
     </row>
-    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I368" s="13"/>
     </row>
-    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I369" s="13"/>
     </row>
-    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I370" s="13"/>
     </row>
-    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I371" s="13"/>
     </row>
-    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I372" s="13"/>
     </row>
-    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I373" s="13"/>
     </row>
-    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I374" s="13"/>
     </row>
-    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I375" s="13"/>
     </row>
-    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I376" s="13"/>
     </row>
-    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I377" s="13"/>
     </row>
-    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I378" s="13"/>
     </row>
-    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I379" s="13"/>
     </row>
-    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I380" s="13"/>
     </row>
-    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I381" s="13"/>
     </row>
-    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I382" s="13"/>
     </row>
-    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I383" s="13"/>
     </row>
-    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I384" s="13"/>
     </row>
-    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I385" s="13"/>
     </row>
-    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I386" s="13"/>
     </row>
-    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I387" s="13"/>
     </row>
-    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I388" s="13"/>
     </row>
-    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I389" s="13"/>
     </row>
-    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I390" s="13"/>
     </row>
-    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I393" s="13"/>
     </row>
-    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I394" s="13"/>
     </row>
-    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I395" s="13"/>
     </row>
-    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I396" s="13"/>
     </row>
-    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I397" s="13"/>
     </row>
-    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I398" s="13"/>
     </row>
-    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I399" s="13"/>
     </row>
-    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I400" s="13"/>
     </row>
-    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I401" s="13"/>
     </row>
-    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I402" s="13"/>
     </row>
-    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I403" s="13"/>
     </row>
-    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I404" s="13"/>
     </row>
-    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I405" s="13"/>
     </row>
-    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I406" s="13"/>
     </row>
-    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I407" s="13"/>
     </row>
-    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I408" s="13"/>
     </row>
-    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I409" s="13"/>
     </row>
-    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I410" s="13"/>
     </row>
-    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I411" s="13"/>
     </row>
-    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I412" s="13"/>
     </row>
-    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I413" s="13"/>
     </row>
-    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I414" s="13"/>
     </row>
-    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I415" s="13"/>
     </row>
-    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I416" s="13"/>
     </row>
-    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I417" s="13"/>
     </row>
-    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I418" s="13"/>
     </row>
-    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I419" s="13"/>
     </row>
-    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I420" s="13"/>
     </row>
-    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I421" s="13"/>
     </row>
-    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I422" s="13"/>
     </row>
-    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I423" s="13"/>
     </row>
-    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I424" s="13"/>
     </row>
-    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I425" s="13"/>
     </row>
-    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I426" s="13"/>
     </row>
-    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I427" s="13"/>
     </row>
-    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I428" s="13"/>
     </row>
-    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I429" s="13"/>
     </row>
-    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I430" s="13"/>
     </row>
-    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I431" s="13"/>
     </row>
-    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I432" s="13"/>
     </row>
-    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I433" s="13"/>
     </row>
-    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I434" s="13"/>
     </row>
-    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I435" s="13"/>
     </row>
-    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I436" s="13"/>
     </row>
-    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I437" s="13"/>
     </row>
-    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I438" s="13"/>
     </row>
-    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I439" s="13"/>
     </row>
-    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I440" s="13"/>
     </row>
-    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I441" s="13"/>
     </row>
-    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I442" s="13"/>
     </row>
-    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I443" s="13"/>
     </row>
-    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I444" s="13"/>
     </row>
-    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I445" s="13"/>
     </row>
-    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I446" s="13"/>
     </row>
-    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I447" s="13"/>
     </row>
-    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I448" s="13"/>
     </row>
-    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I449" s="13"/>
     </row>
-    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I450" s="13"/>
     </row>
-    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I451" s="13"/>
     </row>
-    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I452" s="13"/>
     </row>
-    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I453" s="13"/>
     </row>
-    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I454" s="13"/>
     </row>
-    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I455" s="13"/>
     </row>
-    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I456" s="13"/>
     </row>
-    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I457" s="13"/>
     </row>
-    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I458" s="13"/>
     </row>
-    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I459" s="13"/>
     </row>
-    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I460" s="13"/>
     </row>
-    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I461" s="13"/>
     </row>
-    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I462" s="13"/>
     </row>
-    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I463" s="13"/>
     </row>
-    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I464" s="13"/>
     </row>
-    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I465" s="13"/>
     </row>
-    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I466" s="13"/>
     </row>
-    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I467" s="13"/>
     </row>
-    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I468" s="13"/>
     </row>
-    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I469" s="13"/>
     </row>
-    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I470" s="13"/>
     </row>
-    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I471" s="13"/>
     </row>
-    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I472" s="13"/>
     </row>
-    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I473" s="13"/>
     </row>
-    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I474" s="13"/>
     </row>
-    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I475" s="13"/>
     </row>
-    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I476" s="13"/>
     </row>
-    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I477" s="13"/>
     </row>
-    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I478" s="13"/>
     </row>
-    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I479" s="13"/>
     </row>
-    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I480" s="13"/>
     </row>
-    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I481" s="13"/>
     </row>
-    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I482" s="13"/>
     </row>
-    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I483" s="13"/>
     </row>
-    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I484" s="13"/>
     </row>
-    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I485" s="13"/>
     </row>
-    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I486" s="13"/>
     </row>
-    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I487" s="13"/>
     </row>
-    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I488" s="13"/>
     </row>
-    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I489" s="13"/>
     </row>
-    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I490" s="13"/>
     </row>
-    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I491" s="13"/>
     </row>
-    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I492" s="13"/>
     </row>
-    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I493" s="13"/>
     </row>
-    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I494" s="13"/>
     </row>
-    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I495" s="13"/>
     </row>
-    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I496" s="13"/>
     </row>
-    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I497" s="13"/>
     </row>
-    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I498" s="13"/>
     </row>
-    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I499" s="13"/>
     </row>
-    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I500" s="13"/>
     </row>
-    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I501" s="13"/>
     </row>
-    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I502" s="13"/>
     </row>
-    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I503" s="13"/>
     </row>
-    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I504" s="13"/>
     </row>
-    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I505" s="13"/>
     </row>
-    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I506" s="13"/>
     </row>
-    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I507" s="13"/>
     </row>
-    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I508" s="13"/>
     </row>
-    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I509" s="13"/>
     </row>
-    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I510" s="13"/>
     </row>
-    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I511" s="13"/>
     </row>
-    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I512" s="13"/>
     </row>
-    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I513" s="13"/>
     </row>
-    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I514" s="13"/>
     </row>
-    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I515" s="13"/>
     </row>
-    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I516" s="13"/>
     </row>
-    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I517" s="13"/>
     </row>
-    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I518" s="13"/>
     </row>
-    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I519" s="13"/>
     </row>
-    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I520" s="13"/>
     </row>
-    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I521" s="13"/>
     </row>
-    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I522" s="13"/>
     </row>
-    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I523" s="13"/>
     </row>
-    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I524" s="13"/>
     </row>
-    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I525" s="13"/>
     </row>
-    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I526" s="13"/>
     </row>
-    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I527" s="13"/>
     </row>
-    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I528" s="13"/>
     </row>
-    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I529" s="13"/>
     </row>
-    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I530" s="13"/>
     </row>
-    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I531" s="13"/>
     </row>
-    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I532" s="13"/>
     </row>
-    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I533" s="13"/>
     </row>
-    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I534" s="13"/>
     </row>
-    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I535" s="13"/>
     </row>
-    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I536" s="13"/>
     </row>
-    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I537" s="13"/>
     </row>
-    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I538" s="13"/>
     </row>
-    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I539" s="13"/>
     </row>
-    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I540" s="13"/>
     </row>
-    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I541" s="13"/>
     </row>
-    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I542" s="13"/>
     </row>
-    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I543" s="13"/>
     </row>
-    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I544" s="13"/>
     </row>
-    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I545" s="13"/>
     </row>
-    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I546" s="13"/>
     </row>
-    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I547" s="13"/>
     </row>
-    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I548" s="13"/>
     </row>
-    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I549" s="13"/>
     </row>
-    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I550" s="13"/>
     </row>
-    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I551" s="13"/>
     </row>
-    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I552" s="13"/>
     </row>
-    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I553" s="13"/>
     </row>
-    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I554" s="13"/>
     </row>
-    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I555" s="13"/>
     </row>
-    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I556" s="13"/>
     </row>
-    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I557" s="13"/>
     </row>
-    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I558" s="13"/>
     </row>
-    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I559" s="13"/>
     </row>
-    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I560" s="13"/>
     </row>
-    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I561" s="13"/>
     </row>
-    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I562" s="13"/>
     </row>
-    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I563" s="13"/>
     </row>
-    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I564" s="13"/>
     </row>
-    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I565" s="13"/>
     </row>
-    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I566" s="13"/>
     </row>
-    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I567" s="13"/>
     </row>
-    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I568" s="13"/>
     </row>
-    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I569" s="13"/>
     </row>
-    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I570" s="13"/>
     </row>
-    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I571" s="13"/>
     </row>
-    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I572" s="13"/>
     </row>
-    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I573" s="13"/>
     </row>
-    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I574" s="13"/>
     </row>
-    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I575" s="13"/>
     </row>
-    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I576" s="13"/>
     </row>
-    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I577" s="13"/>
     </row>
-    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I578" s="13"/>
     </row>
-    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I579" s="13"/>
     </row>
-    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I580" s="13"/>
     </row>
-    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I581" s="13"/>
     </row>
-    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I582" s="13"/>
     </row>
-    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I583" s="13"/>
     </row>
-    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I584" s="13"/>
     </row>
-    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I585" s="13"/>
     </row>
-    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I586" s="13"/>
     </row>
-    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I587" s="13"/>
     </row>
-    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I588" s="13"/>
     </row>
-    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I589" s="13"/>
     </row>
-    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I590" s="13"/>
     </row>
-    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I591" s="13"/>
     </row>
-    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I592" s="13"/>
     </row>
-    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I593" s="13"/>
     </row>
-    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I594" s="13"/>
     </row>
-    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I595" s="13"/>
     </row>
-    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I596" s="13"/>
     </row>
-    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I597" s="13"/>
     </row>
-    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I598" s="13"/>
     </row>
-    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I599" s="13"/>
     </row>
-    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I600" s="13"/>
     </row>
-    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I601" s="13"/>
     </row>
-    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I602" s="13"/>
     </row>
-    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I603" s="13"/>
     </row>
-    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I604" s="13"/>
     </row>
-    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I605" s="13"/>
     </row>
-    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I606" s="13"/>
     </row>
-    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I607" s="13"/>
     </row>
-    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I608" s="13"/>
     </row>
-    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I609" s="13"/>
     </row>
-    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I610" s="13"/>
     </row>
-    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I611" s="13"/>
     </row>
-    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I612" s="13"/>
     </row>
-    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I613" s="13"/>
     </row>
-    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I614" s="13"/>
     </row>
-    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I615" s="13"/>
     </row>
-    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I616" s="13"/>
     </row>
-    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I617" s="13"/>
     </row>
-    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I618" s="13"/>
     </row>
-    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I619" s="13"/>
     </row>
-    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I620" s="13"/>
     </row>
-    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I621" s="13"/>
     </row>
-    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I622" s="13"/>
     </row>
-    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I623" s="13"/>
     </row>
-    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I624" s="13"/>
     </row>
-    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I625" s="13"/>
     </row>
-    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I626" s="13"/>
     </row>
-    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I627" s="13"/>
     </row>
-    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I628" s="13"/>
     </row>
-    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I629" s="13"/>
     </row>
-    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I630" s="13"/>
     </row>
-    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I631" s="13"/>
     </row>
-    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I632" s="13"/>
     </row>
-    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I633" s="13"/>
     </row>
-    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I634" s="13"/>
     </row>
-    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I635" s="13"/>
     </row>
-    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I636" s="13"/>
     </row>
-    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I637" s="13"/>
     </row>
-    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I638" s="13"/>
     </row>
-    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I639" s="13"/>
     </row>
-    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I640" s="13"/>
     </row>
-    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I641" s="13"/>
     </row>
-    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I642" s="13"/>
     </row>
-    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I643" s="13"/>
     </row>
-    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I644" s="13"/>
     </row>
-    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I645" s="13"/>
     </row>
-    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I646" s="13"/>
     </row>
-    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I647" s="13"/>
     </row>
-    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I648" s="13"/>
     </row>
-    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I649" s="13"/>
     </row>
-    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I650" s="13"/>
     </row>
-    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I651" s="13"/>
     </row>
-    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I652" s="13"/>
     </row>
-    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I653" s="13"/>
     </row>
-    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I654" s="13"/>
     </row>
-    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I655" s="13"/>
     </row>
-    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I656" s="13"/>
     </row>
-    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I657" s="13"/>
     </row>
-    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I658" s="13"/>
     </row>
-    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I659" s="13"/>
     </row>
-    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I660" s="13"/>
     </row>
-    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I661" s="13"/>
     </row>
-    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I662" s="13"/>
     </row>
-    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I663" s="13"/>
     </row>
-    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I664" s="13"/>
     </row>
-    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I665" s="13"/>
     </row>
-    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I666" s="13"/>
     </row>
-    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I667" s="13"/>
     </row>
-    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I668" s="13"/>
     </row>
-    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I669" s="13"/>
     </row>
-    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I670" s="13"/>
     </row>
-    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I671" s="13"/>
     </row>
-    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I672" s="13"/>
     </row>
-    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I673" s="13"/>
     </row>
-    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I674" s="13"/>
     </row>
-    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I675" s="13"/>
     </row>
-    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I676" s="13"/>
     </row>
-    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I677" s="13"/>
     </row>
-    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I678" s="13"/>
     </row>
-    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I679" s="13"/>
     </row>
-    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I680" s="13"/>
     </row>
-    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I681" s="13"/>
     </row>
-    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I682" s="13"/>
     </row>
-    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I683" s="13"/>
     </row>
-    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I684" s="13"/>
     </row>
-    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I685" s="13"/>
     </row>
-    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I686" s="13"/>
     </row>
-    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I687" s="13"/>
     </row>
-    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I688" s="13"/>
     </row>
-    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I689" s="13"/>
     </row>
-    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I690" s="13"/>
     </row>
-    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I691" s="13"/>
     </row>
-    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I692" s="13"/>
     </row>
-    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I693" s="13"/>
     </row>
-    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I694" s="13"/>
     </row>
-    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I695" s="13"/>
     </row>
-    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I696" s="13"/>
     </row>
-    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I697" s="13"/>
     </row>
-    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I698" s="13"/>
     </row>
-    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I699" s="13"/>
     </row>
-    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I700" s="13"/>
     </row>
-    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I701" s="13"/>
     </row>
-    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I702" s="13"/>
     </row>
-    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I703" s="13"/>
     </row>
-    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I704" s="13"/>
     </row>
-    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I705" s="13"/>
     </row>
-    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I706" s="13"/>
     </row>
-    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I707" s="13"/>
     </row>
-    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I708" s="13"/>
     </row>
-    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I709" s="13"/>
     </row>
-    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I710" s="13"/>
     </row>
-    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I711" s="13"/>
     </row>
-    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I712" s="13"/>
     </row>
-    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I713" s="13"/>
     </row>
-    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I714" s="13"/>
     </row>
-    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I715" s="13"/>
     </row>
-    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I716" s="13"/>
     </row>
-    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I717" s="13"/>
     </row>
-    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I718" s="13"/>
     </row>
-    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I719" s="13"/>
     </row>
-    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I720" s="13"/>
     </row>
-    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I721" s="13"/>
     </row>
-    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I722" s="13"/>
     </row>
-    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I723" s="13"/>
     </row>
-    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I724" s="13"/>
     </row>
-    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I725" s="13"/>
     </row>
-    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I726" s="13"/>
     </row>
-    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I727" s="13"/>
     </row>
-    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I728" s="13"/>
     </row>
-    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I729" s="13"/>
     </row>
-    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I730" s="13"/>
     </row>
-    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I731" s="13"/>
     </row>
-    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I732" s="13"/>
     </row>
-    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I733" s="13"/>
     </row>
-    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I734" s="13"/>
     </row>
-    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I735" s="13"/>
     </row>
-    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I736" s="13"/>
     </row>
-    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I737" s="13"/>
     </row>
-    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I738" s="13"/>
     </row>
-    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I739" s="13"/>
     </row>
-    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I740" s="13"/>
     </row>
-    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I741" s="13"/>
     </row>
-    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I742" s="13"/>
     </row>
-    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I743" s="13"/>
     </row>
-    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I744" s="13"/>
     </row>
-    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I745" s="13"/>
     </row>
-    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I746" s="13"/>
     </row>
-    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I747" s="13"/>
     </row>
-    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I748" s="13"/>
     </row>
-    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I749" s="13"/>
     </row>
-    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I750" s="13"/>
     </row>
-    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I751" s="13"/>
     </row>
-    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I752" s="13"/>
     </row>
-    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I753" s="13"/>
     </row>
-    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I754" s="13"/>
     </row>
-    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I755" s="13"/>
     </row>
-    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I756" s="13"/>
     </row>
-    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I757" s="13"/>
     </row>
-    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I758" s="13"/>
     </row>
-    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I759" s="13"/>
     </row>
-    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I760" s="13"/>
     </row>
-    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I761" s="13"/>
     </row>
-    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I762" s="13"/>
     </row>
-    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I763" s="13"/>
     </row>
-    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I764" s="13"/>
     </row>
-    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I765" s="13"/>
     </row>
-    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I766" s="13"/>
     </row>
-    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I767" s="13"/>
     </row>
-    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I768" s="13"/>
     </row>
-    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I769" s="13"/>
     </row>
-    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I770" s="13"/>
     </row>
-    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I771" s="13"/>
     </row>
-    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I772" s="13"/>
     </row>
-    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I773" s="13"/>
     </row>
-    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I774" s="13"/>
     </row>
-    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I775" s="13"/>
     </row>
-    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I776" s="13"/>
     </row>
-    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I777" s="13"/>
     </row>
-    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I778" s="13"/>
     </row>
-    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I779" s="13"/>
     </row>
-    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I780" s="13"/>
     </row>
-    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I781" s="13"/>
     </row>
-    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I782" s="13"/>
     </row>
-    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I783" s="13"/>
     </row>
-    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I784" s="13"/>
     </row>
-    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I785" s="13"/>
     </row>
-    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I786" s="13"/>
     </row>
-    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I787" s="13"/>
     </row>
-    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I788" s="13"/>
     </row>
-    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I789" s="13"/>
     </row>
-    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I790" s="13"/>
     </row>
-    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I791" s="13"/>
     </row>
-    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I792" s="13"/>
     </row>
-    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I793" s="13"/>
     </row>
-    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I794" s="13"/>
     </row>
-    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I795" s="13"/>
     </row>
-    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I796" s="13"/>
     </row>
-    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I797" s="13"/>
     </row>
-    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I798" s="13"/>
     </row>
-    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I799" s="13"/>
     </row>
-    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I800" s="13"/>
     </row>
-    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I801" s="13"/>
     </row>
-    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I802" s="13"/>
     </row>
-    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I803" s="13"/>
     </row>
-    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I804" s="13"/>
     </row>
-    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I805" s="13"/>
     </row>
-    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I806" s="13"/>
     </row>
-    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I807" s="13"/>
     </row>
-    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I808" s="13"/>
     </row>
-    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I809" s="13"/>
     </row>
-    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I810" s="13"/>
     </row>
-    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I811" s="13"/>
     </row>
-    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I812" s="13"/>
     </row>
-    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I813" s="13"/>
     </row>
-    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I814" s="13"/>
     </row>
-    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I815" s="13"/>
     </row>
-    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I816" s="13"/>
     </row>
-    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I817" s="13"/>
     </row>
-    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I818" s="13"/>
     </row>
-    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I819" s="13"/>
     </row>
-    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I820" s="13"/>
     </row>
-    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I821" s="13"/>
     </row>
-    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I822" s="13"/>
     </row>
-    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I823" s="13"/>
     </row>
-    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I824" s="13"/>
     </row>
-    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I825" s="13"/>
     </row>
-    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I826" s="13"/>
     </row>
-    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I827" s="13"/>
     </row>
-    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I828" s="13"/>
     </row>
-    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I829" s="13"/>
     </row>
-    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I830" s="13"/>
     </row>
-    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I831" s="13"/>
     </row>
-    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I832" s="13"/>
     </row>
-    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I833" s="13"/>
     </row>
-    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I834" s="13"/>
     </row>
-    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I835" s="13"/>
     </row>
-    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I836" s="13"/>
     </row>
-    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I837" s="13"/>
     </row>
-    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I838" s="13"/>
     </row>
-    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I839" s="13"/>
     </row>
-    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I840" s="13"/>
     </row>
-    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I841" s="13"/>
     </row>
-    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I842" s="13"/>
     </row>
-    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I843" s="13"/>
     </row>
-    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I844" s="13"/>
     </row>
-    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I845" s="13"/>
     </row>
-    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I846" s="13"/>
     </row>
-    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I847" s="13"/>
     </row>
-    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I848" s="13"/>
     </row>
-    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I849" s="13"/>
     </row>
-    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I850" s="13"/>
     </row>
-    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I851" s="13"/>
     </row>
-    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I852" s="13"/>
     </row>
-    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I853" s="13"/>
     </row>
-    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I854" s="13"/>
     </row>
-    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I855" s="13"/>
     </row>
-    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I856" s="13"/>
     </row>
-    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I857" s="13"/>
     </row>
-    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I858" s="13"/>
     </row>
-    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I859" s="13"/>
     </row>
-    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I860" s="13"/>
     </row>
-    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I861" s="13"/>
     </row>
-    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I862" s="13"/>
     </row>
-    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I863" s="13"/>
     </row>
-    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I864" s="13"/>
     </row>
-    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I865" s="13"/>
     </row>
-    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I866" s="13"/>
     </row>
-    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I867" s="13"/>
     </row>
-    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I868" s="13"/>
     </row>
-    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I869" s="13"/>
     </row>
-    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I870" s="13"/>
     </row>
-    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I871" s="13"/>
     </row>
-    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I872" s="13"/>
     </row>
-    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I873" s="13"/>
     </row>
-    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I874" s="13"/>
     </row>
-    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I875" s="13"/>
     </row>
-    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I876" s="13"/>
     </row>
-    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I877" s="13"/>
     </row>
-    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I878" s="13"/>
     </row>
-    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I879" s="13"/>
     </row>
-    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I880" s="13"/>
     </row>
-    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I881" s="13"/>
     </row>
-    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I882" s="13"/>
     </row>
-    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I883" s="13"/>
     </row>
-    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I884" s="13"/>
     </row>
-    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I885" s="13"/>
     </row>
-    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I886" s="13"/>
     </row>
-    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I887" s="13"/>
     </row>
-    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I888" s="13"/>
     </row>
-    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I889" s="13"/>
     </row>
-    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I890" s="13"/>
     </row>
-    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I891" s="13"/>
     </row>
-    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I892" s="13"/>
     </row>
-    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I893" s="13"/>
     </row>
-    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I894" s="13"/>
     </row>
-    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I895" s="13"/>
     </row>
-    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I896" s="13"/>
     </row>
-    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I897" s="13"/>
     </row>
-    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I898" s="13"/>
     </row>
-    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I899" s="13"/>
     </row>
-    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I900" s="13"/>
     </row>
-    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I901" s="13"/>
     </row>
-    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I902" s="13"/>
     </row>
-    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I903" s="13"/>
     </row>
-    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I904" s="13"/>
     </row>
-    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I905" s="13"/>
     </row>
-    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I906" s="13"/>
     </row>
-    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I907" s="13"/>
     </row>
-    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I908" s="13"/>
     </row>
-    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I909" s="13"/>
     </row>
-    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I910" s="13"/>
     </row>
-    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I911" s="13"/>
     </row>
-    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I912" s="13"/>
     </row>
-    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I913" s="13"/>
     </row>
-    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I914" s="13"/>
     </row>
-    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I915" s="13"/>
     </row>
-    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I916" s="13"/>
     </row>
-    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I917" s="13"/>
     </row>
-    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I918" s="13"/>
     </row>
-    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I919" s="13"/>
     </row>
-    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I920" s="13"/>
     </row>
-    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I921" s="13"/>
     </row>
-    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I922" s="13"/>
     </row>
-    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I923" s="13"/>
     </row>
-    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I924" s="13"/>
     </row>
-    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I925" s="13"/>
     </row>
-    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I926" s="13"/>
     </row>
-    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I927" s="13"/>
     </row>
-    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I928" s="13"/>
     </row>
-    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I929" s="13"/>
     </row>
-    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I930" s="13"/>
     </row>
-    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I931" s="13"/>
     </row>
-    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I932" s="13"/>
     </row>
-    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I933" s="13"/>
     </row>
-    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I934" s="13"/>
     </row>
-    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I935" s="13"/>
     </row>
-    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I936" s="13"/>
     </row>
-    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I937" s="13"/>
     </row>
-    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I938" s="13"/>
     </row>
-    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I939" s="13"/>
     </row>
-    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I940" s="13"/>
     </row>
-    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I941" s="13"/>
     </row>
-    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I942" s="13"/>
     </row>
-    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I943" s="13"/>
     </row>
-    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I944" s="13"/>
     </row>
-    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I945" s="13"/>
     </row>
-    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I946" s="13"/>
     </row>
-    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I947" s="13"/>
     </row>
-    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I948" s="13"/>
     </row>
-    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I949" s="13"/>
     </row>
-    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I950" s="13"/>
     </row>
-    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I951" s="13"/>
     </row>
-    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I952" s="13"/>
     </row>
-    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I953" s="13"/>
     </row>
-    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I954" s="13"/>
     </row>
-    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I955" s="13"/>
     </row>
-    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I956" s="13"/>
     </row>
-    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I957" s="13"/>
     </row>
-    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I958" s="13"/>
     </row>
-    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I959" s="13"/>
     </row>
-    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I960" s="13"/>
     </row>
-    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I961" s="13"/>
     </row>
-    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I962" s="13"/>
     </row>
-    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I963" s="13"/>
     </row>
-    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I964" s="13"/>
     </row>
-    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I965" s="13"/>
     </row>
-    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I966" s="13"/>
     </row>
-    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I967" s="13"/>
     </row>
-    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I968" s="13"/>
     </row>
-    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I969" s="13"/>
     </row>
-    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I970" s="13"/>
     </row>
-    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I971" s="13"/>
     </row>
-    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I972" s="13"/>
     </row>
-    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I973" s="13"/>
     </row>
-    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I974" s="13"/>
     </row>
-    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I975" s="13"/>
     </row>
-    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I976" s="13"/>
     </row>
-    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I977" s="13"/>
     </row>
-    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I978" s="13"/>
     </row>
-    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I979" s="13"/>
     </row>
-    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I980" s="13"/>
     </row>
-    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I981" s="13"/>
     </row>
-    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I982" s="13"/>
     </row>
-    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I983" s="13"/>
     </row>
-    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I984" s="13"/>
     </row>
-    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I985" s="13"/>
     </row>
-    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I986" s="13"/>
     </row>
-    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I987" s="13"/>
     </row>
-    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I988" s="13"/>
     </row>
-    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I989" s="13"/>
     </row>
-    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I990" s="13"/>
     </row>
-    <row r="991" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I991" s="13"/>
     </row>
-    <row r="992" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I992" s="13"/>
     </row>
-    <row r="993" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I993" s="13"/>
     </row>
-    <row r="994" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I994" s="13"/>
     </row>
-    <row r="995" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I995" s="13"/>
     </row>
-    <row r="996" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I996" s="13"/>
     </row>
-    <row r="997" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I997" s="13"/>
     </row>
-    <row r="998" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I998" s="13"/>
     </row>
-    <row r="999" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I999" s="13"/>
     </row>
-    <row r="1000" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1000" s="13"/>
     </row>
-    <row r="1001" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1001" s="13"/>
     </row>
+    <row r="1002" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1002" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
+  <mergeCells count="129">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:Q73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="B42:H42"/>
@@ -5939,48 +6563,49 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A83:H83"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F9E568-5371-4A31-B0E5-7626F9881BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A139B56-70B0-46F0-9610-B7D568220A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="4185" windowWidth="24345" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="161">
   <si>
     <t>Tabela</t>
   </si>
   <si>
-    <t>Clientes</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Idx_clientes_cpf</t>
   </si>
   <si>
-    <t>Seguros</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos seguros.</t>
   </si>
   <si>
@@ -154,42 +148,15 @@
     <t>Nome da seguradora</t>
   </si>
   <si>
-    <t>data_inicio</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>0001-01-01 – 9999-12-31</t>
-  </si>
-  <si>
-    <t>Data de início da cobertura do seguro</t>
-  </si>
-  <si>
-    <t>data_fim</t>
-  </si>
-  <si>
-    <t>Data de fim da cobertura do seguro</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>0 – 1</t>
-  </si>
-  <si>
     <t>Idx_seguros_nm_seguradora</t>
   </si>
   <si>
-    <t>Idx_seguros_data_inicio_data_fim</t>
-  </si>
-  <si>
-    <t>data_inicio, data_fim</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos funcionários cadastrados no sistema.</t>
   </si>
   <si>
@@ -274,12 +241,6 @@
     <t>Código do status do funcionario</t>
   </si>
   <si>
-    <t>Agendamento</t>
-  </si>
-  <si>
-    <t>Status_agendamento</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos agendamentos.</t>
   </si>
   <si>
@@ -352,9 +313,6 @@
     <t xml:space="preserve">Código do status do agendamento                                </t>
   </si>
   <si>
-    <t>Alas</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados da alas cadastradas no sistema</t>
   </si>
   <si>
@@ -397,15 +355,9 @@
     <t>Descrição do tipo de manutenção</t>
   </si>
   <si>
-    <t>descrição</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os possíveis status dos seguros.</t>
   </si>
   <si>
-    <t>cd_statusSeguros</t>
-  </si>
-  <si>
     <t>1 –  2.147.483.647</t>
   </si>
   <si>
@@ -415,9 +367,6 @@
     <t>Descrição do Status (Ativo, Inativo)</t>
   </si>
   <si>
-    <t>Idx_statusSeguros_descricao</t>
-  </si>
-  <si>
     <t>Estado atual do seguro</t>
   </si>
   <si>
@@ -427,15 +376,6 @@
     <t>Código do Status de Manutenção</t>
   </si>
   <si>
-    <t>Descrição do Status (Em progresso, Concluída)</t>
-  </si>
-  <si>
-    <t>Idx_statusManutencao_descricao</t>
-  </si>
-  <si>
-    <t>Status_seguros</t>
-  </si>
-  <si>
     <t>Veiculos</t>
   </si>
   <si>
@@ -457,21 +397,6 @@
     <t>ano</t>
   </si>
   <si>
-    <t>Veículos</t>
-  </si>
-  <si>
-    <t>Status_funcionario</t>
-  </si>
-  <si>
-    <t>Funcionarios</t>
-  </si>
-  <si>
-    <t>Manutencao</t>
-  </si>
-  <si>
-    <t>Tipos_manutecao</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos veículos cadastrados no sistema</t>
   </si>
   <si>
@@ -505,20 +430,86 @@
     <t>Código da ala</t>
   </si>
   <si>
-    <t>cd_statusManutencao</t>
-  </si>
-  <si>
-    <t>cd_statusFuncionario</t>
-  </si>
-  <si>
-    <t>Status_manutencao</t>
+    <t>1 – 7</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>seguros</t>
+  </si>
+  <si>
+    <t>funcionarios</t>
+  </si>
+  <si>
+    <t>veiculos</t>
+  </si>
+  <si>
+    <t>status_seguros</t>
+  </si>
+  <si>
+    <t>1 – 1</t>
+  </si>
+  <si>
+    <t>Descrição do Status (Em progresso, Concluída, Cancelada)</t>
+  </si>
+  <si>
+    <t>vl_manutencao</t>
+  </si>
+  <si>
+    <t>float(5,2)</t>
+  </si>
+  <si>
+    <t>0 – 3.402823466 E + 38</t>
+  </si>
+  <si>
+    <t>Valor cobrado pela manutenção</t>
+  </si>
+  <si>
+    <t>Status da manutenção</t>
+  </si>
+  <si>
+    <t>cd_status_manutencao</t>
+  </si>
+  <si>
+    <t>cd_status_seguros</t>
+  </si>
+  <si>
+    <t>agendamentos</t>
+  </si>
+  <si>
+    <t>manutencoes</t>
+  </si>
+  <si>
+    <t>tipos_manutencao</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>status_funcionarios</t>
+  </si>
+  <si>
+    <t>cd_status_funcionarios</t>
+  </si>
+  <si>
+    <t>status_agendamentos</t>
+  </si>
+  <si>
+    <t>status_manutencoes</t>
+  </si>
+  <si>
+    <t>cd_status_manutencoes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,26 +562,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,20 +582,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -717,49 +678,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -815,80 +739,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -896,25 +747,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,20 +771,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1002"/>
+  <dimension ref="A1:P1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1185,22 +1059,23 @@
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1212,17 +1087,17 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1233,16 +1108,16 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1253,27 +1128,27 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1285,25 +1160,25 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1315,23 +1190,23 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1343,23 +1218,23 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1371,23 +1246,23 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1399,16 +1274,16 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="A9" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1419,24 +1294,24 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1447,20 +1322,20 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="24"/>
+      <c r="A11" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="44"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1471,22 +1346,22 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="24"/>
+      <c r="A12" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="44"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1497,8 +1372,8 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
@@ -1518,317 +1393,274 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
+      <c r="K14" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="J15" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="69" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="K17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="1" t="s">
+      <c r="L17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="M17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="N17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="O17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="24"/>
+      <c r="P17" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="44"/>
       <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="68" t="s">
+      <c r="J18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="24"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="44"/>
       <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="H20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="73"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1839,24 +1671,6 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1867,20 +1681,18 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1891,20 +1703,18 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1915,289 +1725,321 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+      <c r="A28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
+      <c r="K28" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+      <c r="J30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>2</v>
+      <c r="A31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="24"/>
+      <c r="A32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="44"/>
       <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>59</v>
+      <c r="H32" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="N32" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="24"/>
+      <c r="A34" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="44"/>
       <c r="C34" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="24"/>
+      <c r="A35" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="44"/>
       <c r="C35" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="14" t="s">
-        <v>71</v>
+      <c r="H35" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="24"/>
+      <c r="A36" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="44"/>
       <c r="C36" s="5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="24"/>
+      <c r="A37" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="44"/>
       <c r="C37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="9"/>
@@ -2209,24 +2051,14 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="2"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2237,24 +2069,18 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="2"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2265,26 +2091,18 @@
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="2"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2295,14 +2113,16 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="A41" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="2"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -2313,71 +2133,97 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
+      <c r="A42" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
+      <c r="K42" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="44"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
+      <c r="A43" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="44"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
+      <c r="A44" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -2387,149 +2233,147 @@
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>2</v>
+      <c r="A45" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="24"/>
+      <c r="A46" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="53"/>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="N46" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="24"/>
+      <c r="A47" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="44"/>
       <c r="C47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5" t="s">
-        <v>93</v>
+      <c r="H47" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>73</v>
+      <c r="A48" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5" t="s">
-        <v>97</v>
+      <c r="H48" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
@@ -2541,23 +2385,25 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="30"/>
+      <c r="A49" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="44"/>
       <c r="C49" s="5" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>101</v>
+      <c r="H49" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
@@ -2569,25 +2415,25 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="24"/>
+      <c r="A50" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="44"/>
       <c r="C50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>102</v>
+      <c r="H50" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="18"/>
@@ -2599,26 +2445,6 @@
       <c r="P50" s="18"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
@@ -2629,26 +2455,18 @@
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="44"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
@@ -2659,26 +2477,18 @@
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
@@ -2689,6 +2499,16 @@
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="44"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -2699,18 +2519,28 @@
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2721,18 +2551,26 @@
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
+      <c r="A56" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -2743,16 +2581,24 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
+      <c r="A57" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="44"/>
+      <c r="C57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2763,27 +2609,23 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>2</v>
+      <c r="A58" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="44"/>
+      <c r="C58" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -2795,26 +2637,16 @@
       <c r="P58" s="4"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A59" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -2825,24 +2657,24 @@
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="A60" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="43"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -2853,24 +2685,14 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A61" s="47"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2881,16 +2703,14 @@
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -2901,24 +2721,6 @@
       <c r="P62" s="4"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -2929,14 +2731,18 @@
       <c r="P63" s="4"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="44"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2946,15 +2752,19 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="44"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2964,7 +2774,17 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -2974,809 +2794,763 @@
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="44"/>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K67" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="37"/>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
+      <c r="K67" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="37"/>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="J68" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="44"/>
+      <c r="C69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="44"/>
+      <c r="C70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="40"/>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="K70" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="1" t="s">
+      <c r="L70" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="M70" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="N70" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="O70" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K70" s="42"/>
-      <c r="L70" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="M70" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="N70" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="O70" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="P70" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="24"/>
+      <c r="P70" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="44"/>
       <c r="C71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="K71" s="37"/>
-      <c r="L71" s="43" t="s">
+      <c r="J71" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K71" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="M71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="34"/>
+      <c r="P71" s="55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="44"/>
+      <c r="C72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="N71" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O71" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K72" s="44"/>
-      <c r="L72" s="43" t="s">
+      <c r="J72" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="N72" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="24"/>
+        <v>144</v>
+      </c>
+      <c r="B73" s="20"/>
       <c r="C73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="44"/>
+      <c r="C74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="46" t="s">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K74" s="46"/>
-      <c r="L74" s="47" t="s">
+      <c r="D76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M74" s="47" t="s">
+      <c r="E76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N74" s="47" t="s">
+      <c r="F76" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="O74" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="K75" s="48"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="N75" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O75" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="P75" s="48"/>
-      <c r="Q75" s="48"/>
-    </row>
-    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="24"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="47"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="20"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="44"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="44"/>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
+      <c r="A82" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="44"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="3"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I84" s="4"/>
+      <c r="A84" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="44"/>
+      <c r="C84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85" s="24"/>
+      <c r="A85" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="44"/>
       <c r="C85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I85" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I86" s="2"/>
+      <c r="A86" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="4"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="43"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="4"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="2"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="2"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I91" s="13"/>
+      <c r="A91" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
+      <c r="A92" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="51"/>
+      <c r="A93" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="51"/>
+      <c r="A94" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="38"/>
+      <c r="C94" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="53" t="s">
+      <c r="A95" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I95" s="23"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I95" s="52"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="58" t="s">
+      <c r="B96" s="38"/>
+      <c r="C96" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="I96" s="52"/>
+      <c r="H96" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="38"/>
+      <c r="C97" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I97" s="23"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="38"/>
+      <c r="C98" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I98" s="23"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="38"/>
+      <c r="C99" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I99" s="23"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="38"/>
+      <c r="C100" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="65" t="s">
+      <c r="D100" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="59" t="s">
+      <c r="E100" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="58" t="s">
+      <c r="F100" s="28"/>
+      <c r="G100" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I97" s="52"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="I98" s="52"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="I99" s="52"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D100" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="I100" s="52"/>
+      <c r="H100" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="I101" s="52"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I102" s="13"/>
+      <c r="I102" s="23"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I103" s="13"/>
+      <c r="I103" s="23"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I104" s="13"/>
@@ -6475,31 +6249,81 @@
     <row r="1002" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1002" s="13"/>
     </row>
+    <row r="1003" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1003" s="13"/>
+    </row>
+    <row r="1004" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1004" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:Q73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="O74:Q74"/>
+  <mergeCells count="117">
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="K67:P67"/>
+    <mergeCell ref="K68:P68"/>
+    <mergeCell ref="J69:P69"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B39:H39"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -6516,96 +6340,40 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="A44:H44"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A83:H83"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A139B56-70B0-46F0-9610-B7D568220A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142100AE-892B-4223-8ACA-12D61BDD5006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="4185" windowWidth="24345" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="165">
   <si>
     <t>Tabela</t>
   </si>
@@ -503,13 +503,25 @@
   </si>
   <si>
     <t>cd_status_manutencoes</t>
+  </si>
+  <si>
+    <t>Idx_cd_agenda</t>
+  </si>
+  <si>
+    <t>Idx_cd_funcionario</t>
+  </si>
+  <si>
+    <t>Idx_cd_status_funcionarios</t>
+  </si>
+  <si>
+    <t>Idx_cd_status_agendamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +574,47 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -583,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -678,12 +731,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -725,17 +838,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -753,18 +859,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -774,43 +868,90 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -819,9 +960,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,27 +1232,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1004"/>
+  <dimension ref="A1:Q1029"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="72" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" style="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="23.140625" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" customWidth="1"/>
     <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1067,15 +1262,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1089,15 +1284,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1108,16 +1303,16 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1128,11 +1323,11 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1147,7 +1342,7 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="70" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
@@ -1160,11 +1355,11 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1177,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="2"/>
@@ -1190,14 +1385,14 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1205,7 +1400,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="2"/>
@@ -1218,11 +1413,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1233,7 +1428,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2"/>
@@ -1246,11 +1441,11 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1261,7 +1456,7 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="2"/>
@@ -1274,16 +1469,16 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1294,11 +1489,11 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="70" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1307,11 +1502,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1322,20 +1517,20 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1346,22 +1541,22 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1372,14 +1567,14 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1390,790 +1585,802 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="33" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="33" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K18" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="36" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="1" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H20" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="33" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P20" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="5" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="34" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L21" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="34" t="s">
+      <c r="M21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="55" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="5" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="34" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="55" t="s">
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="5" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="1" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="47" t="s">
+      <c r="E26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B32" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="1" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H34" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="1" t="s">
+      <c r="I34" s="2"/>
+      <c r="J34" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K34" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="5" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="1" t="s">
+      <c r="I35" s="2"/>
+      <c r="J35" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K35" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="5" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P37" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="47"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="43"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="43"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="63"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="38"/>
+      <c r="L41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="38"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" s="38"/>
+      <c r="L42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="38"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="44"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2182,943 +2389,884 @@
       <c r="E43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5" t="s">
-        <v>76</v>
+      <c r="H43" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="44"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="74"/>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="71"/>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="5" t="s">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="G55" s="5"/>
+      <c r="H55" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>12</v>
+      <c r="K55" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="5" t="s">
-        <v>26</v>
+      <c r="H56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>103</v>
+      <c r="H57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N57" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P57" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="47"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="63"/>
+      <c r="C58" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+      <c r="H58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="22"/>
+      <c r="P58" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q58" s="43"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="43"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="63"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="1" t="s">
+      <c r="K61" s="38"/>
+      <c r="L61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="O61" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="P61" s="37"/>
+      <c r="Q61" s="38"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="K62" s="38"/>
+      <c r="L62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="8"/>
+      <c r="N62" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="38"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B69" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
+      <c r="B70" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="1" t="s">
+      <c r="B72" s="38"/>
+      <c r="C72" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H72" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K67" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="5" t="s">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K68" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L70" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="M70" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N70" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="O70" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P70" s="33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="K71" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="M71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="N71" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O71" s="34"/>
-      <c r="P71" s="55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72" s="34" t="s">
+      <c r="G73" s="5"/>
+      <c r="H73" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="38"/>
+      <c r="C74" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L72" s="35" t="s">
+      <c r="D74" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="M72" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="44"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3129,14 +3277,24 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
+      <c r="A77" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="38"/>
+      <c r="C77" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3147,485 +3305,987 @@
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="82"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="4"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="20"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="89"/>
       <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+    </row>
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B83" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="38"/>
+      <c r="C87" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="38"/>
+      <c r="C89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N89" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P89" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="79"/>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="38"/>
+      <c r="C90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M90" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" s="27"/>
+      <c r="P90" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q90" s="80"/>
+    </row>
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="38"/>
+      <c r="C91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q91" s="80"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+    </row>
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="37"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="48"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="54"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B103" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45" t="s">
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="1" t="s">
+      <c r="B105" s="38"/>
+      <c r="C105" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H105" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="5" t="s">
+      <c r="B106" s="38"/>
+      <c r="C106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5" t="s">
+      <c r="G106" s="5"/>
+      <c r="H106" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="5" t="s">
+      <c r="B107" s="38"/>
+      <c r="C107" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5" t="s">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="1" t="s">
+      <c r="B109" s="38"/>
+      <c r="C109" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F109" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="36"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="36"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B116" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C116" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B117" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="B118" s="44"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="24" t="s">
+      <c r="B119" s="44"/>
+      <c r="C119" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D119" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E119" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F119" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="G119" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="24" t="s">
+      <c r="H119" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I94" s="23"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
+      <c r="I119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="31" t="s">
+      <c r="B120" s="44"/>
+      <c r="C120" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D120" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E95" s="25" t="s">
+      <c r="E120" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F120" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25" t="s">
+      <c r="G120" s="22"/>
+      <c r="H120" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="I95" s="23"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+      <c r="I120" s="20"/>
+      <c r="K120" s="90"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="31" t="s">
+      <c r="B121" s="44"/>
+      <c r="C121" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D121" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E121" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25" t="s">
+      <c r="F121" s="22"/>
+      <c r="G121" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H121" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="I96" s="23"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
+      <c r="I121" s="20"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="31" t="s">
+      <c r="B122" s="44"/>
+      <c r="C122" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D122" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E122" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="I97" s="23"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
+      <c r="I122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="31" t="s">
+      <c r="B123" s="44"/>
+      <c r="C123" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D123" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="25" t="s">
+      <c r="E123" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="I98" s="23"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41" t="s">
+      <c r="I123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="38"/>
-      <c r="C99" s="32" t="s">
+      <c r="B124" s="44"/>
+      <c r="C124" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D124" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E124" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25" t="s">
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="I99" s="23"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
+      <c r="I124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="32" t="s">
+      <c r="B125" s="44"/>
+      <c r="C125" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D125" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E125" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="26" t="s">
+      <c r="F125" s="25"/>
+      <c r="G125" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H125" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="I100" s="23"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I101" s="23"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I102" s="23"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I103" s="23"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I104" s="13"/>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I105" s="13"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I107" s="13"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I108" s="13"/>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I109" s="13"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I111" s="13"/>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I112" s="13"/>
-    </row>
-    <row r="113" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I113" s="13"/>
-    </row>
-    <row r="114" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I115" s="13"/>
-    </row>
-    <row r="116" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I116" s="13"/>
-    </row>
-    <row r="117" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I117" s="13"/>
-    </row>
-    <row r="118" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I119" s="13"/>
-    </row>
-    <row r="120" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I120" s="13"/>
-    </row>
-    <row r="121" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I121" s="13"/>
-    </row>
-    <row r="122" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I122" s="13"/>
-    </row>
-    <row r="123" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I123" s="13"/>
-    </row>
-    <row r="124" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I124" s="13"/>
-    </row>
-    <row r="125" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I125" s="13"/>
-    </row>
-    <row r="126" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I126" s="13"/>
-    </row>
-    <row r="127" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I128" s="13"/>
+      <c r="I125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="20"/>
     </row>
     <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="13"/>
@@ -6255,75 +6915,180 @@
     <row r="1004" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1004" s="13"/>
     </row>
+    <row r="1005" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1005" s="13"/>
+    </row>
+    <row r="1006" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1006" s="13"/>
+    </row>
+    <row r="1007" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1007" s="13"/>
+    </row>
+    <row r="1008" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1008" s="13"/>
+    </row>
+    <row r="1009" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1009" s="13"/>
+    </row>
+    <row r="1010" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1010" s="13"/>
+    </row>
+    <row r="1011" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1011" s="13"/>
+    </row>
+    <row r="1012" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1012" s="13"/>
+    </row>
+    <row r="1013" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1013" s="13"/>
+    </row>
+    <row r="1014" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1014" s="13"/>
+    </row>
+    <row r="1015" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1015" s="13"/>
+    </row>
+    <row r="1016" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1016" s="13"/>
+    </row>
+    <row r="1017" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1017" s="13"/>
+    </row>
+    <row r="1018" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1018" s="13"/>
+    </row>
+    <row r="1019" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1019" s="13"/>
+    </row>
+    <row r="1020" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1020" s="13"/>
+    </row>
+    <row r="1021" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1021" s="13"/>
+    </row>
+    <row r="1022" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1022" s="13"/>
+    </row>
+    <row r="1023" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1023" s="13"/>
+    </row>
+    <row r="1024" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1024" s="13"/>
+    </row>
+    <row r="1025" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1025" s="13"/>
+    </row>
+    <row r="1026" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1026" s="13"/>
+    </row>
+    <row r="1027" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1027" s="13"/>
+    </row>
+    <row r="1028" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1028" s="13"/>
+    </row>
+    <row r="1029" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1029" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="148">
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="J88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A71:H71"/>
     <mergeCell ref="A72:B72"/>
-    <mergeCell ref="K67:P67"/>
-    <mergeCell ref="K68:P68"/>
-    <mergeCell ref="J69:P69"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="F77:H77"/>
     <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B83:H83"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J19:P19"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K54:Q54"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -6332,7 +7097,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:B10"/>
@@ -6340,40 +7104,42 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:H94"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A98:H101"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:H46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazam\Desktop\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142100AE-892B-4223-8ACA-12D61BDD5006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8EE30-0869-455F-A419-6F8763A47AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="166">
   <si>
     <t>Tabela</t>
   </si>
@@ -331,9 +331,6 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>0 – 100</t>
-  </si>
-  <si>
     <t>Descrição das alas</t>
   </si>
   <si>
@@ -515,6 +512,12 @@
   </si>
   <si>
     <t>Idx_cd_status_agendamento</t>
+  </si>
+  <si>
+    <t>1 – 100</t>
+  </si>
+  <si>
+    <t>0 – 200</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -885,88 +888,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -976,23 +897,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,12 +920,103 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,19 +1235,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1029"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="72" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="23.140625" customWidth="1"/>
@@ -1262,15 +1262,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1284,15 +1284,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1303,16 +1303,16 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1323,11 +1323,11 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1342,7 +1342,7 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
@@ -1355,10 +1355,10 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1385,10 +1385,10 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1413,10 +1413,10 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1441,10 +1441,10 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1469,16 +1469,16 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1489,11 +1489,11 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1502,11 +1502,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1517,20 +1517,20 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1541,22 +1541,22 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1567,14 +1567,14 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1585,14 +1585,14 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1603,14 +1603,14 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1621,14 +1621,14 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1642,21 +1642,21 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="B17" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="2"/>
       <c r="J17" s="26" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -1668,21 +1668,21 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="2"/>
       <c r="J18" s="26" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -1691,33 +1691,33 @@
       <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1732,7 +1732,7 @@
       <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I20" s="4"/>
@@ -1759,10 +1759,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
@@ -1781,13 +1781,13 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>13</v>
@@ -1797,14 +1797,14 @@
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1835,19 +1835,19 @@
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
       <c r="P22" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="38"/>
+      <c r="A23" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="56"/>
       <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>13</v>
@@ -1857,29 +1857,29 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="70" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1888,30 +1888,30 @@
       <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1924,12 +1924,12 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="83"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="71"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1942,12 +1942,12 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="31"/>
-      <c r="C28" s="83"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="71"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1960,12 +1960,12 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="83"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="71"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1989,15 +1989,15 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2011,15 +2011,15 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2030,24 +2030,24 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="56"/>
+      <c r="C34" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2062,28 +2062,28 @@
       <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K34" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
+      <c r="K34" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
@@ -2104,21 +2104,21 @@
       <c r="J35" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
@@ -2134,22 +2134,22 @@
         <v>54</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="65" t="s">
+      <c r="J36" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="11" t="s">
         <v>21</v>
       </c>
@@ -2183,16 +2183,16 @@
       <c r="O37" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="Q37" s="47"/>
+      <c r="Q37" s="51"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="11" t="s">
         <v>26</v>
       </c>
@@ -2204,12 +2204,12 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="73" t="s">
+      <c r="H38" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>11</v>
@@ -2224,16 +2224,16 @@
         <v>14</v>
       </c>
       <c r="O38" s="19"/>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="Q38" s="43"/>
+      <c r="Q38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="11" t="s">
         <v>42</v>
       </c>
@@ -2263,16 +2263,16 @@
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="19"/>
-      <c r="P39" s="43" t="s">
+      <c r="P39" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="Q39" s="43"/>
+      <c r="Q39" s="49"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="11" t="s">
         <v>42</v>
       </c>
@@ -2288,22 +2288,22 @@
         <v>65</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="41" t="s">
+      <c r="J40" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="63"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="11" t="s">
         <v>42</v>
       </c>
@@ -2319,10 +2319,10 @@
         <v>67</v>
       </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="41" t="s">
+      <c r="J41" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="38"/>
+      <c r="K41" s="56"/>
       <c r="L41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2332,17 +2332,17 @@
       <c r="N41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="41" t="s">
+      <c r="O41" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="38"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="56"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="11" t="s">
         <v>69</v>
       </c>
@@ -2358,10 +2358,10 @@
         <v>71</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="K42" s="38"/>
+      <c r="J42" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" s="56"/>
       <c r="L42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2369,17 +2369,17 @@
       <c r="N42" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O42" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="38"/>
+      <c r="O42" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="56"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="11" t="s">
         <v>11</v>
       </c>
@@ -2406,16 +2406,16 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2426,11 +2426,11 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="70" t="s">
+      <c r="B45" s="56"/>
+      <c r="C45" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2439,37 +2439,37 @@
       <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="38"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="56"/>
       <c r="I45" s="2"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="68"/>
+      <c r="N45" s="36"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="84" t="s">
+      <c r="A46" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="56"/>
       <c r="I46" s="2"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2482,12 +2482,12 @@
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="83"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="2"/>
       <c r="E47" s="34"/>
       <c r="F47" s="2"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="71"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="2"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2500,12 +2500,12 @@
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="83"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="2"/>
       <c r="E48" s="34"/>
       <c r="F48" s="2"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="74"/>
+      <c r="H48" s="39"/>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2518,12 +2518,12 @@
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="31"/>
-      <c r="C49" s="83"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="2"/>
       <c r="E49" s="34"/>
       <c r="F49" s="2"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="71"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2534,8 +2534,8 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="17"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
@@ -2555,15 +2555,15 @@
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="38"/>
+      <c r="B51" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="56"/>
       <c r="I51" s="2"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2577,15 +2577,15 @@
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="56"/>
       <c r="I52" s="2"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2596,16 +2596,16 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="38"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="2"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2616,11 +2616,11 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="70" t="s">
+      <c r="B54" s="56"/>
+      <c r="C54" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2635,28 +2635,28 @@
       <c r="G54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="70" t="s">
+      <c r="H54" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
+      <c r="K54" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="11" t="s">
         <v>11</v>
       </c>
@@ -2677,21 +2677,21 @@
       <c r="J55" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="43" t="s">
+      <c r="K55" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="11" t="s">
         <v>42</v>
       </c>
@@ -2707,22 +2707,22 @@
         <v>80</v>
       </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="46" t="s">
+      <c r="J56" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="11" t="s">
         <v>42</v>
       </c>
@@ -2756,16 +2756,16 @@
       <c r="O57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P57" s="47" t="s">
+      <c r="P57" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="Q57" s="47"/>
+      <c r="Q57" s="51"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="63"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="11" t="s">
         <v>86</v>
       </c>
@@ -2797,16 +2797,16 @@
         <v>14</v>
       </c>
       <c r="O58" s="22"/>
-      <c r="P58" s="43" t="s">
+      <c r="P58" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Q58" s="43"/>
+      <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="11" t="s">
         <v>11</v>
       </c>
@@ -2838,17 +2838,17 @@
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
-      <c r="P59" s="43" t="s">
+      <c r="P59" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="Q59" s="43"/>
+      <c r="Q59" s="49"/>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="73" t="s">
+      <c r="B60" s="56"/>
+      <c r="C60" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2861,26 +2861,26 @@
       <c r="G60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="14" t="s">
         <v>93</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="41" t="s">
+      <c r="J60" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="63"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
@@ -2894,14 +2894,14 @@
       <c r="G61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="73" t="s">
+      <c r="H61" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="41" t="s">
+      <c r="J61" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="38"/>
+      <c r="K61" s="56"/>
       <c r="L61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2911,17 +2911,17 @@
       <c r="N61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O61" s="41" t="s">
+      <c r="O61" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="38"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="56"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
@@ -2935,14 +2935,14 @@
       <c r="G62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="73" t="s">
+      <c r="H62" s="14" t="s">
         <v>96</v>
       </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="K62" s="38"/>
+      <c r="J62" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="K62" s="56"/>
       <c r="L62" s="7" t="s">
         <v>14</v>
       </c>
@@ -2950,23 +2950,23 @@
       <c r="N62" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O62" s="36" t="s">
+      <c r="O62" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="38"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="56"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="56"/>
       <c r="I63" s="12"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -2977,11 +2977,11 @@
       <c r="P63" s="17"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="70" t="s">
+      <c r="B64" s="56"/>
+      <c r="C64" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2990,11 +2990,11 @@
       <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="41" t="s">
+      <c r="F64" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="56"/>
       <c r="I64" s="12"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -3005,20 +3005,20 @@
       <c r="P64" s="17"/>
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="82" t="s">
+      <c r="A65" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="38"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="56"/>
       <c r="I65" s="12"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
@@ -3036,7 +3036,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="16"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="75"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="12"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
@@ -3054,7 +3054,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="16"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="75"/>
+      <c r="H67" s="16"/>
       <c r="I67" s="12"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
@@ -3068,7 +3068,7 @@
       <c r="I68" s="15"/>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="81"/>
+      <c r="L68" s="42"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
@@ -3078,15 +3078,15 @@
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
@@ -3100,15 +3100,15 @@
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="56"/>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
@@ -3119,16 +3119,16 @@
       <c r="P70" s="16"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="56"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
@@ -3139,11 +3139,11 @@
       <c r="P71" s="13"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="70" t="s">
+      <c r="B72" s="56"/>
+      <c r="C72" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -3158,7 +3158,7 @@
       <c r="G72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="70" t="s">
+      <c r="H72" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I72" s="2"/>
@@ -3171,10 +3171,10 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
@@ -3201,22 +3201,22 @@
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="D74" s="6" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="86" t="s">
         <v>101</v>
       </c>
       <c r="I74" s="3"/>
@@ -3229,15 +3229,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="38"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="11" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>23</v>
@@ -3245,28 +3245,28 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="69"/>
+      <c r="M75" s="37"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="38"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3277,11 +3277,11 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="70" t="s">
+      <c r="B77" s="56"/>
+      <c r="C77" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3290,11 +3290,11 @@
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="41" t="s">
+      <c r="F77" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="56"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3305,14 +3305,14 @@
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="82"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="38"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="56"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -3323,14 +3323,14 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="82"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="89"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -3343,12 +3343,12 @@
     <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="83"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="31"/>
-      <c r="H80" s="71"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -3361,12 +3361,12 @@
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="83"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="31"/>
-      <c r="H81" s="71"/>
+      <c r="H81" s="31"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -3390,15 +3390,15 @@
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="38"/>
+      <c r="B83" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="56"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -3412,15 +3412,15 @@
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="38"/>
+      <c r="B84" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="56"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3431,16 +3431,16 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="38"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="56"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
@@ -3451,11 +3451,11 @@
       <c r="P85" s="13"/>
     </row>
     <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="70" t="s">
+      <c r="B86" s="56"/>
+      <c r="C86" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -3470,28 +3470,28 @@
       <c r="G86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="70" t="s">
+      <c r="H86" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K86" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
+      <c r="K86" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
     </row>
     <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="38"/>
+      <c r="A87" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="56"/>
       <c r="C87" s="11" t="s">
         <v>11</v>
       </c>
@@ -3512,21 +3512,21 @@
       <c r="J87" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K87" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
-      <c r="N87" s="64"/>
-      <c r="O87" s="64"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="64"/>
+      <c r="K87" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
     </row>
     <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="38"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="11" t="s">
         <v>17</v>
       </c>
@@ -3544,22 +3544,22 @@
         <v>19</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="60" t="s">
+      <c r="J88" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="62"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="62"/>
+      <c r="Q88" s="62"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="38"/>
+      <c r="B89" s="56"/>
       <c r="C89" s="11" t="s">
         <v>11</v>
       </c>
@@ -3595,16 +3595,16 @@
       <c r="O89" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P89" s="79" t="s">
+      <c r="P89" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="Q89" s="79"/>
+      <c r="Q89" s="63"/>
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="38"/>
+      <c r="A90" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="56"/>
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
@@ -3619,17 +3619,17 @@
         <v>14</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K90" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M90" s="27" t="s">
         <v>13</v>
@@ -3638,16 +3638,16 @@
         <v>14</v>
       </c>
       <c r="O90" s="27"/>
-      <c r="P90" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q90" s="80"/>
+      <c r="P90" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q90" s="64"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="38"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="11" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>14</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="27" t="s">
@@ -3679,21 +3679,21 @@
       </c>
       <c r="N91" s="27"/>
       <c r="O91" s="27"/>
-      <c r="P91" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q91" s="80"/>
+      <c r="P91" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q91" s="64"/>
     </row>
     <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>23</v>
@@ -3701,7 +3701,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="4"/>
@@ -3713,10 +3713,10 @@
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" s="38"/>
+      <c r="A93" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="56"/>
       <c r="C93" s="11" t="s">
         <v>11</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="4"/>
@@ -3743,16 +3743,16 @@
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="56"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -3763,11 +3763,11 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="70" t="s">
+      <c r="B95" s="56"/>
+      <c r="C95" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -3776,11 +3776,11 @@
       <c r="E95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="F95" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="38"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="56"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -3791,14 +3791,14 @@
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="82"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="38"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="56"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -3809,109 +3809,109 @@
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="82"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="38"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="56"/>
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="50"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="81"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
+      <c r="A99" s="82"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="83"/>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="53"/>
+      <c r="A100" s="82"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="83"/>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="56"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="85"/>
       <c r="I101" s="4"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="38"/>
+      <c r="B102" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="56"/>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
+      <c r="B103" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="56"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="38"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="56"/>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="38"/>
-      <c r="C105" s="70" t="s">
+      <c r="B105" s="56"/>
+      <c r="C105" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -3926,16 +3926,16 @@
       <c r="G105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="70" t="s">
+      <c r="H105" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="38"/>
+      <c r="A106" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="56"/>
       <c r="C106" s="11" t="s">
         <v>11</v>
       </c>
@@ -3950,15 +3950,15 @@
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="38"/>
+      <c r="B107" s="56"/>
       <c r="C107" s="11" t="s">
         <v>17</v>
       </c>
@@ -3971,29 +3971,29 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="38"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="56"/>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41" t="s">
+      <c r="A109" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="38"/>
-      <c r="C109" s="70" t="s">
+      <c r="B109" s="56"/>
+      <c r="C109" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -4002,33 +4002,33 @@
       <c r="E109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="41" t="s">
+      <c r="F109" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="37"/>
-      <c r="H109" s="38"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="56"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="82"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="43"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="38"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="56"/>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="82"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="43"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="38"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="56"/>
       <c r="I111" s="4"/>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
@@ -4036,12 +4036,12 @@
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="31"/>
-      <c r="C112" s="83"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="31"/>
-      <c r="H112" s="71"/>
+      <c r="H112" s="31"/>
       <c r="I112" s="4"/>
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
@@ -4049,12 +4049,12 @@
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="31"/>
-      <c r="C113" s="83"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="31"/>
-      <c r="H113" s="71"/>
+      <c r="H113" s="31"/>
       <c r="I113" s="4"/>
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
@@ -4062,12 +4062,12 @@
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="31"/>
-      <c r="C114" s="83"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="31"/>
-      <c r="H114" s="71"/>
+      <c r="H114" s="31"/>
       <c r="I114" s="4"/>
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
@@ -4079,57 +4079,57 @@
       <c r="A116" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
+      <c r="B116" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="78"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
+      <c r="B117" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="44"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="44"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="78"/>
       <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="78"/>
+      <c r="C119" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="44"/>
-      <c r="C119" s="76" t="s">
+      <c r="D119" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="E119" s="21" t="s">
         <v>7</v>
@@ -4140,21 +4140,21 @@
       <c r="G119" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="76" t="s">
+      <c r="H119" s="40" t="s">
         <v>1</v>
       </c>
       <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43" t="s">
+      <c r="A120" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B120" s="44"/>
-      <c r="C120" s="85" t="s">
+      <c r="B120" s="78"/>
+      <c r="C120" s="46" t="s">
         <v>91</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>13</v>
@@ -4163,18 +4163,18 @@
         <v>14</v>
       </c>
       <c r="G120" s="22"/>
-      <c r="H120" s="77" t="s">
-        <v>126</v>
+      <c r="H120" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="I120" s="20"/>
-      <c r="K120" s="90"/>
+      <c r="K120" s="48"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" s="85" t="s">
+      <c r="B121" s="78"/>
+      <c r="C121" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="24" t="s">
@@ -4187,17 +4187,17 @@
       <c r="G121" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="77" t="s">
-        <v>128</v>
+      <c r="H121" s="41" t="s">
+        <v>127</v>
       </c>
       <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="85" t="s">
+      <c r="A122" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="78"/>
+      <c r="C122" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="22" t="s">
@@ -4208,17 +4208,17 @@
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="22"/>
-      <c r="H122" s="77" t="s">
-        <v>129</v>
+      <c r="H122" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="85" t="s">
+      <c r="A123" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="78"/>
+      <c r="C123" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="24" t="s">
@@ -4229,38 +4229,38 @@
       </c>
       <c r="F123" s="22"/>
       <c r="G123" s="22"/>
-      <c r="H123" s="77" t="s">
-        <v>130</v>
+      <c r="H123" s="41" t="s">
+        <v>129</v>
       </c>
       <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="86" t="s">
-        <v>127</v>
+      <c r="A124" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="78"/>
+      <c r="C124" s="47" t="s">
+        <v>126</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
-      <c r="H124" s="77" t="s">
-        <v>132</v>
+      <c r="H124" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" s="86" t="s">
+      <c r="B125" s="78"/>
+      <c r="C125" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="25" t="s">
@@ -4273,8 +4273,8 @@
       <c r="G125" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="78" t="s">
-        <v>131</v>
+      <c r="H125" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="I125" s="20"/>
     </row>
@@ -6992,16 +6992,123 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A98:H101"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B83:H83"/>
     <mergeCell ref="K86:Q86"/>
     <mergeCell ref="B103:H103"/>
     <mergeCell ref="B102:H102"/>
@@ -7023,123 +7130,16 @@
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="P90:Q90"/>
     <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A13:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A98:H101"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="O62:Q62"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazam\Desktop\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.905820\Documents\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8EE30-0869-455F-A419-6F8763A47AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F86437A-3C4A-4AC4-B95D-F6EDB8BB5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="166">
   <si>
     <t>Tabela</t>
   </si>
@@ -127,12 +127,6 @@
     <t>Colunas</t>
   </si>
   <si>
-    <t>Idx_clientes_nm_cliente</t>
-  </si>
-  <si>
-    <t>Idx_clientes_cpf</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos seguros.</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>Idx_seguros_nm_seguradora</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados dos funcionários cadastrados no sistema.</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t>status_seguros</t>
   </si>
   <si>
-    <t>1 – 1</t>
-  </si>
-  <si>
     <t>Descrição do Status (Em progresso, Concluída, Cancelada)</t>
   </si>
   <si>
@@ -518,6 +506,18 @@
   </si>
   <si>
     <t>0 – 200</t>
+  </si>
+  <si>
+    <t>1 – 2</t>
+  </si>
+  <si>
+    <t>Idx_seguro_cd_seguro</t>
+  </si>
+  <si>
+    <t>Idx_clientes_cd_cliente</t>
+  </si>
+  <si>
+    <t>Idx_status_seguros_cd_status_seguros</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -794,12 +794,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -921,101 +958,148 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1029"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1254,23 +1338,23 @@
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1284,15 +1368,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1303,16 +1387,16 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1323,10 +1407,10 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="38" t="s">
         <v>5</v>
       </c>
@@ -1355,10 +1439,10 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1385,10 +1469,10 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1413,10 +1497,10 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1441,10 +1525,10 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1469,16 +1553,16 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1489,10 +1573,10 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
@@ -1502,11 +1586,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="56"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1517,20 +1601,22 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="8" t="s">
+      <c r="A11" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="56"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1541,40 +1627,24 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1585,14 +1655,14 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1603,14 +1673,14 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1621,14 +1691,14 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1638,85 +1708,88 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="K18" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="56"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="38" t="s">
         <v>5</v>
       </c>
@@ -1736,33 +1809,34 @@
         <v>1</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="56"/>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="59"/>
       <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
@@ -1777,17 +1851,17 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>13</v>
@@ -1796,15 +1870,16 @@
         <v>14</v>
       </c>
       <c r="O21" s="27"/>
-      <c r="P21" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="56"/>
+      <c r="P21" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="97"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="59"/>
       <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1817,11 +1892,11 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>26</v>
@@ -1834,20 +1909,21 @@
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
-      <c r="P22" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="56"/>
+      <c r="P22" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="97"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="59"/>
       <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>13</v>
@@ -1857,28 +1933,56 @@
         <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="J23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="56"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="J24" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="56"/>
+      <c r="K24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="59"/>
       <c r="C25" s="38" t="s">
         <v>31</v>
       </c>
@@ -1888,30 +1992,46 @@
       <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="56"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="8" t="s">
+      <c r="J25" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="L25" s="51"/>
+      <c r="M25" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="56"/>
+      <c r="N25" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1921,7 +2041,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="31"/>
       <c r="C27" s="44"/>
@@ -1939,7 +2059,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="31"/>
       <c r="C28" s="44"/>
@@ -1957,7 +2077,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="31"/>
       <c r="C29" s="44"/>
@@ -1975,7 +2095,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1985,19 +2105,19 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="56"/>
+      <c r="B31" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2007,19 +2127,19 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="56"/>
+      <c r="B32" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2030,23 +2150,23 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="38" t="s">
         <v>5</v>
       </c>
@@ -2069,21 +2189,21 @@
       <c r="J34" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K34" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
+      <c r="K34" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="93"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="56"/>
+      <c r="A35" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="59"/>
       <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
@@ -2098,32 +2218,32 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
+      <c r="K35" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="93"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="56"/>
+      <c r="A36" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="59"/>
       <c r="C36" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>13</v>
@@ -2131,30 +2251,30 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="73" t="s">
+      <c r="J36" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>23</v>
@@ -2162,7 +2282,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="1" t="s">
@@ -2183,16 +2303,16 @@
       <c r="O37" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P37" s="51" t="s">
+      <c r="P37" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="Q37" s="51"/>
+      <c r="Q37" s="95"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="11" t="s">
         <v>26</v>
       </c>
@@ -2205,11 +2325,11 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>11</v>
@@ -2224,21 +2344,21 @@
         <v>14</v>
       </c>
       <c r="O38" s="19"/>
-      <c r="P38" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="49"/>
+      <c r="P38" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="93"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="56"/>
+      <c r="A39" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="59"/>
       <c r="C39" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>23</v>
@@ -2246,38 +2366,38 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="19"/>
-      <c r="P39" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="49"/>
+      <c r="P39" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="93"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="56"/>
+      <c r="A40" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="59"/>
       <c r="C40" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>13</v>
@@ -2285,30 +2405,30 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="52" t="s">
+      <c r="J40" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="56"/>
+      <c r="A41" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="59"/>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>23</v>
@@ -2316,13 +2436,13 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="56"/>
+      <c r="K41" s="59"/>
       <c r="L41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2332,22 +2452,22 @@
       <c r="N41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="52" t="s">
+      <c r="O41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="56"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="59"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="56"/>
+      <c r="A42" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="59"/>
       <c r="C42" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>13</v>
@@ -2355,13 +2475,13 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="K42" s="56"/>
+      <c r="J42" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" s="59"/>
       <c r="L42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2369,17 +2489,17 @@
       <c r="N42" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O42" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="56"/>
+      <c r="O42" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="59"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="56"/>
+      <c r="A43" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="59"/>
       <c r="C43" s="11" t="s">
         <v>11</v>
       </c>
@@ -2394,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="9"/>
@@ -2406,16 +2526,16 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="56"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2426,10 +2546,10 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="56"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="38" t="s">
         <v>31</v>
       </c>
@@ -2439,11 +2559,11 @@
       <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="56"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="2"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2454,10 +2574,10 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="56"/>
+      <c r="A46" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="59"/>
       <c r="C46" s="45" t="s">
         <v>14</v>
       </c>
@@ -2465,11 +2585,11 @@
       <c r="E46" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="56"/>
+      <c r="F46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="2"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2534,8 +2654,8 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="17"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
@@ -2555,15 +2675,15 @@
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="56"/>
+      <c r="B51" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="2"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2577,15 +2697,15 @@
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="56"/>
+      <c r="B52" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
       <c r="I52" s="2"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2596,16 +2716,16 @@
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="56"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="2"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2616,10 +2736,10 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="38" t="s">
         <v>5</v>
       </c>
@@ -2642,21 +2762,21 @@
       <c r="J54" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
+      <c r="K54" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="56"/>
+      <c r="A55" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="59"/>
       <c r="C55" s="11" t="s">
         <v>11</v>
       </c>
@@ -2671,32 +2791,32 @@
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
+      <c r="K55" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="56"/>
+      <c r="A56" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="59"/>
       <c r="C56" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>13</v>
@@ -2704,30 +2824,30 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>13</v>
@@ -2735,7 +2855,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="21" t="s">
@@ -2756,21 +2876,21 @@
       <c r="O57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P57" s="51" t="s">
+      <c r="P57" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="Q57" s="51"/>
+      <c r="Q57" s="63"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="55"/>
+      <c r="A58" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="79"/>
       <c r="C58" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>13</v>
@@ -2778,11 +2898,11 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>11</v>
@@ -2797,16 +2917,16 @@
         <v>14</v>
       </c>
       <c r="O58" s="22"/>
-      <c r="P58" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="49"/>
+      <c r="P58" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="54"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="56"/>
+      <c r="A59" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="59"/>
       <c r="C59" s="11" t="s">
         <v>11</v>
       </c>
@@ -2821,38 +2941,38 @@
         <v>14</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>26</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M59" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
-      <c r="P59" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q59" s="49"/>
+      <c r="P59" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="54"/>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="56"/>
+      <c r="A60" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="59"/>
       <c r="C60" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>13</v>
@@ -2862,25 +2982,25 @@
         <v>14</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="52" t="s">
+      <c r="J60" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="55"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="79"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="56"/>
+      <c r="A61" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="59"/>
       <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
@@ -2895,13 +3015,13 @@
         <v>14</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="52" t="s">
+      <c r="J61" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="56"/>
+      <c r="K61" s="59"/>
       <c r="L61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2911,17 +3031,17 @@
       <c r="N61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O61" s="52" t="s">
+      <c r="O61" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="56"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="59"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="56"/>
+      <c r="A62" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="59"/>
       <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
@@ -2936,13 +3056,13 @@
         <v>14</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="K62" s="56"/>
+      <c r="J62" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="K62" s="59"/>
       <c r="L62" s="7" t="s">
         <v>14</v>
       </c>
@@ -2950,23 +3070,23 @@
       <c r="N62" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O62" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="56"/>
+      <c r="O62" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="59"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="56"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="59"/>
       <c r="I63" s="12"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -2977,10 +3097,10 @@
       <c r="P63" s="17"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="38" t="s">
         <v>31</v>
       </c>
@@ -2990,11 +3110,11 @@
       <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="52" t="s">
+      <c r="F64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="53"/>
-      <c r="H64" s="56"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="59"/>
       <c r="I64" s="12"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -3005,20 +3125,20 @@
       <c r="P64" s="17"/>
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="56"/>
+      <c r="A65" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="59"/>
       <c r="C65" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="53"/>
-      <c r="H65" s="56"/>
+      <c r="F65" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
       <c r="I65" s="12"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
@@ -3078,15 +3198,15 @@
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="56"/>
+      <c r="B69" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="59"/>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
@@ -3100,15 +3220,15 @@
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="56"/>
+      <c r="B70" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="59"/>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
@@ -3119,16 +3239,16 @@
       <c r="P70" s="16"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="56"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="59"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
@@ -3139,10 +3259,10 @@
       <c r="P71" s="13"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="38" t="s">
         <v>5</v>
       </c>
@@ -3171,10 +3291,10 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="56"/>
+      <c r="A73" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="59"/>
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +3309,7 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3201,23 +3321,23 @@
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="56"/>
+      <c r="A74" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="59"/>
       <c r="C74" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="86" t="s">
-        <v>101</v>
+      <c r="H74" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -3229,15 +3349,15 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="56"/>
+      <c r="A75" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="59"/>
       <c r="C75" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>23</v>
@@ -3245,7 +3365,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -3257,16 +3377,16 @@
       <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="56"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="59"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3277,10 +3397,10 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="56"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="38" t="s">
         <v>31</v>
       </c>
@@ -3290,11 +3410,11 @@
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="52" t="s">
+      <c r="F77" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="53"/>
-      <c r="H77" s="56"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="59"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3305,14 +3425,14 @@
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="56"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="43"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="56"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="59"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -3323,14 +3443,14 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="B79" s="56"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="43"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="67"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="86"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -3390,15 +3510,15 @@
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="56"/>
+      <c r="B83" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="59"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -3412,15 +3532,15 @@
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="56"/>
+      <c r="B84" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="59"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3431,16 +3551,16 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="56"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="59"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
@@ -3451,10 +3571,10 @@
       <c r="P85" s="13"/>
     </row>
     <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="38" t="s">
         <v>5</v>
       </c>
@@ -3477,21 +3597,21 @@
       <c r="J86" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K86" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
+      <c r="K86" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="L86" s="87"/>
+      <c r="M86" s="87"/>
+      <c r="N86" s="87"/>
+      <c r="O86" s="87"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="87"/>
     </row>
     <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="56"/>
+      <c r="A87" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="59"/>
       <c r="C87" s="11" t="s">
         <v>11</v>
       </c>
@@ -3512,21 +3632,21 @@
       <c r="J87" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K87" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
+      <c r="K87" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="L87" s="87"/>
+      <c r="M87" s="87"/>
+      <c r="N87" s="87"/>
+      <c r="O87" s="87"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="87"/>
     </row>
     <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="56"/>
+      <c r="A88" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="59"/>
       <c r="C88" s="11" t="s">
         <v>17</v>
       </c>
@@ -3544,22 +3664,22 @@
         <v>19</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="62" t="s">
+      <c r="J88" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="62"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="62"/>
-      <c r="N88" s="62"/>
-      <c r="O88" s="62"/>
-      <c r="P88" s="62"/>
-      <c r="Q88" s="62"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+      <c r="Q88" s="74"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="56"/>
+      <c r="A89" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="59"/>
       <c r="C89" s="11" t="s">
         <v>11</v>
       </c>
@@ -3595,16 +3715,16 @@
       <c r="O89" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P89" s="63" t="s">
+      <c r="P89" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="Q89" s="63"/>
+      <c r="Q89" s="88"/>
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90" s="56"/>
+      <c r="A90" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="59"/>
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
@@ -3619,17 +3739,17 @@
         <v>14</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K90" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M90" s="27" t="s">
         <v>13</v>
@@ -3638,16 +3758,16 @@
         <v>14</v>
       </c>
       <c r="O90" s="27"/>
-      <c r="P90" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q90" s="64"/>
+      <c r="P90" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q90" s="89"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" s="56"/>
+      <c r="A91" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="59"/>
       <c r="C91" s="11" t="s">
         <v>11</v>
       </c>
@@ -3662,11 +3782,11 @@
         <v>14</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91" s="27" t="s">
         <v>26</v>
@@ -3679,21 +3799,21 @@
       </c>
       <c r="N91" s="27"/>
       <c r="O91" s="27"/>
-      <c r="P91" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q91" s="64"/>
+      <c r="P91" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q91" s="89"/>
     </row>
     <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>23</v>
@@ -3701,7 +3821,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="4"/>
@@ -3713,10 +3833,10 @@
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="56"/>
+      <c r="A93" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="59"/>
       <c r="C93" s="11" t="s">
         <v>11</v>
       </c>
@@ -3731,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="4"/>
@@ -3743,16 +3863,16 @@
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="56"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="59"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -3763,10 +3883,10 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="56"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="38" t="s">
         <v>31</v>
       </c>
@@ -3776,11 +3896,11 @@
       <c r="E95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="52" t="s">
+      <c r="F95" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="56"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="59"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -3791,14 +3911,14 @@
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="43"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="56"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="59"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -3809,108 +3929,108 @@
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-      <c r="B97" s="56"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="43"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="56"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="59"/>
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="81"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="66"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="82"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="83"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="69"/>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="82"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="83"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="69"/>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="84"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="85"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="72"/>
       <c r="I101" s="4"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="56"/>
+      <c r="B102" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="59"/>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="56"/>
+      <c r="B103" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="59"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61" t="s">
+      <c r="A104" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="56"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="59"/>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="56"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="38" t="s">
         <v>5</v>
       </c>
@@ -3932,10 +4052,10 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="56"/>
+      <c r="A106" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="59"/>
       <c r="C106" s="11" t="s">
         <v>11</v>
       </c>
@@ -3950,15 +4070,15 @@
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="56"/>
+      <c r="A107" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="59"/>
       <c r="C107" s="11" t="s">
         <v>17</v>
       </c>
@@ -3971,28 +4091,28 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="56"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="59"/>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="56"/>
+      <c r="B109" s="59"/>
       <c r="C109" s="38" t="s">
         <v>31</v>
       </c>
@@ -4002,33 +4122,33 @@
       <c r="E109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="52" t="s">
+      <c r="F109" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="56"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="59"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
-      <c r="B110" s="56"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="43"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="53"/>
-      <c r="H110" s="56"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="59"/>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
-      <c r="B111" s="56"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="59"/>
       <c r="C111" s="43"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="56"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="59"/>
       <c r="I111" s="4"/>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
@@ -4079,57 +4199,57 @@
       <c r="A116" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="78"/>
-      <c r="E116" s="78"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="78"/>
+      <c r="B116" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="78"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="78"/>
+      <c r="B117" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="50" t="s">
+      <c r="A118" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="78"/>
-      <c r="C118" s="78"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="78"/>
-      <c r="H118" s="78"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
       <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="78"/>
+      <c r="A119" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="55"/>
       <c r="C119" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E119" s="21" t="s">
         <v>7</v>
@@ -4146,15 +4266,15 @@
       <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B120" s="78"/>
+      <c r="A120" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="55"/>
       <c r="C120" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>13</v>
@@ -4164,16 +4284,16 @@
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I120" s="20"/>
       <c r="K120" s="48"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="49" t="s">
+      <c r="A121" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="78"/>
+      <c r="B121" s="55"/>
       <c r="C121" s="46" t="s">
         <v>11</v>
       </c>
@@ -4188,15 +4308,15 @@
         <v>14</v>
       </c>
       <c r="H121" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" s="78"/>
+      <c r="A122" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="55"/>
       <c r="C122" s="46" t="s">
         <v>26</v>
       </c>
@@ -4209,15 +4329,15 @@
       <c r="F122" s="22"/>
       <c r="G122" s="22"/>
       <c r="H122" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="78"/>
+      <c r="A123" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="55"/>
       <c r="C123" s="46" t="s">
         <v>26</v>
       </c>
@@ -4230,20 +4350,20 @@
       <c r="F123" s="22"/>
       <c r="G123" s="22"/>
       <c r="H123" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="55"/>
+      <c r="C124" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="I123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" s="78"/>
-      <c r="C124" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>132</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>13</v>
@@ -4251,15 +4371,15 @@
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
       <c r="H124" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B125" s="78"/>
+      <c r="A125" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="55"/>
       <c r="C125" s="47" t="s">
         <v>11</v>
       </c>
@@ -4274,7 +4394,7 @@
         <v>14</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I125" s="20"/>
     </row>
@@ -6991,7 +7111,140 @@
       <c r="I1029" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="154">
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="J88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A125:B125"/>
@@ -7013,133 +7266,6 @@
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="A98:H101"/>
     <mergeCell ref="A91:B91"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A13:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="K86:Q86"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="K87:Q87"/>
-    <mergeCell ref="J88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="O62:Q62"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.905820\Documents\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F86437A-3C4A-4AC4-B95D-F6EDB8BB5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928BB083-6A0E-42CA-B307-5C7766FAB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,97 +973,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,31 +1052,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1029"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1346,15 +1346,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1368,15 +1368,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1390,13 +1390,13 @@
       <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1407,10 +1407,10 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="38" t="s">
         <v>5</v>
       </c>
@@ -1439,10 +1439,10 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1469,10 +1469,10 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1497,10 +1497,10 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1525,10 +1525,10 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1553,16 +1553,16 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1573,10 +1573,10 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
@@ -1586,11 +1586,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1601,10 +1601,10 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
@@ -1612,11 +1612,11 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1637,14 +1637,14 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1655,14 +1655,14 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1673,14 +1673,14 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1691,14 +1691,14 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1712,84 +1712,84 @@
       <c r="A17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="2"/>
       <c r="J17" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="87" t="s">
+      <c r="K17" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="2"/>
       <c r="J18" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K18" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="38" t="s">
         <v>5</v>
       </c>
@@ -1827,16 +1827,16 @@
       <c r="O20" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="74" t="s">
+      <c r="P20" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="74"/>
+      <c r="Q20" s="57"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
@@ -1870,16 +1870,16 @@
         <v>14</v>
       </c>
       <c r="O21" s="27"/>
-      <c r="P21" s="97" t="s">
+      <c r="P21" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="Q21" s="97"/>
+      <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1909,16 +1909,16 @@
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
-      <c r="P22" s="97" t="s">
+      <c r="P22" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Q22" s="97"/>
+      <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
@@ -1936,28 +1936,28 @@
         <v>111</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="2"/>
       <c r="J24" s="50" t="s">
         <v>30</v>
@@ -1971,18 +1971,18 @@
       <c r="M24" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="62" t="s">
+      <c r="N24" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="38" t="s">
         <v>31</v>
       </c>
@@ -1992,11 +1992,11 @@
       <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="12"/>
       <c r="J25" s="51" t="s">
         <v>165</v>
@@ -2005,33 +2005,33 @@
         <v>14</v>
       </c>
       <c r="L25" s="51"/>
-      <c r="M25" s="102" t="s">
+      <c r="M25" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="103" t="s">
+      <c r="N25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2109,64 +2109,84 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="69"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="J31" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="86"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="J32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="86"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="13"/>
+      <c r="J33" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="38" t="s">
         <v>5</v>
       </c>
@@ -2186,24 +2206,34 @@
         <v>1</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="93"/>
+      <c r="J34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="89"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
@@ -2221,24 +2251,32 @@
         <v>45</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="93"/>
+      <c r="J35" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" s="86"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
@@ -2254,22 +2292,30 @@
         <v>51</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
+      <c r="J36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" s="86"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="11" t="s">
         <v>21</v>
       </c>
@@ -2285,34 +2331,22 @@
         <v>56</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O37" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="95"/>
+      <c r="J37" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="68"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="11" t="s">
         <v>26</v>
       </c>
@@ -2328,32 +2362,30 @@
         <v>57</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="93"/>
+      <c r="J38" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="69"/>
+      <c r="L38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="69"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="11" t="s">
         <v>40</v>
       </c>
@@ -2369,30 +2401,28 @@
         <v>60</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q39" s="93"/>
+      <c r="J39" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" s="69"/>
+      <c r="L39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="69"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
@@ -2408,22 +2438,19 @@
         <v>62</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="79"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="11" t="s">
         <v>40</v>
       </c>
@@ -2439,30 +2466,19 @@
         <v>64</v>
       </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="59"/>
-      <c r="L41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="59"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="11" t="s">
         <v>66</v>
       </c>
@@ -2478,28 +2494,19 @@
         <v>68</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="K42" s="59"/>
-      <c r="L42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="59"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="11" t="s">
         <v>11</v>
       </c>
@@ -2526,16 +2533,16 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2546,10 +2553,10 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="38" t="s">
         <v>31</v>
       </c>
@@ -2559,25 +2566,25 @@
       <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="69"/>
       <c r="I45" s="2"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="36"/>
+      <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="45" t="s">
         <v>14</v>
       </c>
@@ -2585,11 +2592,11 @@
       <c r="E46" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="69"/>
       <c r="I46" s="2"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2611,7 +2618,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -2629,7 +2636,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
@@ -2647,15 +2654,15 @@
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="17"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
@@ -2675,71 +2682,84 @@
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="J51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
     </row>
     <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="69"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
+      <c r="J52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="69"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
+      <c r="J53" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="38" t="s">
         <v>5</v>
       </c>
@@ -2760,23 +2780,33 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
+        <v>4</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P54" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="66"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="11" t="s">
         <v>11</v>
       </c>
@@ -2794,24 +2824,32 @@
         <v>73</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
+      <c r="J55" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O55" s="22"/>
+      <c r="P55" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="65"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="11" t="s">
         <v>40</v>
       </c>
@@ -2827,22 +2865,30 @@
         <v>77</v>
       </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
+      <c r="J56" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="65"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="59"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="11" t="s">
         <v>40</v>
       </c>
@@ -2858,34 +2904,22 @@
         <v>81</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M57" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P57" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="63"/>
+      <c r="J57" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="68"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="79"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="11" t="s">
         <v>83</v>
       </c>
@@ -2901,32 +2935,30 @@
         <v>85</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N58" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O58" s="22"/>
-      <c r="P58" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q58" s="54"/>
+      <c r="J58" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="69"/>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="69"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="11" t="s">
         <v>11</v>
       </c>
@@ -2944,30 +2976,28 @@
         <v>86</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="M59" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q59" s="54"/>
+      <c r="J59" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59" s="69"/>
+      <c r="L59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="69"/>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="59"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="14" t="s">
         <v>88</v>
       </c>
@@ -2985,22 +3015,19 @@
         <v>90</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="79"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
@@ -3018,30 +3045,19 @@
         <v>92</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" s="59"/>
-      <c r="L61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="59"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="59"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
@@ -3059,34 +3075,25 @@
         <v>93</v>
       </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="K62" s="59"/>
-      <c r="L62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="8"/>
-      <c r="N62" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O62" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="59"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="69"/>
       <c r="I63" s="12"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -3097,10 +3104,10 @@
       <c r="P63" s="17"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="59"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="38" t="s">
         <v>31</v>
       </c>
@@ -3110,11 +3117,11 @@
       <c r="E64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="57" t="s">
+      <c r="F64" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="59"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="12"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -3125,28 +3132,28 @@
       <c r="P64" s="17"/>
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
@@ -3158,13 +3165,13 @@
       <c r="G66" s="9"/>
       <c r="H66" s="16"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
@@ -3176,93 +3183,93 @@
       <c r="G67" s="9"/>
       <c r="H67" s="16"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
     </row>
     <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
     </row>
     <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="59"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="59"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="69"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="59"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="59"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="38" t="s">
         <v>5</v>
       </c>
@@ -3282,19 +3289,19 @@
         <v>1</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="59"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
@@ -3321,10 +3328,10 @@
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="59"/>
+      <c r="B74" s="69"/>
       <c r="C74" s="11" t="s">
         <v>150</v>
       </c>
@@ -3340,19 +3347,19 @@
         <v>98</v>
       </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="59"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="11" t="s">
         <v>49</v>
       </c>
@@ -3368,39 +3375,39 @@
         <v>100</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="69"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="59"/>
+      <c r="B77" s="69"/>
       <c r="C77" s="38" t="s">
         <v>31</v>
       </c>
@@ -3410,47 +3417,47 @@
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="57" t="s">
+      <c r="F77" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="69"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
-      <c r="B78" s="59"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="69"/>
       <c r="C78" s="43"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="59"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="69"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="59"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="69"/>
       <c r="C79" s="43"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="86"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="78"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -3470,13 +3477,13 @@
       <c r="G80" s="31"/>
       <c r="H80" s="31"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
@@ -3488,93 +3495,106 @@
       <c r="G81" s="31"/>
       <c r="H81" s="31"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
     </row>
     <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="59"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="69"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+      <c r="J83" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
     </row>
     <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="59"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="69"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
+      <c r="J84" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="59"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="69"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
+      <c r="J85" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
     </row>
     <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="59"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="38" t="s">
         <v>5</v>
       </c>
@@ -3595,23 +3615,33 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K86" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="L86" s="87"/>
-      <c r="M86" s="87"/>
-      <c r="N86" s="87"/>
-      <c r="O86" s="87"/>
-      <c r="P86" s="87"/>
-      <c r="Q86" s="87"/>
+        <v>4</v>
+      </c>
+      <c r="K86" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N86" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="O86" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P86" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="74"/>
     </row>
     <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61" t="s">
+      <c r="A87" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="59"/>
+      <c r="B87" s="69"/>
       <c r="C87" s="11" t="s">
         <v>11</v>
       </c>
@@ -3629,24 +3659,32 @@
         <v>15</v>
       </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K87" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="L87" s="87"/>
-      <c r="M87" s="87"/>
-      <c r="N87" s="87"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
+      <c r="J87" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N87" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O87" s="27"/>
+      <c r="P87" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q87" s="75"/>
     </row>
     <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61" t="s">
+      <c r="A88" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="59"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="11" t="s">
         <v>17</v>
       </c>
@@ -3664,22 +3702,30 @@
         <v>19</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
-      <c r="P88" s="74"/>
-      <c r="Q88" s="74"/>
+      <c r="J88" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L88" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q88" s="75"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61" t="s">
+      <c r="A89" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="59"/>
+      <c r="B89" s="69"/>
       <c r="C89" s="11" t="s">
         <v>11</v>
       </c>
@@ -3697,34 +3743,19 @@
         <v>24</v>
       </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="M89" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="N89" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P89" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="88"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="61" t="s">
+      <c r="A90" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="59"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
@@ -3742,32 +3773,19 @@
         <v>130</v>
       </c>
       <c r="I90" s="2"/>
-      <c r="J90" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="K90" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N90" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O90" s="27"/>
-      <c r="P90" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q90" s="89"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="59"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="11" t="s">
         <v>11</v>
       </c>
@@ -3785,24 +3803,13 @@
         <v>131</v>
       </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K91" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M91" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q91" s="89"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
@@ -3824,19 +3831,19 @@
         <v>142</v>
       </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
     </row>
     <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="59"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="11" t="s">
         <v>11</v>
       </c>
@@ -3854,39 +3861,32 @@
         <v>143</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="57" t="s">
+      <c r="A94" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="59"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="69"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="59"/>
+      <c r="B95" s="69"/>
       <c r="C95" s="38" t="s">
         <v>31</v>
       </c>
@@ -3896,141 +3896,127 @@
       <c r="E95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="57" t="s">
+      <c r="F95" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="58"/>
-      <c r="H95" s="59"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="69"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
-      <c r="B96" s="59"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="69"/>
       <c r="C96" s="43"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="59"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="69"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="60"/>
-      <c r="B97" s="59"/>
+      <c r="A97" s="71"/>
+      <c r="B97" s="69"/>
       <c r="C97" s="43"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="59"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="69"/>
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="66"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="96"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
+      <c r="G98" s="96"/>
+      <c r="H98" s="97"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="69"/>
+      <c r="A99" s="98"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="100"/>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="69"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="100"/>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="72"/>
+      <c r="A101" s="101"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="103"/>
       <c r="I101" s="4"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="58"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="59"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="69"/>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="61" t="s">
+      <c r="B103" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="59"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="69"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="59"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="69"/>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="59"/>
+      <c r="B105" s="69"/>
       <c r="C105" s="38" t="s">
         <v>5</v>
       </c>
@@ -4052,10 +4038,10 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="61" t="s">
+      <c r="A106" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="59"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="11" t="s">
         <v>11</v>
       </c>
@@ -4075,10 +4061,10 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="59"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="11" t="s">
         <v>17</v>
       </c>
@@ -4096,23 +4082,25 @@
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="59"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="69"/>
       <c r="I108" s="4"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="59"/>
+      <c r="B109" s="69"/>
       <c r="C109" s="38" t="s">
         <v>31</v>
       </c>
@@ -4122,33 +4110,37 @@
       <c r="E109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="57" t="s">
+      <c r="F109" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="58"/>
-      <c r="H109" s="59"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="69"/>
       <c r="I109" s="2"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="60"/>
-      <c r="B110" s="59"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="69"/>
       <c r="C110" s="43"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="59"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="69"/>
       <c r="I110" s="2"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
-      <c r="B111" s="59"/>
+      <c r="A111" s="71"/>
+      <c r="B111" s="69"/>
       <c r="C111" s="43"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="59"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="69"/>
       <c r="I111" s="4"/>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
@@ -4163,8 +4155,6 @@
       <c r="G112" s="31"/>
       <c r="H112" s="31"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
@@ -4176,8 +4166,6 @@
       <c r="G113" s="31"/>
       <c r="H113" s="31"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
@@ -4189,8 +4177,6 @@
       <c r="G114" s="31"/>
       <c r="H114" s="31"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I115" s="4"/>
@@ -4199,52 +4185,53 @@
       <c r="A116" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C116" s="55" t="s">
+      <c r="C116" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="55"/>
+      <c r="D116" s="91"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="91"/>
+      <c r="H116" s="91"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="55"/>
-      <c r="H117" s="55"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="91"/>
       <c r="I117" s="2"/>
+      <c r="K117" s="48"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="62" t="s">
+      <c r="A118" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="91"/>
+      <c r="E118" s="91"/>
+      <c r="F118" s="91"/>
+      <c r="G118" s="91"/>
+      <c r="H118" s="91"/>
       <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="63" t="s">
+      <c r="A119" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="55"/>
+      <c r="B119" s="91"/>
       <c r="C119" s="40" t="s">
         <v>116</v>
       </c>
@@ -4266,10 +4253,10 @@
       <c r="I119" s="20"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="54" t="s">
+      <c r="A120" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="55"/>
+      <c r="B120" s="91"/>
       <c r="C120" s="46" t="s">
         <v>88</v>
       </c>
@@ -4287,13 +4274,12 @@
         <v>122</v>
       </c>
       <c r="I120" s="20"/>
-      <c r="K120" s="48"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="54" t="s">
+      <c r="A121" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="55"/>
+      <c r="B121" s="91"/>
       <c r="C121" s="46" t="s">
         <v>11</v>
       </c>
@@ -4313,10 +4299,10 @@
       <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="54" t="s">
+      <c r="A122" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="55"/>
+      <c r="B122" s="91"/>
       <c r="C122" s="46" t="s">
         <v>26</v>
       </c>
@@ -4334,10 +4320,10 @@
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B123" s="55"/>
+      <c r="B123" s="91"/>
       <c r="C123" s="46" t="s">
         <v>26</v>
       </c>
@@ -4355,10 +4341,10 @@
       <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="56" t="s">
+      <c r="A124" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="B124" s="55"/>
+      <c r="B124" s="91"/>
       <c r="C124" s="47" t="s">
         <v>123</v>
       </c>
@@ -4376,10 +4362,10 @@
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="56" t="s">
+      <c r="A125" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B125" s="55"/>
+      <c r="B125" s="91"/>
       <c r="C125" s="47" t="s">
         <v>11</v>
       </c>
@@ -7112,118 +7098,28 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="J60:Q60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="K86:Q86"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="K87:Q87"/>
-    <mergeCell ref="J88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A13:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A98:H101"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="K51:Q51"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -7245,27 +7141,117 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A98:H101"/>
-    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="J85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.905820\Documents\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928BB083-6A0E-42CA-B307-5C7766FAB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88335CC4-8CA4-4557-B7EB-3826EDEED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,11 +579,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -775,15 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -831,12 +817,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -914,40 +909,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,7 +943,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -979,127 +965,121 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1029"/>
+  <dimension ref="A1:Q1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1342,19 +1322,19 @@
     <col min="17" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1364,19 +1344,19 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1386,17 +1366,17 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1406,12 +1386,12 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1426,7 +1406,7 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
@@ -1438,11 +1418,11 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1468,15 +1448,15 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1496,11 +1476,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1524,11 +1504,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1552,17 +1532,17 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1572,12 +1552,12 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1586,11 +1566,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1600,23 +1580,23 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="69"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1626,25 +1606,33 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1654,15 +1642,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1672,15 +1660,15 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1690,348 +1678,348 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="J16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
+      <c r="K16" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="J17" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="52" t="s">
+      <c r="K17" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="88"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="57"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="27"/>
+      <c r="P20" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="91"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="69"/>
+      <c r="A21" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="57"/>
       <c r="C21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="27" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>108</v>
+        <v>26</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="N21" s="27"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q21" s="58"/>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="69"/>
+      <c r="P21" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="91"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="57"/>
       <c r="C22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="11" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="58"/>
+      <c r="J22" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="93"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="A23" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="62"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="K25" s="43" t="s">
+      <c r="L24" s="46"/>
+      <c r="M24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="55" t="s">
+      <c r="N24" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="64" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="69"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2042,14 +2030,14 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2060,14 +2048,14 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2078,14 +2066,14 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2096,296 +2084,323 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="69"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="2"/>
       <c r="J31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="86"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="30" t="s">
+      <c r="K31" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="86"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="73"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>1</v>
+      <c r="A34" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P34" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="89"/>
+      <c r="J34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="69"/>
+      <c r="A35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="57"/>
       <c r="C35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="5" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="N35" s="5"/>
       <c r="O35" s="19"/>
-      <c r="P35" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q35" s="86"/>
+      <c r="P35" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q35" s="71"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="69"/>
+      <c r="A36" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="57"/>
       <c r="C36" s="11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="77"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q36" s="86"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="68"/>
+      <c r="H37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="57"/>
+      <c r="L37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="69"/>
+      <c r="A38" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="57"/>
       <c r="C38" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="14" t="s">
-        <v>57</v>
+      <c r="H38" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" s="69"/>
-      <c r="L38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="69"/>
+      <c r="J38" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="57"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="69"/>
+      <c r="A39" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="57"/>
       <c r="C39" s="11" t="s">
         <v>40</v>
       </c>
@@ -2393,36 +2408,27 @@
         <v>59</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O39" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="69"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="69"/>
+      <c r="A40" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="57"/>
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
@@ -2430,14 +2436,14 @@
         <v>59</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="I40" s="15"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
@@ -2447,82 +2453,74 @@
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="69"/>
+      <c r="A41" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="57"/>
       <c r="C41" s="11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="N41" s="33"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="69"/>
+      <c r="A42" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="57"/>
       <c r="C42" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>67</v>
+        <v>11</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H42" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="36"/>
+      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="A43" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="2"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -2533,16 +2531,24 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="69"/>
+      <c r="A44" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2553,24 +2559,22 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="69"/>
+      <c r="A45" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="2"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2581,40 +2585,32 @@
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="69"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="2"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="2"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2625,14 +2621,14 @@
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="39"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2643,14 +2639,14 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2661,195 +2657,216 @@
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="17"/>
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+    </row>
+    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="69"/>
+        <v>1</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="2"/>
       <c r="J51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-    </row>
-    <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="69"/>
+      <c r="K51" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="21" t="s">
+      <c r="J52" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="57"/>
+      <c r="C53" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="69"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
+      <c r="J53" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P53" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="61"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="69"/>
-      <c r="C54" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P54" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="66"/>
+      <c r="J54" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="22"/>
+      <c r="P54" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q54" s="52"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="69"/>
+      <c r="A55" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="57"/>
       <c r="C55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="29" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="M55" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N55" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="N55" s="22"/>
       <c r="O55" s="22"/>
-      <c r="P55" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q55" s="65"/>
+      <c r="P55" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="52"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="69"/>
+      <c r="A56" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="57"/>
       <c r="C56" s="11" t="s">
         <v>40</v>
       </c>
@@ -2862,38 +2879,30 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="M56" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q56" s="65"/>
+        <v>81</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="77"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="69"/>
+      <c r="A57" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="77"/>
       <c r="C57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>13</v>
@@ -2901,108 +2910,107 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="68"/>
+        <v>85</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="57"/>
+      <c r="L57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="57"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="68"/>
+      <c r="A58" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="57"/>
       <c r="C58" s="11" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" s="69"/>
-      <c r="L58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="69"/>
+      <c r="J58" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="K58" s="57"/>
+      <c r="L58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="8"/>
+      <c r="N58" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="57"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
+      <c r="A59" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>86</v>
+      <c r="H59" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="K59" s="69"/>
-      <c r="L59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O59" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="69"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>89</v>
+      <c r="A60" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="57"/>
+      <c r="C60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>13</v>
@@ -3012,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="17"/>
@@ -3024,10 +3032,10 @@
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="69"/>
+      <c r="A61" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="57"/>
       <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
@@ -3042,9 +3050,9 @@
         <v>14</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="I61" s="12"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
@@ -3054,26 +3062,16 @@
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="69"/>
-      <c r="C62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A62" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
       <c r="I62" s="12"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -3084,16 +3082,24 @@
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="69"/>
+      <c r="A63" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="57"/>
+      <c r="C63" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
       <c r="I63" s="12"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -3104,66 +3110,56 @@
       <c r="P63" s="17"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="60"/>
-      <c r="H64" s="69"/>
+      <c r="A64" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="57"/>
+      <c r="C64" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="69"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+    </row>
+    <row r="65" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
       <c r="I65" s="12"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="42"/>
+      <c r="L65" s="38"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="16"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
       <c r="I66" s="12"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -3174,14 +3170,14 @@
       <c r="P66" s="16"/>
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="16"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
       <c r="I67" s="12"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
@@ -3192,6 +3188,14 @@
       <c r="P67" s="16"/>
     </row>
     <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="15"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -3205,15 +3209,15 @@
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="69"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
       <c r="I69" s="15"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3227,15 +3231,15 @@
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="69"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="57"/>
       <c r="I70" s="15"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3246,16 +3250,16 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="69"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
       <c r="I71" s="13"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3266,11 +3270,11 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="69"/>
-      <c r="C72" s="38" t="s">
+      <c r="B72" s="57"/>
+      <c r="C72" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -3285,23 +3289,23 @@
       <c r="G72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="38" t="s">
+      <c r="H72" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="37"/>
+      <c r="M72" s="34"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="69"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
@@ -3328,10 +3332,10 @@
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="69"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="11" t="s">
         <v>150</v>
       </c>
@@ -3343,7 +3347,7 @@
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="53" t="s">
+      <c r="H74" s="48" t="s">
         <v>98</v>
       </c>
       <c r="I74" s="3"/>
@@ -3356,10 +3360,10 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="69"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="11" t="s">
         <v>49</v>
       </c>
@@ -3384,16 +3388,16 @@
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="69"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="57"/>
       <c r="I76" s="2"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3404,11 +3408,11 @@
       <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="69"/>
-      <c r="C77" s="38" t="s">
+      <c r="B77" s="57"/>
+      <c r="C77" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3417,11 +3421,11 @@
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="59" t="s">
+      <c r="F77" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="60"/>
-      <c r="H77" s="69"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
       <c r="I77" s="2"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -3432,14 +3436,14 @@
       <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="69"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="57"/>
       <c r="I78" s="2"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -3450,14 +3454,14 @@
       <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="78"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="86"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -3468,14 +3472,14 @@
       <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
       <c r="I80" s="4"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3485,15 +3489,15 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
+    <row r="81" spans="1:17" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
       <c r="I81" s="4"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3504,233 +3508,218 @@
       <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K83" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
     </row>
     <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="69"/>
+        <v>0</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
       <c r="I84" s="2"/>
       <c r="J84" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="L84" s="87"/>
+      <c r="M84" s="87"/>
+      <c r="N84" s="87"/>
+      <c r="O84" s="87"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="87"/>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K84" s="56" t="s">
+      <c r="B85" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K85" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-    </row>
-    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73" t="s">
+      <c r="L85" s="87"/>
+      <c r="M85" s="87"/>
+      <c r="N85" s="87"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="57" t="s">
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="57"/>
-    </row>
-    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="88"/>
+      <c r="N86" s="88"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="88"/>
+      <c r="Q86" s="88"/>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="69"/>
-      <c r="C86" s="38" t="s">
+      <c r="B87" s="57"/>
+      <c r="C87" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="38" t="s">
+      <c r="H87" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="26" t="s">
+      <c r="I87" s="2"/>
+      <c r="J87" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K86" s="26" t="s">
+      <c r="K87" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L86" s="26" t="s">
+      <c r="L87" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M86" s="26" t="s">
+      <c r="M87" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N86" s="26" t="s">
+      <c r="N87" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O86" s="26" t="s">
+      <c r="O87" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P86" s="74" t="s">
+      <c r="P87" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="Q86" s="74"/>
-    </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="Q87" s="89"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="69"/>
-      <c r="C87" s="11" t="s">
+      <c r="B88" s="57"/>
+      <c r="C88" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N87" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O87" s="27"/>
-      <c r="P87" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q87" s="75"/>
-    </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="69"/>
-      <c r="C88" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="G88" s="5"/>
       <c r="H88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="I88" s="2"/>
       <c r="J88" s="27" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L88" s="28" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="L88" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="M88" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N88" s="27"/>
+      <c r="N88" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="O88" s="27"/>
-      <c r="P88" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q88" s="75"/>
+      <c r="P88" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q88" s="90"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="69"/>
+      <c r="A89" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="57"/>
       <c r="C89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>13</v>
@@ -3740,22 +3729,33 @@
         <v>14</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q89" s="90"/>
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="69"/>
+      <c r="A90" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="57"/>
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
@@ -3770,9 +3770,9 @@
         <v>14</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I90" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -3782,10 +3782,10 @@
       <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="69"/>
+      <c r="A91" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="57"/>
       <c r="C91" s="11" t="s">
         <v>11</v>
       </c>
@@ -3800,35 +3800,37 @@
         <v>14</v>
       </c>
       <c r="H91" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="57"/>
+      <c r="C92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -3840,25 +3842,23 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="69"/>
+      <c r="A93" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="18"/>
       <c r="C93" s="11" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G93" s="5"/>
       <c r="H93" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -3871,463 +3871,480 @@
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="57"/>
+      <c r="C94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59" t="s">
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="69"/>
-      <c r="C95" s="38" t="s">
+      <c r="B96" s="57"/>
+      <c r="C96" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="59" t="s">
+      <c r="F96" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="60"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="69"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="43"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="4"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="95"/>
-      <c r="B98" s="96"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="96"/>
-      <c r="E98" s="96"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="97"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="98"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="100"/>
-      <c r="I99" s="4"/>
+      <c r="A99" s="62"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="96"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="99"/>
-      <c r="H100" s="100"/>
-      <c r="I100" s="4"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="96"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
-      <c r="B101" s="102"/>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="102"/>
-      <c r="H101" s="103"/>
-      <c r="I101" s="4"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="96"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="2"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="96"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="72" t="s">
+      <c r="B104" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="73" t="s">
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="69"/>
-      <c r="C105" s="38" t="s">
+      <c r="B106" s="57"/>
+      <c r="C106" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="38" t="s">
+      <c r="H106" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="72" t="s">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="69"/>
-      <c r="C106" s="11" t="s">
+      <c r="B107" s="57"/>
+      <c r="C107" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="69"/>
-      <c r="C107" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G107" s="5"/>
       <c r="H107" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I107" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="57"/>
+      <c r="C108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="69"/>
-      <c r="C109" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F109" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="60"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="2"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="69"/>
+      <c r="A110" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="57"/>
+      <c r="C110" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
       <c r="I110" s="2"/>
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="43"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="39"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="4"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="2"/>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
       <c r="I112" s="4"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="D116" s="91"/>
-      <c r="E116" s="91"/>
-      <c r="F116" s="91"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="2"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="95"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="95"/>
+      <c r="G116" s="95"/>
+      <c r="H116" s="95"/>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="65" t="s">
+      <c r="B118" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="91"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="91"/>
-      <c r="F117" s="91"/>
-      <c r="G117" s="91"/>
-      <c r="H117" s="91"/>
-      <c r="I117" s="2"/>
-      <c r="K117" s="48"/>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63" t="s">
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="2"/>
+      <c r="K118" s="43"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="91"/>
-      <c r="C118" s="91"/>
-      <c r="D118" s="91"/>
-      <c r="E118" s="91"/>
-      <c r="F118" s="91"/>
-      <c r="G118" s="91"/>
-      <c r="H118" s="91"/>
-      <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="66" t="s">
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="91"/>
-      <c r="C119" s="40" t="s">
+      <c r="B120" s="53"/>
+      <c r="C120" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D120" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E120" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F120" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="21" t="s">
+      <c r="G120" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="40" t="s">
+      <c r="H120" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="65" t="s">
+      <c r="I120" s="20"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="91"/>
-      <c r="C120" s="46" t="s">
+      <c r="B121" s="53"/>
+      <c r="C121" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D121" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="22"/>
-      <c r="H120" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="E121" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22" t="s">
+      <c r="F121" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="41" t="s">
-        <v>124</v>
+      <c r="G121" s="22"/>
+      <c r="H121" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" s="91"/>
-      <c r="C122" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>27</v>
+      <c r="A122" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="53"/>
+      <c r="C122" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="E122" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="41" t="s">
-        <v>125</v>
+      <c r="G122" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="46" t="s">
+      <c r="A123" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="53"/>
+      <c r="C123" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E123" s="22" t="s">
@@ -4335,56 +4352,74 @@
       </c>
       <c r="F123" s="22"/>
       <c r="G123" s="22"/>
-      <c r="H123" s="41" t="s">
-        <v>126</v>
+      <c r="H123" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124" s="91"/>
-      <c r="C124" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E124" s="25" t="s">
+      <c r="A124" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="53"/>
+      <c r="C124" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
-      <c r="H124" s="41" t="s">
-        <v>128</v>
+      <c r="H124" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="47" t="s">
-        <v>11</v>
+      <c r="A125" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="53"/>
+      <c r="C125" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F125" s="25"/>
-      <c r="G125" s="23" t="s">
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="53"/>
+      <c r="C126" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="25"/>
+      <c r="G126" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H126" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" s="20"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4394,7 +4429,7 @@
       <c r="I128" s="20"/>
     </row>
     <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I129" s="13"/>
+      <c r="I129" s="20"/>
     </row>
     <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I130" s="13"/>
@@ -7096,30 +7131,124 @@
     <row r="1029" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1029" s="13"/>
     </row>
+    <row r="1030" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1030" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
+  <mergeCells count="158">
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="J86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A98:H101"/>
-    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A80:H83"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:H68"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A26:H29"/>
+    <mergeCell ref="A46:H49"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="K50:Q50"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -7133,125 +7262,38 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A12:H15"/>
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A96:B96"/>
     <mergeCell ref="A97:B97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="J85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A99:H102"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A113:H116"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC do Brunooo\Documents\Github\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A139B56-70B0-46F0-9610-B7D568220A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553595F-BDAC-484A-893A-B8D05D519C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="4185" windowWidth="24345" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="164">
   <si>
     <t>Tabela</t>
   </si>
@@ -503,6 +503,15 @@
   </si>
   <si>
     <t>cd_status_manutencoes</t>
+  </si>
+  <si>
+    <t>idx_tipos_manutencao_cd_tipo</t>
+  </si>
+  <si>
+    <t>idx_tipos_manutencao_descriacao</t>
+  </si>
+  <si>
+    <t>descriacao</t>
   </si>
 </sst>
 </file>
@@ -774,52 +783,52 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1040,42 +1049,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" customWidth="1"/>
+    <col min="17" max="17" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1085,19 +1094,19 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1107,17 +1116,17 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1127,11 +1136,11 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,11 +1168,11 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1189,11 +1198,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1217,11 +1226,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1245,11 +1254,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1273,17 +1282,17 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1293,11 +1302,11 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1307,11 +1316,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1321,21 +1330,21 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1345,11 +1354,11 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
         <v>14</v>
@@ -1357,11 +1366,11 @@
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1371,9 +1380,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="43"/>
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
@@ -1389,19 +1398,19 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="2"/>
       <c r="J14" s="33" t="s">
         <v>0</v>
@@ -1415,19 +1424,19 @@
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="2"/>
       <c r="J15" s="33" t="s">
         <v>1</v>
@@ -1441,33 +1450,33 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1509,11 +1518,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1547,15 +1556,15 @@
         <v>14</v>
       </c>
       <c r="O18" s="34"/>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1585,15 +1594,15 @@
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1612,24 +1621,24 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1639,28 +1648,28 @@
       <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1670,7 +1679,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1680,19 +1689,19 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1702,19 +1711,19 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1724,24 +1733,24 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="38"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1764,20 +1773,20 @@
       <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1798,20 +1807,20 @@
       <c r="J29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
@@ -1827,21 +1836,21 @@
         <v>54</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
@@ -1879,11 +1888,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1919,11 +1928,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1957,11 +1966,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="44"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
@@ -1978,11 +1987,11 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
@@ -1999,11 +2008,11 @@
       </c>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="5" t="s">
         <v>69</v>
       </c>
@@ -2020,11 +2029,11 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
@@ -2050,9 +2059,9 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="9"/>
@@ -2068,19 +2077,19 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="2"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2090,19 +2099,19 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="2"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2112,17 +2121,17 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="2"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -2132,11 +2141,11 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="44"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2159,20 +2168,20 @@
       <c r="J42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="42" t="s">
+      <c r="K42" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="44"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="44"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2193,20 +2202,20 @@
       <c r="J43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="44"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="44"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
@@ -2232,11 +2241,11 @@
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="44"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
@@ -2274,11 +2283,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="5" t="s">
         <v>86</v>
       </c>
@@ -2314,11 +2323,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
@@ -2354,11 +2363,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="44"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="14" t="s">
         <v>91</v>
       </c>
@@ -2384,11 +2393,11 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="44"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="5" t="s">
         <v>11</v>
       </c>
@@ -2414,11 +2423,11 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2453,7 @@
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
@@ -2454,19 +2463,19 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="38"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
@@ -2476,19 +2485,19 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="38"/>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
@@ -2498,17 +2507,17 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -2518,11 +2527,11 @@
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="44"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2550,11 +2559,11 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="44"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2580,11 +2589,11 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="44"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="5" t="s">
         <v>26</v>
       </c>
@@ -2608,11 +2617,11 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="44"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="5" t="s">
         <v>155</v>
       </c>
@@ -2636,17 +2645,17 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="38"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -2656,11 +2665,11 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="44"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
@@ -2670,11 +2679,11 @@
       <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="44"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -2684,15 +2693,15 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="44"/>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="42"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="44"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="38"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2702,15 +2711,15 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="44"/>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="42"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -2720,7 +2729,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -2730,19 +2739,19 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="44"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="38"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2752,19 +2761,19 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="44"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="38"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2774,17 +2783,17 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -2794,11 +2803,11 @@
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="44"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2821,20 +2830,20 @@
       <c r="J67" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="K67" s="54" t="s">
+      <c r="K67" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="44"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="5" t="s">
         <v>11</v>
       </c>
@@ -2855,20 +2864,20 @@
       <c r="J68" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K68" s="54" t="s">
+      <c r="K68" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="44"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="5" t="s">
         <v>17</v>
       </c>
@@ -2886,21 +2895,21 @@
         <v>19</v>
       </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="36" t="s">
+      <c r="J69" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="44"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="5" t="s">
         <v>11</v>
       </c>
@@ -2940,11 +2949,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="44"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="5" t="s">
         <v>11</v>
       </c>
@@ -2978,15 +2987,15 @@
         <v>14</v>
       </c>
       <c r="O71" s="34"/>
-      <c r="P71" s="55" t="s">
+      <c r="P71" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="44"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
@@ -3018,11 +3027,11 @@
       </c>
       <c r="N72" s="34"/>
       <c r="O72" s="34"/>
-      <c r="P72" s="55" t="s">
+      <c r="P72" s="36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>144</v>
       </c>
@@ -3050,11 +3059,11 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="44"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
@@ -3080,17 +3089,17 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3100,11 +3109,11 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="44"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="1" t="s">
         <v>31</v>
       </c>
@@ -3114,11 +3123,11 @@
       <c r="E76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="44"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3128,15 +3137,15 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="44"/>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="42"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3146,18 +3155,18 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="44"/>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="42"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="44"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="38"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="19"/>
       <c r="C79" s="29"/>
@@ -3168,54 +3177,54 @@
       <c r="H79" s="20"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="38"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45" t="s">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="44"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="44"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
@@ -3236,11 +3245,11 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="44"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="5" t="s">
         <v>11</v>
       </c>
@@ -3259,11 +3268,11 @@
       </c>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="44"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="5" t="s">
         <v>17</v>
       </c>
@@ -3280,24 +3289,24 @@
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="38"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="44"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
@@ -3307,90 +3316,104 @@
       <c r="E87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F87" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="44"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="7"/>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="44"/>
+      <c r="E88" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="38"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="44"/>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="38"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E89" s="8"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="44"/>
+      <c r="F89" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="4"/>
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="38"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="24" t="s">
         <v>120</v>
       </c>
@@ -3411,11 +3434,11 @@
       </c>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="38"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="31" t="s">
         <v>91</v>
       </c>
@@ -3434,11 +3457,11 @@
       </c>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="38"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="31" t="s">
         <v>11</v>
       </c>
@@ -3457,11 +3480,11 @@
       </c>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="38"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="31" t="s">
         <v>26</v>
       </c>
@@ -3478,11 +3501,11 @@
       </c>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="38"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="31" t="s">
         <v>26</v>
       </c>
@@ -3499,11 +3522,11 @@
       </c>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41" t="s">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="38"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="32" t="s">
         <v>127</v>
       </c>
@@ -3520,11 +3543,11 @@
       </c>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="38"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="32" t="s">
         <v>11</v>
       </c>
@@ -3543,2765 +3566,2766 @@
       </c>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I112" s="13"/>
     </row>
-    <row r="113" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I113" s="13"/>
     </row>
-    <row r="114" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I114" s="13"/>
     </row>
-    <row r="115" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I115" s="13"/>
     </row>
-    <row r="116" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I116" s="13"/>
     </row>
-    <row r="117" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I117" s="13"/>
     </row>
-    <row r="118" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I120" s="13"/>
     </row>
-    <row r="121" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I121" s="13"/>
     </row>
-    <row r="122" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I122" s="13"/>
     </row>
-    <row r="123" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I123" s="13"/>
     </row>
-    <row r="124" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I124" s="13"/>
     </row>
-    <row r="125" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I125" s="13"/>
     </row>
-    <row r="126" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I126" s="13"/>
     </row>
-    <row r="127" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I127" s="13"/>
     </row>
-    <row r="128" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I128" s="13"/>
     </row>
-    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I130" s="13"/>
     </row>
-    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I132" s="13"/>
     </row>
-    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I133" s="13"/>
     </row>
-    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I134" s="13"/>
     </row>
-    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I135" s="13"/>
     </row>
-    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I136" s="13"/>
     </row>
-    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I137" s="13"/>
     </row>
-    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I138" s="13"/>
     </row>
-    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I139" s="13"/>
     </row>
-    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I140" s="13"/>
     </row>
-    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I141" s="13"/>
     </row>
-    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I142" s="13"/>
     </row>
-    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I143" s="13"/>
     </row>
-    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I144" s="13"/>
     </row>
-    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I147" s="13"/>
     </row>
-    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I148" s="13"/>
     </row>
-    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I149" s="13"/>
     </row>
-    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I150" s="13"/>
     </row>
-    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I151" s="13"/>
     </row>
-    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I152" s="13"/>
     </row>
-    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I156" s="13"/>
     </row>
-    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I157" s="13"/>
     </row>
-    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I158" s="13"/>
     </row>
-    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I159" s="13"/>
     </row>
-    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I160" s="13"/>
     </row>
-    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I161" s="13"/>
     </row>
-    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I162" s="13"/>
     </row>
-    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I163" s="13"/>
     </row>
-    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I164" s="13"/>
     </row>
-    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I165" s="13"/>
     </row>
-    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I166" s="13"/>
     </row>
-    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I167" s="13"/>
     </row>
-    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I170" s="13"/>
     </row>
-    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I171" s="13"/>
     </row>
-    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I172" s="13"/>
     </row>
-    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I176" s="13"/>
     </row>
-    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I177" s="13"/>
     </row>
-    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I178" s="13"/>
     </row>
-    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I179" s="13"/>
     </row>
-    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I180" s="13"/>
     </row>
-    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I181" s="13"/>
     </row>
-    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I182" s="13"/>
     </row>
-    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I183" s="13"/>
     </row>
-    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I184" s="13"/>
     </row>
-    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I189" s="13"/>
     </row>
-    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I190" s="13"/>
     </row>
-    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I191" s="13"/>
     </row>
-    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I192" s="13"/>
     </row>
-    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I193" s="13"/>
     </row>
-    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I194" s="13"/>
     </row>
-    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I195" s="13"/>
     </row>
-    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I196" s="13"/>
     </row>
-    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I197" s="13"/>
     </row>
-    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I198" s="13"/>
     </row>
-    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I199" s="13"/>
     </row>
-    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I200" s="13"/>
     </row>
-    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I201" s="13"/>
     </row>
-    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I202" s="13"/>
     </row>
-    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I203" s="13"/>
     </row>
-    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I204" s="13"/>
     </row>
-    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I205" s="13"/>
     </row>
-    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I206" s="13"/>
     </row>
-    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I207" s="13"/>
     </row>
-    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I208" s="13"/>
     </row>
-    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I209" s="13"/>
     </row>
-    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I210" s="13"/>
     </row>
-    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I211" s="13"/>
     </row>
-    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I212" s="13"/>
     </row>
-    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I213" s="13"/>
     </row>
-    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I214" s="13"/>
     </row>
-    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I215" s="13"/>
     </row>
-    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I216" s="13"/>
     </row>
-    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I217" s="13"/>
     </row>
-    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I218" s="13"/>
     </row>
-    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I219" s="13"/>
     </row>
-    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I220" s="13"/>
     </row>
-    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I221" s="13"/>
     </row>
-    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I222" s="13"/>
     </row>
-    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I223" s="13"/>
     </row>
-    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I224" s="13"/>
     </row>
-    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I226" s="13"/>
     </row>
-    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I227" s="13"/>
     </row>
-    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I228" s="13"/>
     </row>
-    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I229" s="13"/>
     </row>
-    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I230" s="13"/>
     </row>
-    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I231" s="13"/>
     </row>
-    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I232" s="13"/>
     </row>
-    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I233" s="13"/>
     </row>
-    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I234" s="13"/>
     </row>
-    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I235" s="13"/>
     </row>
-    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I236" s="13"/>
     </row>
-    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I237" s="13"/>
     </row>
-    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I238" s="13"/>
     </row>
-    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I239" s="13"/>
     </row>
-    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I240" s="13"/>
     </row>
-    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I241" s="13"/>
     </row>
-    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I242" s="13"/>
     </row>
-    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I243" s="13"/>
     </row>
-    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I244" s="13"/>
     </row>
-    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I245" s="13"/>
     </row>
-    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I246" s="13"/>
     </row>
-    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I247" s="13"/>
     </row>
-    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I248" s="13"/>
     </row>
-    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I249" s="13"/>
     </row>
-    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I250" s="13"/>
     </row>
-    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I251" s="13"/>
     </row>
-    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I252" s="13"/>
     </row>
-    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I255" s="13"/>
     </row>
-    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I256" s="13"/>
     </row>
-    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I257" s="13"/>
     </row>
-    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I258" s="13"/>
     </row>
-    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I259" s="13"/>
     </row>
-    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I260" s="13"/>
     </row>
-    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I261" s="13"/>
     </row>
-    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I262" s="13"/>
     </row>
-    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I263" s="13"/>
     </row>
-    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I264" s="13"/>
     </row>
-    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I265" s="13"/>
     </row>
-    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I267" s="13"/>
     </row>
-    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I268" s="13"/>
     </row>
-    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I269" s="13"/>
     </row>
-    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I270" s="13"/>
     </row>
-    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I271" s="13"/>
     </row>
-    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I272" s="13"/>
     </row>
-    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I273" s="13"/>
     </row>
-    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I274" s="13"/>
     </row>
-    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I275" s="13"/>
     </row>
-    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I276" s="13"/>
     </row>
-    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I277" s="13"/>
     </row>
-    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I278" s="13"/>
     </row>
-    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I279" s="13"/>
     </row>
-    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I280" s="13"/>
     </row>
-    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I281" s="13"/>
     </row>
-    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I282" s="13"/>
     </row>
-    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I283" s="13"/>
     </row>
-    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I284" s="13"/>
     </row>
-    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I285" s="13"/>
     </row>
-    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I286" s="13"/>
     </row>
-    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I287" s="13"/>
     </row>
-    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I288" s="13"/>
     </row>
-    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I289" s="13"/>
     </row>
-    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I290" s="13"/>
     </row>
-    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I291" s="13"/>
     </row>
-    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I292" s="13"/>
     </row>
-    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I293" s="13"/>
     </row>
-    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I294" s="13"/>
     </row>
-    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I295" s="13"/>
     </row>
-    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I296" s="13"/>
     </row>
-    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I297" s="13"/>
     </row>
-    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I298" s="13"/>
     </row>
-    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I299" s="13"/>
     </row>
-    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I300" s="13"/>
     </row>
-    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I301" s="13"/>
     </row>
-    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I302" s="13"/>
     </row>
-    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I303" s="13"/>
     </row>
-    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I304" s="13"/>
     </row>
-    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I305" s="13"/>
     </row>
-    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I306" s="13"/>
     </row>
-    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I307" s="13"/>
     </row>
-    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I308" s="13"/>
     </row>
-    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I309" s="13"/>
     </row>
-    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I310" s="13"/>
     </row>
-    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I311" s="13"/>
     </row>
-    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I312" s="13"/>
     </row>
-    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I313" s="13"/>
     </row>
-    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I314" s="13"/>
     </row>
-    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I315" s="13"/>
     </row>
-    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I316" s="13"/>
     </row>
-    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I317" s="13"/>
     </row>
-    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I318" s="13"/>
     </row>
-    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I319" s="13"/>
     </row>
-    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I320" s="13"/>
     </row>
-    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I321" s="13"/>
     </row>
-    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I322" s="13"/>
     </row>
-    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I323" s="13"/>
     </row>
-    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I325" s="13"/>
     </row>
-    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I326" s="13"/>
     </row>
-    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I327" s="13"/>
     </row>
-    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I328" s="13"/>
     </row>
-    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I329" s="13"/>
     </row>
-    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I330" s="13"/>
     </row>
-    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I331" s="13"/>
     </row>
-    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I332" s="13"/>
     </row>
-    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I333" s="13"/>
     </row>
-    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I334" s="13"/>
     </row>
-    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I335" s="13"/>
     </row>
-    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I336" s="13"/>
     </row>
-    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I337" s="13"/>
     </row>
-    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I338" s="13"/>
     </row>
-    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I339" s="13"/>
     </row>
-    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I340" s="13"/>
     </row>
-    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I341" s="13"/>
     </row>
-    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I342" s="13"/>
     </row>
-    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I343" s="13"/>
     </row>
-    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I345" s="13"/>
     </row>
-    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I347" s="13"/>
     </row>
-    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I348" s="13"/>
     </row>
-    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I349" s="13"/>
     </row>
-    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I350" s="13"/>
     </row>
-    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I351" s="13"/>
     </row>
-    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I352" s="13"/>
     </row>
-    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I353" s="13"/>
     </row>
-    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I355" s="13"/>
     </row>
-    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I356" s="13"/>
     </row>
-    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I357" s="13"/>
     </row>
-    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I358" s="13"/>
     </row>
-    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I359" s="13"/>
     </row>
-    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I360" s="13"/>
     </row>
-    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I361" s="13"/>
     </row>
-    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I362" s="13"/>
     </row>
-    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I363" s="13"/>
     </row>
-    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I364" s="13"/>
     </row>
-    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I365" s="13"/>
     </row>
-    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I366" s="13"/>
     </row>
-    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I367" s="13"/>
     </row>
-    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I368" s="13"/>
     </row>
-    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I369" s="13"/>
     </row>
-    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I370" s="13"/>
     </row>
-    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I371" s="13"/>
     </row>
-    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I372" s="13"/>
     </row>
-    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I373" s="13"/>
     </row>
-    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I374" s="13"/>
     </row>
-    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I375" s="13"/>
     </row>
-    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I376" s="13"/>
     </row>
-    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I377" s="13"/>
     </row>
-    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I378" s="13"/>
     </row>
-    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I379" s="13"/>
     </row>
-    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I380" s="13"/>
     </row>
-    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I381" s="13"/>
     </row>
-    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I382" s="13"/>
     </row>
-    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I383" s="13"/>
     </row>
-    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I384" s="13"/>
     </row>
-    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I385" s="13"/>
     </row>
-    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I386" s="13"/>
     </row>
-    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I387" s="13"/>
     </row>
-    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I388" s="13"/>
     </row>
-    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I389" s="13"/>
     </row>
-    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I390" s="13"/>
     </row>
-    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I393" s="13"/>
     </row>
-    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I394" s="13"/>
     </row>
-    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I395" s="13"/>
     </row>
-    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I396" s="13"/>
     </row>
-    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I397" s="13"/>
     </row>
-    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I398" s="13"/>
     </row>
-    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I399" s="13"/>
     </row>
-    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I400" s="13"/>
     </row>
-    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I401" s="13"/>
     </row>
-    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I402" s="13"/>
     </row>
-    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I403" s="13"/>
     </row>
-    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I404" s="13"/>
     </row>
-    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I405" s="13"/>
     </row>
-    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I406" s="13"/>
     </row>
-    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I407" s="13"/>
     </row>
-    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I408" s="13"/>
     </row>
-    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I409" s="13"/>
     </row>
-    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I410" s="13"/>
     </row>
-    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I411" s="13"/>
     </row>
-    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I412" s="13"/>
     </row>
-    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I413" s="13"/>
     </row>
-    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I414" s="13"/>
     </row>
-    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I415" s="13"/>
     </row>
-    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I416" s="13"/>
     </row>
-    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I417" s="13"/>
     </row>
-    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I418" s="13"/>
     </row>
-    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I419" s="13"/>
     </row>
-    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I420" s="13"/>
     </row>
-    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I421" s="13"/>
     </row>
-    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I422" s="13"/>
     </row>
-    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I423" s="13"/>
     </row>
-    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I424" s="13"/>
     </row>
-    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I425" s="13"/>
     </row>
-    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I426" s="13"/>
     </row>
-    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I427" s="13"/>
     </row>
-    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I428" s="13"/>
     </row>
-    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I429" s="13"/>
     </row>
-    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I430" s="13"/>
     </row>
-    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I431" s="13"/>
     </row>
-    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I432" s="13"/>
     </row>
-    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I433" s="13"/>
     </row>
-    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I434" s="13"/>
     </row>
-    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I435" s="13"/>
     </row>
-    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I436" s="13"/>
     </row>
-    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I437" s="13"/>
     </row>
-    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I438" s="13"/>
     </row>
-    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I439" s="13"/>
     </row>
-    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I440" s="13"/>
     </row>
-    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I441" s="13"/>
     </row>
-    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I442" s="13"/>
     </row>
-    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I443" s="13"/>
     </row>
-    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I444" s="13"/>
     </row>
-    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I445" s="13"/>
     </row>
-    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I446" s="13"/>
     </row>
-    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I447" s="13"/>
     </row>
-    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I448" s="13"/>
     </row>
-    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I449" s="13"/>
     </row>
-    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I450" s="13"/>
     </row>
-    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I451" s="13"/>
     </row>
-    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I452" s="13"/>
     </row>
-    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I453" s="13"/>
     </row>
-    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I454" s="13"/>
     </row>
-    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I455" s="13"/>
     </row>
-    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I456" s="13"/>
     </row>
-    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I457" s="13"/>
     </row>
-    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I458" s="13"/>
     </row>
-    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I459" s="13"/>
     </row>
-    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I460" s="13"/>
     </row>
-    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I461" s="13"/>
     </row>
-    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I462" s="13"/>
     </row>
-    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I463" s="13"/>
     </row>
-    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I464" s="13"/>
     </row>
-    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I465" s="13"/>
     </row>
-    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I466" s="13"/>
     </row>
-    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I467" s="13"/>
     </row>
-    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I468" s="13"/>
     </row>
-    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I469" s="13"/>
     </row>
-    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I470" s="13"/>
     </row>
-    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I471" s="13"/>
     </row>
-    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I472" s="13"/>
     </row>
-    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I473" s="13"/>
     </row>
-    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I474" s="13"/>
     </row>
-    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I475" s="13"/>
     </row>
-    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I476" s="13"/>
     </row>
-    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I477" s="13"/>
     </row>
-    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I478" s="13"/>
     </row>
-    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I479" s="13"/>
     </row>
-    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I480" s="13"/>
     </row>
-    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I481" s="13"/>
     </row>
-    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I482" s="13"/>
     </row>
-    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I483" s="13"/>
     </row>
-    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I484" s="13"/>
     </row>
-    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I485" s="13"/>
     </row>
-    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I486" s="13"/>
     </row>
-    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I487" s="13"/>
     </row>
-    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I488" s="13"/>
     </row>
-    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I489" s="13"/>
     </row>
-    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I490" s="13"/>
     </row>
-    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I491" s="13"/>
     </row>
-    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I492" s="13"/>
     </row>
-    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I493" s="13"/>
     </row>
-    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I494" s="13"/>
     </row>
-    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I495" s="13"/>
     </row>
-    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I496" s="13"/>
     </row>
-    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I497" s="13"/>
     </row>
-    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I498" s="13"/>
     </row>
-    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I499" s="13"/>
     </row>
-    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I500" s="13"/>
     </row>
-    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I501" s="13"/>
     </row>
-    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I502" s="13"/>
     </row>
-    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I503" s="13"/>
     </row>
-    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I504" s="13"/>
     </row>
-    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I505" s="13"/>
     </row>
-    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I506" s="13"/>
     </row>
-    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I507" s="13"/>
     </row>
-    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I508" s="13"/>
     </row>
-    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I509" s="13"/>
     </row>
-    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I510" s="13"/>
     </row>
-    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I511" s="13"/>
     </row>
-    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I512" s="13"/>
     </row>
-    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I513" s="13"/>
     </row>
-    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I514" s="13"/>
     </row>
-    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I515" s="13"/>
     </row>
-    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I516" s="13"/>
     </row>
-    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I517" s="13"/>
     </row>
-    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I518" s="13"/>
     </row>
-    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I519" s="13"/>
     </row>
-    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I520" s="13"/>
     </row>
-    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I521" s="13"/>
     </row>
-    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I522" s="13"/>
     </row>
-    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I523" s="13"/>
     </row>
-    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I524" s="13"/>
     </row>
-    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I525" s="13"/>
     </row>
-    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I526" s="13"/>
     </row>
-    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I527" s="13"/>
     </row>
-    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I528" s="13"/>
     </row>
-    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I529" s="13"/>
     </row>
-    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I530" s="13"/>
     </row>
-    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I531" s="13"/>
     </row>
-    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I532" s="13"/>
     </row>
-    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I533" s="13"/>
     </row>
-    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I534" s="13"/>
     </row>
-    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I535" s="13"/>
     </row>
-    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I536" s="13"/>
     </row>
-    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I537" s="13"/>
     </row>
-    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I538" s="13"/>
     </row>
-    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I539" s="13"/>
     </row>
-    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I540" s="13"/>
     </row>
-    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I541" s="13"/>
     </row>
-    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I542" s="13"/>
     </row>
-    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I543" s="13"/>
     </row>
-    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I544" s="13"/>
     </row>
-    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I545" s="13"/>
     </row>
-    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I546" s="13"/>
     </row>
-    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I547" s="13"/>
     </row>
-    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I548" s="13"/>
     </row>
-    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I549" s="13"/>
     </row>
-    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I550" s="13"/>
     </row>
-    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I551" s="13"/>
     </row>
-    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I552" s="13"/>
     </row>
-    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I553" s="13"/>
     </row>
-    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I554" s="13"/>
     </row>
-    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I555" s="13"/>
     </row>
-    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I556" s="13"/>
     </row>
-    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I557" s="13"/>
     </row>
-    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I558" s="13"/>
     </row>
-    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I559" s="13"/>
     </row>
-    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I560" s="13"/>
     </row>
-    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I561" s="13"/>
     </row>
-    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I562" s="13"/>
     </row>
-    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I563" s="13"/>
     </row>
-    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I564" s="13"/>
     </row>
-    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I565" s="13"/>
     </row>
-    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I566" s="13"/>
     </row>
-    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I567" s="13"/>
     </row>
-    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I568" s="13"/>
     </row>
-    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I569" s="13"/>
     </row>
-    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I570" s="13"/>
     </row>
-    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I571" s="13"/>
     </row>
-    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I572" s="13"/>
     </row>
-    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I573" s="13"/>
     </row>
-    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I574" s="13"/>
     </row>
-    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I575" s="13"/>
     </row>
-    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I576" s="13"/>
     </row>
-    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I577" s="13"/>
     </row>
-    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I578" s="13"/>
     </row>
-    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I579" s="13"/>
     </row>
-    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I580" s="13"/>
     </row>
-    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I581" s="13"/>
     </row>
-    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I582" s="13"/>
     </row>
-    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I583" s="13"/>
     </row>
-    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I584" s="13"/>
     </row>
-    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I585" s="13"/>
     </row>
-    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I586" s="13"/>
     </row>
-    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I587" s="13"/>
     </row>
-    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I588" s="13"/>
     </row>
-    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I589" s="13"/>
     </row>
-    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I590" s="13"/>
     </row>
-    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I591" s="13"/>
     </row>
-    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I592" s="13"/>
     </row>
-    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I593" s="13"/>
     </row>
-    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I594" s="13"/>
     </row>
-    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I595" s="13"/>
     </row>
-    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I596" s="13"/>
     </row>
-    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I597" s="13"/>
     </row>
-    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I598" s="13"/>
     </row>
-    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I599" s="13"/>
     </row>
-    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I600" s="13"/>
     </row>
-    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I601" s="13"/>
     </row>
-    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I602" s="13"/>
     </row>
-    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I603" s="13"/>
     </row>
-    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I604" s="13"/>
     </row>
-    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I605" s="13"/>
     </row>
-    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I606" s="13"/>
     </row>
-    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I607" s="13"/>
     </row>
-    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I608" s="13"/>
     </row>
-    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I609" s="13"/>
     </row>
-    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I610" s="13"/>
     </row>
-    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I611" s="13"/>
     </row>
-    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I612" s="13"/>
     </row>
-    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I613" s="13"/>
     </row>
-    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I614" s="13"/>
     </row>
-    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I615" s="13"/>
     </row>
-    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I616" s="13"/>
     </row>
-    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I617" s="13"/>
     </row>
-    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I618" s="13"/>
     </row>
-    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I619" s="13"/>
     </row>
-    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I620" s="13"/>
     </row>
-    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I621" s="13"/>
     </row>
-    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I622" s="13"/>
     </row>
-    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I623" s="13"/>
     </row>
-    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I624" s="13"/>
     </row>
-    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I625" s="13"/>
     </row>
-    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I626" s="13"/>
     </row>
-    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I627" s="13"/>
     </row>
-    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I628" s="13"/>
     </row>
-    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I629" s="13"/>
     </row>
-    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I630" s="13"/>
     </row>
-    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I631" s="13"/>
     </row>
-    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I632" s="13"/>
     </row>
-    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I633" s="13"/>
     </row>
-    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I634" s="13"/>
     </row>
-    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I635" s="13"/>
     </row>
-    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I636" s="13"/>
     </row>
-    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I637" s="13"/>
     </row>
-    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I638" s="13"/>
     </row>
-    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I639" s="13"/>
     </row>
-    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I640" s="13"/>
     </row>
-    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I641" s="13"/>
     </row>
-    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I642" s="13"/>
     </row>
-    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I643" s="13"/>
     </row>
-    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I644" s="13"/>
     </row>
-    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I645" s="13"/>
     </row>
-    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I646" s="13"/>
     </row>
-    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I647" s="13"/>
     </row>
-    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I648" s="13"/>
     </row>
-    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I649" s="13"/>
     </row>
-    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I650" s="13"/>
     </row>
-    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I651" s="13"/>
     </row>
-    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I652" s="13"/>
     </row>
-    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I653" s="13"/>
     </row>
-    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I654" s="13"/>
     </row>
-    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I655" s="13"/>
     </row>
-    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I656" s="13"/>
     </row>
-    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I657" s="13"/>
     </row>
-    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I658" s="13"/>
     </row>
-    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I659" s="13"/>
     </row>
-    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I660" s="13"/>
     </row>
-    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I661" s="13"/>
     </row>
-    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I662" s="13"/>
     </row>
-    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I663" s="13"/>
     </row>
-    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I664" s="13"/>
     </row>
-    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I665" s="13"/>
     </row>
-    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I666" s="13"/>
     </row>
-    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I667" s="13"/>
     </row>
-    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I668" s="13"/>
     </row>
-    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I669" s="13"/>
     </row>
-    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I670" s="13"/>
     </row>
-    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I671" s="13"/>
     </row>
-    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I672" s="13"/>
     </row>
-    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I673" s="13"/>
     </row>
-    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I674" s="13"/>
     </row>
-    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I675" s="13"/>
     </row>
-    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I676" s="13"/>
     </row>
-    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I677" s="13"/>
     </row>
-    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I678" s="13"/>
     </row>
-    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I679" s="13"/>
     </row>
-    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I680" s="13"/>
     </row>
-    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I681" s="13"/>
     </row>
-    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I682" s="13"/>
     </row>
-    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I683" s="13"/>
     </row>
-    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I684" s="13"/>
     </row>
-    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I685" s="13"/>
     </row>
-    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I686" s="13"/>
     </row>
-    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I687" s="13"/>
     </row>
-    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I688" s="13"/>
     </row>
-    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I689" s="13"/>
     </row>
-    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I690" s="13"/>
     </row>
-    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I691" s="13"/>
     </row>
-    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I692" s="13"/>
     </row>
-    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I693" s="13"/>
     </row>
-    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I694" s="13"/>
     </row>
-    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I695" s="13"/>
     </row>
-    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I696" s="13"/>
     </row>
-    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I697" s="13"/>
     </row>
-    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I698" s="13"/>
     </row>
-    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I699" s="13"/>
     </row>
-    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I700" s="13"/>
     </row>
-    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I701" s="13"/>
     </row>
-    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I702" s="13"/>
     </row>
-    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I703" s="13"/>
     </row>
-    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I704" s="13"/>
     </row>
-    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I705" s="13"/>
     </row>
-    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I706" s="13"/>
     </row>
-    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I707" s="13"/>
     </row>
-    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I708" s="13"/>
     </row>
-    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I709" s="13"/>
     </row>
-    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I710" s="13"/>
     </row>
-    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I711" s="13"/>
     </row>
-    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I712" s="13"/>
     </row>
-    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I713" s="13"/>
     </row>
-    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I714" s="13"/>
     </row>
-    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I715" s="13"/>
     </row>
-    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I716" s="13"/>
     </row>
-    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I717" s="13"/>
     </row>
-    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I718" s="13"/>
     </row>
-    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I719" s="13"/>
     </row>
-    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I720" s="13"/>
     </row>
-    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I721" s="13"/>
     </row>
-    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I722" s="13"/>
     </row>
-    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I723" s="13"/>
     </row>
-    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I724" s="13"/>
     </row>
-    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I725" s="13"/>
     </row>
-    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I726" s="13"/>
     </row>
-    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I727" s="13"/>
     </row>
-    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I728" s="13"/>
     </row>
-    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I729" s="13"/>
     </row>
-    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I730" s="13"/>
     </row>
-    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I731" s="13"/>
     </row>
-    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I732" s="13"/>
     </row>
-    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I733" s="13"/>
     </row>
-    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I734" s="13"/>
     </row>
-    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I735" s="13"/>
     </row>
-    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I736" s="13"/>
     </row>
-    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I737" s="13"/>
     </row>
-    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I738" s="13"/>
     </row>
-    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I739" s="13"/>
     </row>
-    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I740" s="13"/>
     </row>
-    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I741" s="13"/>
     </row>
-    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I742" s="13"/>
     </row>
-    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I743" s="13"/>
     </row>
-    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I744" s="13"/>
     </row>
-    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I745" s="13"/>
     </row>
-    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I746" s="13"/>
     </row>
-    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I747" s="13"/>
     </row>
-    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I748" s="13"/>
     </row>
-    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I749" s="13"/>
     </row>
-    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I750" s="13"/>
     </row>
-    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I751" s="13"/>
     </row>
-    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I752" s="13"/>
     </row>
-    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I753" s="13"/>
     </row>
-    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I754" s="13"/>
     </row>
-    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I755" s="13"/>
     </row>
-    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I756" s="13"/>
     </row>
-    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I757" s="13"/>
     </row>
-    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I758" s="13"/>
     </row>
-    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I759" s="13"/>
     </row>
-    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I760" s="13"/>
     </row>
-    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I761" s="13"/>
     </row>
-    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I762" s="13"/>
     </row>
-    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I763" s="13"/>
     </row>
-    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I764" s="13"/>
     </row>
-    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I765" s="13"/>
     </row>
-    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I766" s="13"/>
     </row>
-    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I767" s="13"/>
     </row>
-    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I768" s="13"/>
     </row>
-    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I769" s="13"/>
     </row>
-    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I770" s="13"/>
     </row>
-    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I771" s="13"/>
     </row>
-    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I772" s="13"/>
     </row>
-    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I773" s="13"/>
     </row>
-    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I774" s="13"/>
     </row>
-    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I775" s="13"/>
     </row>
-    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I776" s="13"/>
     </row>
-    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I777" s="13"/>
     </row>
-    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I778" s="13"/>
     </row>
-    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I779" s="13"/>
     </row>
-    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I780" s="13"/>
     </row>
-    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I781" s="13"/>
     </row>
-    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I782" s="13"/>
     </row>
-    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I783" s="13"/>
     </row>
-    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I784" s="13"/>
     </row>
-    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I785" s="13"/>
     </row>
-    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I786" s="13"/>
     </row>
-    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I787" s="13"/>
     </row>
-    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I788" s="13"/>
     </row>
-    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I789" s="13"/>
     </row>
-    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I790" s="13"/>
     </row>
-    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I791" s="13"/>
     </row>
-    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I792" s="13"/>
     </row>
-    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I793" s="13"/>
     </row>
-    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I794" s="13"/>
     </row>
-    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I795" s="13"/>
     </row>
-    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I796" s="13"/>
     </row>
-    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I797" s="13"/>
     </row>
-    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I798" s="13"/>
     </row>
-    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I799" s="13"/>
     </row>
-    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I800" s="13"/>
     </row>
-    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I801" s="13"/>
     </row>
-    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I802" s="13"/>
     </row>
-    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I803" s="13"/>
     </row>
-    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I804" s="13"/>
     </row>
-    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I805" s="13"/>
     </row>
-    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I806" s="13"/>
     </row>
-    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I807" s="13"/>
     </row>
-    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I808" s="13"/>
     </row>
-    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I809" s="13"/>
     </row>
-    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I810" s="13"/>
     </row>
-    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I811" s="13"/>
     </row>
-    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I812" s="13"/>
     </row>
-    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I813" s="13"/>
     </row>
-    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I814" s="13"/>
     </row>
-    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I815" s="13"/>
     </row>
-    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I816" s="13"/>
     </row>
-    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I817" s="13"/>
     </row>
-    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I818" s="13"/>
     </row>
-    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I819" s="13"/>
     </row>
-    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I820" s="13"/>
     </row>
-    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I821" s="13"/>
     </row>
-    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I822" s="13"/>
     </row>
-    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I823" s="13"/>
     </row>
-    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I824" s="13"/>
     </row>
-    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I825" s="13"/>
     </row>
-    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I826" s="13"/>
     </row>
-    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I827" s="13"/>
     </row>
-    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I828" s="13"/>
     </row>
-    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I829" s="13"/>
     </row>
-    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I830" s="13"/>
     </row>
-    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I831" s="13"/>
     </row>
-    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I832" s="13"/>
     </row>
-    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I833" s="13"/>
     </row>
-    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I834" s="13"/>
     </row>
-    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I835" s="13"/>
     </row>
-    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I836" s="13"/>
     </row>
-    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I837" s="13"/>
     </row>
-    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I838" s="13"/>
     </row>
-    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I839" s="13"/>
     </row>
-    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I840" s="13"/>
     </row>
-    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I841" s="13"/>
     </row>
-    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I842" s="13"/>
     </row>
-    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I843" s="13"/>
     </row>
-    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I844" s="13"/>
     </row>
-    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I845" s="13"/>
     </row>
-    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I846" s="13"/>
     </row>
-    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I847" s="13"/>
     </row>
-    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I848" s="13"/>
     </row>
-    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I849" s="13"/>
     </row>
-    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I850" s="13"/>
     </row>
-    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I851" s="13"/>
     </row>
-    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I852" s="13"/>
     </row>
-    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I853" s="13"/>
     </row>
-    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I854" s="13"/>
     </row>
-    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I855" s="13"/>
     </row>
-    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I856" s="13"/>
     </row>
-    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I857" s="13"/>
     </row>
-    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I858" s="13"/>
     </row>
-    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I859" s="13"/>
     </row>
-    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I860" s="13"/>
     </row>
-    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I861" s="13"/>
     </row>
-    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I862" s="13"/>
     </row>
-    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I863" s="13"/>
     </row>
-    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I864" s="13"/>
     </row>
-    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I865" s="13"/>
     </row>
-    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I866" s="13"/>
     </row>
-    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I867" s="13"/>
     </row>
-    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I868" s="13"/>
     </row>
-    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I869" s="13"/>
     </row>
-    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I870" s="13"/>
     </row>
-    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I871" s="13"/>
     </row>
-    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I872" s="13"/>
     </row>
-    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I873" s="13"/>
     </row>
-    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I874" s="13"/>
     </row>
-    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I875" s="13"/>
     </row>
-    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I876" s="13"/>
     </row>
-    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I877" s="13"/>
     </row>
-    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I878" s="13"/>
     </row>
-    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I879" s="13"/>
     </row>
-    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I880" s="13"/>
     </row>
-    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I881" s="13"/>
     </row>
-    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I882" s="13"/>
     </row>
-    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I883" s="13"/>
     </row>
-    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I884" s="13"/>
     </row>
-    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I885" s="13"/>
     </row>
-    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I886" s="13"/>
     </row>
-    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I887" s="13"/>
     </row>
-    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I888" s="13"/>
     </row>
-    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I889" s="13"/>
     </row>
-    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I890" s="13"/>
     </row>
-    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I891" s="13"/>
     </row>
-    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I892" s="13"/>
     </row>
-    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I893" s="13"/>
     </row>
-    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I894" s="13"/>
     </row>
-    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I895" s="13"/>
     </row>
-    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I896" s="13"/>
     </row>
-    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I897" s="13"/>
     </row>
-    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I898" s="13"/>
     </row>
-    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I899" s="13"/>
     </row>
-    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I900" s="13"/>
     </row>
-    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I901" s="13"/>
     </row>
-    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I902" s="13"/>
     </row>
-    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I903" s="13"/>
     </row>
-    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I904" s="13"/>
     </row>
-    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I905" s="13"/>
     </row>
-    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I906" s="13"/>
     </row>
-    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I907" s="13"/>
     </row>
-    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I908" s="13"/>
     </row>
-    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I909" s="13"/>
     </row>
-    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I910" s="13"/>
     </row>
-    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I911" s="13"/>
     </row>
-    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I912" s="13"/>
     </row>
-    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I913" s="13"/>
     </row>
-    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I914" s="13"/>
     </row>
-    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I915" s="13"/>
     </row>
-    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I916" s="13"/>
     </row>
-    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I917" s="13"/>
     </row>
-    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I918" s="13"/>
     </row>
-    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I919" s="13"/>
     </row>
-    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I920" s="13"/>
     </row>
-    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I921" s="13"/>
     </row>
-    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I922" s="13"/>
     </row>
-    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I923" s="13"/>
     </row>
-    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I924" s="13"/>
     </row>
-    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I925" s="13"/>
     </row>
-    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I926" s="13"/>
     </row>
-    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I927" s="13"/>
     </row>
-    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I928" s="13"/>
     </row>
-    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I929" s="13"/>
     </row>
-    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I930" s="13"/>
     </row>
-    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I931" s="13"/>
     </row>
-    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I932" s="13"/>
     </row>
-    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I933" s="13"/>
     </row>
-    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I934" s="13"/>
     </row>
-    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I935" s="13"/>
     </row>
-    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I936" s="13"/>
     </row>
-    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I937" s="13"/>
     </row>
-    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I938" s="13"/>
     </row>
-    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I939" s="13"/>
     </row>
-    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I940" s="13"/>
     </row>
-    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I941" s="13"/>
     </row>
-    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I942" s="13"/>
     </row>
-    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I943" s="13"/>
     </row>
-    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I944" s="13"/>
     </row>
-    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I945" s="13"/>
     </row>
-    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I946" s="13"/>
     </row>
-    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I947" s="13"/>
     </row>
-    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I948" s="13"/>
     </row>
-    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I949" s="13"/>
     </row>
-    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I950" s="13"/>
     </row>
-    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I951" s="13"/>
     </row>
-    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I952" s="13"/>
     </row>
-    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I953" s="13"/>
     </row>
-    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I954" s="13"/>
     </row>
-    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I955" s="13"/>
     </row>
-    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I956" s="13"/>
     </row>
-    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I957" s="13"/>
     </row>
-    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I958" s="13"/>
     </row>
-    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I959" s="13"/>
     </row>
-    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I960" s="13"/>
     </row>
-    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I961" s="13"/>
     </row>
-    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I962" s="13"/>
     </row>
-    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I963" s="13"/>
     </row>
-    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I964" s="13"/>
     </row>
-    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I965" s="13"/>
     </row>
-    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I966" s="13"/>
     </row>
-    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I967" s="13"/>
     </row>
-    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I968" s="13"/>
     </row>
-    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I969" s="13"/>
     </row>
-    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I970" s="13"/>
     </row>
-    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I971" s="13"/>
     </row>
-    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I972" s="13"/>
     </row>
-    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I973" s="13"/>
     </row>
-    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I974" s="13"/>
     </row>
-    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I975" s="13"/>
     </row>
-    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I976" s="13"/>
     </row>
-    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I977" s="13"/>
     </row>
-    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I978" s="13"/>
     </row>
-    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I979" s="13"/>
     </row>
-    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I980" s="13"/>
     </row>
-    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I981" s="13"/>
     </row>
-    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I982" s="13"/>
     </row>
-    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I983" s="13"/>
     </row>
-    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I984" s="13"/>
     </row>
-    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I985" s="13"/>
     </row>
-    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I986" s="13"/>
     </row>
-    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I987" s="13"/>
     </row>
-    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I988" s="13"/>
     </row>
-    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I989" s="13"/>
     </row>
-    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I990" s="13"/>
     </row>
-    <row r="991" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I991" s="13"/>
     </row>
-    <row r="992" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I992" s="13"/>
     </row>
-    <row r="993" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I993" s="13"/>
     </row>
-    <row r="994" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I994" s="13"/>
     </row>
-    <row r="995" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I995" s="13"/>
     </row>
-    <row r="996" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I996" s="13"/>
     </row>
-    <row r="997" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I997" s="13"/>
     </row>
-    <row r="998" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I998" s="13"/>
     </row>
-    <row r="999" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I999" s="13"/>
     </row>
-    <row r="1000" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1000" s="13"/>
     </row>
-    <row r="1001" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1001" s="13"/>
     </row>
-    <row r="1002" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1002" s="13"/>
     </row>
-    <row r="1003" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1003" s="13"/>
     </row>
-    <row r="1004" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1004" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="K67:P67"/>
-    <mergeCell ref="K68:P68"/>
-    <mergeCell ref="J69:P69"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A16:H16"/>
@@ -6324,56 +6348,55 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
     <mergeCell ref="B64:H64"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="K67:P67"/>
+    <mergeCell ref="K68:P68"/>
+    <mergeCell ref="J69:P69"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A82:H82"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.905820\Documents\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88335CC4-8CA4-4557-B7EB-3826EDEED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95381DBF-096E-4375-A669-99A62B922DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="168">
   <si>
     <t>Tabela</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>Idx_status_seguros_cd_status_seguros</t>
+  </si>
+  <si>
+    <t>Idx_tipos_manutencao_cd_tipo</t>
+  </si>
+  <si>
+    <t>Idx_tipos_manutencao_descricao</t>
   </si>
 </sst>
 </file>
@@ -831,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -944,17 +950,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -965,51 +962,71 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1026,60 +1043,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,42 +1289,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="16" max="16" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1344,19 +1334,19 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1366,17 +1356,17 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1386,11 +1376,11 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="35" t="s">
         <v>5</v>
       </c>
@@ -1418,11 +1408,11 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1448,11 +1438,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1476,11 +1466,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1504,11 +1494,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1532,17 +1522,17 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1552,11 +1542,11 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="35" t="s">
         <v>31</v>
       </c>
@@ -1566,11 +1556,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1580,11 +1570,11 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="39" t="s">
         <v>14</v>
       </c>
@@ -1592,11 +1582,11 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1606,15 +1596,15 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+    <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1624,15 +1614,15 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
+    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1642,15 +1632,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1660,15 +1650,15 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
+    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1678,88 +1668,88 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="87" t="s">
+      <c r="K17" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="88" t="s">
+      <c r="J18" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="35" t="s">
         <v>5</v>
       </c>
@@ -1779,34 +1769,34 @@
         <v>1</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="88" t="s">
+      <c r="P19" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="88"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="Q19" s="58"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
@@ -1840,16 +1830,16 @@
         <v>14</v>
       </c>
       <c r="O20" s="27"/>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="Q20" s="91"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="Q20" s="59"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="57"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1879,16 +1869,16 @@
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="91" t="s">
+      <c r="P21" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="Q21" s="91"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="Q21" s="59"/>
+    </row>
+    <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="57"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
@@ -1906,53 +1896,53 @@
         <v>111</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="93"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="30" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="35" t="s">
         <v>31</v>
       </c>
@@ -1962,46 +1952,46 @@
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="44" t="s">
         <v>165</v>
       </c>
       <c r="K24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="50" t="s">
+      <c r="L24" s="44"/>
+      <c r="M24" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="94" t="s">
+      <c r="N24" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="57"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2011,15 +2001,15 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+    <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2029,15 +2019,15 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
+    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2047,15 +2037,15 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+    <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2065,15 +2055,15 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2083,88 +2073,88 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="2"/>
       <c r="J30" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="69" t="s">
+      <c r="K30" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="78"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="2"/>
       <c r="J31" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="69" t="s">
+      <c r="K31" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="78"/>
+    </row>
+    <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="79" t="s">
+      <c r="J32" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="35" t="s">
         <v>5</v>
       </c>
@@ -2202,16 +2192,16 @@
       <c r="O33" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="72" t="s">
+      <c r="P33" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="73"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+      <c r="Q33" s="80"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="57"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="11" t="s">
         <v>11</v>
       </c>
@@ -2245,16 +2235,16 @@
         <v>14</v>
       </c>
       <c r="O34" s="19"/>
-      <c r="P34" s="69" t="s">
+      <c r="P34" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="71"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="Q34" s="78"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="11" t="s">
         <v>49</v>
       </c>
@@ -2284,16 +2274,16 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="19"/>
-      <c r="P35" s="69" t="s">
+      <c r="P35" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="Q35" s="71"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="Q35" s="78"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="11" t="s">
         <v>21</v>
       </c>
@@ -2309,22 +2299,22 @@
         <v>56</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="55" t="s">
+      <c r="J36" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="77"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="53"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="57"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
@@ -2340,10 +2330,10 @@
         <v>57</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="55" t="s">
+      <c r="J37" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="57"/>
+      <c r="K37" s="54"/>
       <c r="L37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2353,17 +2343,17 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="55" t="s">
+      <c r="O37" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="57"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="P37" s="51"/>
+      <c r="Q37" s="54"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
@@ -2379,10 +2369,10 @@
         <v>60</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="57"/>
+      <c r="K38" s="54"/>
       <c r="L38" s="7" t="s">
         <v>14</v>
       </c>
@@ -2390,17 +2380,17 @@
       <c r="N38" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="58" t="s">
+      <c r="O38" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="57"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="P38" s="51"/>
+      <c r="Q38" s="54"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="11" t="s">
         <v>40</v>
       </c>
@@ -2424,11 +2414,11 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
@@ -2452,11 +2442,11 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="11" t="s">
         <v>66</v>
       </c>
@@ -2480,11 +2470,11 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="11" t="s">
         <v>11</v>
       </c>
@@ -2510,17 +2500,17 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="54"/>
       <c r="I43" s="2"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -2530,11 +2520,11 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="35" t="s">
         <v>31</v>
       </c>
@@ -2544,11 +2534,11 @@
       <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="54"/>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2558,11 +2548,11 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="40" t="s">
         <v>14</v>
       </c>
@@ -2570,11 +2560,11 @@
       <c r="E45" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="57"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="2"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2584,15 +2574,15 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
       <c r="I46" s="2"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2602,15 +2592,15 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
       <c r="I47" s="2"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2620,15 +2610,15 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2638,15 +2628,15 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2656,88 +2646,88 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="2"/>
       <c r="J50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K50" s="52" t="s">
+      <c r="K50" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-    </row>
-    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+    </row>
+    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="54"/>
       <c r="I51" s="2"/>
       <c r="J51" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="52" t="s">
+      <c r="K51" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="60" t="s">
+      <c r="J52" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="57"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="35" t="s">
         <v>5</v>
       </c>
@@ -2775,16 +2765,16 @@
       <c r="O53" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P53" s="61" t="s">
+      <c r="P53" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q53" s="61"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="Q53" s="48"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="11" t="s">
         <v>11</v>
       </c>
@@ -2818,16 +2808,16 @@
         <v>14</v>
       </c>
       <c r="O54" s="22"/>
-      <c r="P54" s="52" t="s">
+      <c r="P54" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="Q54" s="52"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
+      <c r="Q54" s="49"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="11" t="s">
         <v>40</v>
       </c>
@@ -2857,16 +2847,16 @@
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
-      <c r="P55" s="52" t="s">
+      <c r="P55" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="Q55" s="52"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="Q55" s="49"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="11" t="s">
         <v>40</v>
       </c>
@@ -2882,22 +2872,22 @@
         <v>81</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="55" t="s">
+      <c r="J56" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="77"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="83" t="s">
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="53"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="77"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="11" t="s">
         <v>83</v>
       </c>
@@ -2913,10 +2903,10 @@
         <v>85</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="55" t="s">
+      <c r="J57" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="57"/>
+      <c r="K57" s="54"/>
       <c r="L57" s="1" t="s">
         <v>31</v>
       </c>
@@ -2926,17 +2916,17 @@
       <c r="N57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="55" t="s">
+      <c r="O57" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="57"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="P57" s="51"/>
+      <c r="Q57" s="54"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="11" t="s">
         <v>11</v>
       </c>
@@ -2954,10 +2944,10 @@
         <v>86</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="81" t="s">
+      <c r="J58" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="K58" s="57"/>
+      <c r="K58" s="54"/>
       <c r="L58" s="7" t="s">
         <v>14</v>
       </c>
@@ -2965,17 +2955,17 @@
       <c r="N58" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O58" s="58" t="s">
+      <c r="O58" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="57"/>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
+      <c r="P58" s="51"/>
+      <c r="Q58" s="54"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="14" t="s">
         <v>88</v>
       </c>
@@ -3001,11 +2991,11 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="82" t="s">
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="11" t="s">
         <v>11</v>
       </c>
@@ -3031,11 +3021,11 @@
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
@@ -3061,17 +3051,17 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="54"/>
       <c r="I62" s="12"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -3081,11 +3071,11 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="35" t="s">
         <v>31</v>
       </c>
@@ -3095,11 +3085,11 @@
       <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="57"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="54"/>
       <c r="I63" s="12"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -3109,21 +3099,21 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="57"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="58" t="s">
+      <c r="F64" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="56"/>
-      <c r="H64" s="57"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="54"/>
       <c r="I64" s="12"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
@@ -3133,15 +3123,15 @@
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
     </row>
-    <row r="65" spans="1:16" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
       <c r="I65" s="12"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
@@ -3151,15 +3141,15 @@
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="72"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
       <c r="I66" s="12"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -3169,15 +3159,15 @@
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="72"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
       <c r="I67" s="12"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
@@ -3187,15 +3177,15 @@
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
     </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
       <c r="I68" s="15"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -3205,19 +3195,19 @@
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="57"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="54"/>
       <c r="I69" s="15"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3227,19 +3217,19 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="57"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="54"/>
       <c r="I70" s="15"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3249,17 +3239,17 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="68" t="s">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="57"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="54"/>
       <c r="I71" s="13"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3269,11 +3259,11 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="35" t="s">
         <v>5</v>
       </c>
@@ -3301,11 +3291,11 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
@@ -3331,11 +3321,11 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="11" t="s">
         <v>150</v>
       </c>
@@ -3347,7 +3337,7 @@
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="48" t="s">
+      <c r="H74" s="45" t="s">
         <v>98</v>
       </c>
       <c r="I74" s="3"/>
@@ -3359,11 +3349,11 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="11" t="s">
         <v>49</v>
       </c>
@@ -3387,17 +3377,17 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="57"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="54"/>
       <c r="I76" s="2"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3407,11 +3397,11 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="57"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="35" t="s">
         <v>31</v>
       </c>
@@ -3421,11 +3411,11 @@
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="55" t="s">
+      <c r="F77" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="56"/>
-      <c r="H77" s="57"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="54"/>
       <c r="I77" s="2"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -3435,15 +3425,15 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="57"/>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="56"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="39"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="57"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="54"/>
       <c r="I78" s="2"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -3453,15 +3443,15 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="B79" s="57"/>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="56"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="39"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="86"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="70"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -3471,15 +3461,15 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
       <c r="I80" s="4"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3489,15 +3479,15 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:17" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="72"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
       <c r="I81" s="4"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3507,15 +3497,15 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
       <c r="I82" s="4"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -3525,15 +3515,15 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
       <c r="I83" s="4"/>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
@@ -3543,88 +3533,88 @@
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
     </row>
-    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="57"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="54"/>
       <c r="I84" s="2"/>
       <c r="J84" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K84" s="87" t="s">
+      <c r="K84" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="L84" s="87"/>
-      <c r="M84" s="87"/>
-      <c r="N84" s="87"/>
-      <c r="O84" s="87"/>
-      <c r="P84" s="87"/>
-      <c r="Q84" s="87"/>
-    </row>
-    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="57"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="54"/>
       <c r="I85" s="2"/>
       <c r="J85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K85" s="87" t="s">
+      <c r="K85" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="L85" s="87"/>
-      <c r="M85" s="87"/>
-      <c r="N85" s="87"/>
-      <c r="O85" s="87"/>
-      <c r="P85" s="87"/>
-      <c r="Q85" s="87"/>
-    </row>
-    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="57"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="54"/>
       <c r="I86" s="13"/>
-      <c r="J86" s="88" t="s">
+      <c r="J86" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K86" s="88"/>
-      <c r="L86" s="88"/>
-      <c r="M86" s="88"/>
-      <c r="N86" s="88"/>
-      <c r="O86" s="88"/>
-      <c r="P86" s="88"/>
-      <c r="Q86" s="88"/>
-    </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="55" t="s">
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="58"/>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="35" t="s">
         <v>5</v>
       </c>
@@ -3662,16 +3652,16 @@
       <c r="O87" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P87" s="89" t="s">
+      <c r="P87" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Q87" s="89"/>
-    </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="s">
+      <c r="Q87" s="66"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="11" t="s">
         <v>11</v>
       </c>
@@ -3705,16 +3695,16 @@
         <v>14</v>
       </c>
       <c r="O88" s="27"/>
-      <c r="P88" s="90" t="s">
+      <c r="P88" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="Q88" s="90"/>
-    </row>
-    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="Q88" s="67"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="11" t="s">
         <v>17</v>
       </c>
@@ -3746,16 +3736,16 @@
       </c>
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
-      <c r="P89" s="90" t="s">
+      <c r="P89" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="Q89" s="90"/>
-    </row>
-    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59" t="s">
+      <c r="Q89" s="67"/>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="57"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
@@ -3781,11 +3771,11 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59" t="s">
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="57"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="11" t="s">
         <v>11</v>
       </c>
@@ -3811,11 +3801,11 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="57"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="11" t="s">
         <v>11</v>
       </c>
@@ -3841,7 +3831,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>139</v>
       </c>
@@ -3869,11 +3859,11 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59" t="s">
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="57"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="11" t="s">
         <v>11</v>
       </c>
@@ -3899,24 +3889,24 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="57"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="54"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="57"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="35" t="s">
         <v>31</v>
       </c>
@@ -3926,127 +3916,127 @@
       <c r="E96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F96" s="55" t="s">
+      <c r="F96" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="56"/>
-      <c r="H96" s="57"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="54"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-      <c r="B97" s="57"/>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="56"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="39"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="57"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="54"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-      <c r="B98" s="57"/>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="56"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="39"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="57"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="54"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="96"/>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="96"/>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="96"/>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="66"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="96"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="87"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="88"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="88"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="89"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="59" t="s">
+      <c r="B103" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="57"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="54"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="54"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="68" t="s">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="57"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="54"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="57"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="35" t="s">
         <v>5</v>
       </c>
@@ -4067,11 +4057,11 @@
       </c>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="57"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="11" t="s">
         <v>11</v>
       </c>
@@ -4090,11 +4080,11 @@
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="57"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="11" t="s">
         <v>17</v>
       </c>
@@ -4111,26 +4101,26 @@
       </c>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="55" t="s">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="57"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="54"/>
       <c r="I109" s="4"/>
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="55" t="s">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="57"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="35" t="s">
         <v>31</v>
       </c>
@@ -4140,136 +4130,150 @@
       <c r="E110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F110" s="55" t="s">
+      <c r="F110" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="57"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="54"/>
       <c r="I110" s="2"/>
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="39"/>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="54"/>
+      <c r="C111" s="39" t="s">
+        <v>14</v>
+      </c>
       <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="57"/>
+      <c r="E111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="G111" s="51"/>
+      <c r="H111" s="54"/>
       <c r="I111" s="2"/>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-      <c r="B112" s="57"/>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="54"/>
       <c r="C112" s="39"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="57"/>
+      <c r="F112" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" s="51"/>
+      <c r="H112" s="54"/>
       <c r="I112" s="4"/>
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="71"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="71"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="72"/>
+      <c r="B114" s="72"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="95"/>
-      <c r="B116" s="95"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="95"/>
-      <c r="E116" s="95"/>
-      <c r="F116" s="95"/>
-      <c r="G116" s="95"/>
-      <c r="H116" s="95"/>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="90"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="90"/>
+      <c r="E116" s="90"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="90"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="84"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
+      <c r="C118" s="84"/>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="84"/>
+      <c r="G118" s="84"/>
+      <c r="H118" s="84"/>
       <c r="I118" s="2"/>
       <c r="K118" s="43"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="60" t="s">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="84"/>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="61" t="s">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="53"/>
+      <c r="B120" s="84"/>
       <c r="C120" s="36" t="s">
         <v>116</v>
       </c>
@@ -4290,11 +4294,11 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B121" s="53"/>
+      <c r="B121" s="84"/>
       <c r="C121" s="41" t="s">
         <v>88</v>
       </c>
@@ -4313,11 +4317,11 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="52" t="s">
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="53"/>
+      <c r="B122" s="84"/>
       <c r="C122" s="41" t="s">
         <v>11</v>
       </c>
@@ -4336,11 +4340,11 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="53"/>
+      <c r="B123" s="84"/>
       <c r="C123" s="41" t="s">
         <v>26</v>
       </c>
@@ -4357,11 +4361,11 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="53"/>
+      <c r="B124" s="84"/>
       <c r="C124" s="41" t="s">
         <v>26</v>
       </c>
@@ -4378,11 +4382,11 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="54" t="s">
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="53"/>
+      <c r="B125" s="84"/>
       <c r="C125" s="42" t="s">
         <v>123</v>
       </c>
@@ -4399,11 +4403,11 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="54" t="s">
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B126" s="53"/>
+      <c r="B126" s="84"/>
       <c r="C126" s="42" t="s">
         <v>11</v>
       </c>
@@ -4422,2737 +4426,2830 @@
       </c>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I130" s="13"/>
     </row>
-    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I132" s="13"/>
     </row>
-    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I133" s="13"/>
     </row>
-    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I134" s="13"/>
     </row>
-    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I135" s="13"/>
     </row>
-    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I136" s="13"/>
     </row>
-    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I137" s="13"/>
     </row>
-    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I138" s="13"/>
     </row>
-    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I139" s="13"/>
     </row>
-    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I140" s="13"/>
     </row>
-    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I141" s="13"/>
     </row>
-    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I142" s="13"/>
     </row>
-    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I143" s="13"/>
     </row>
-    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I144" s="13"/>
     </row>
-    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I147" s="13"/>
     </row>
-    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I148" s="13"/>
     </row>
-    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I149" s="13"/>
     </row>
-    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I150" s="13"/>
     </row>
-    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I151" s="13"/>
     </row>
-    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I152" s="13"/>
     </row>
-    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I156" s="13"/>
     </row>
-    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I157" s="13"/>
     </row>
-    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I158" s="13"/>
     </row>
-    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I159" s="13"/>
     </row>
-    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I160" s="13"/>
     </row>
-    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I161" s="13"/>
     </row>
-    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I162" s="13"/>
     </row>
-    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I163" s="13"/>
     </row>
-    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I164" s="13"/>
     </row>
-    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I165" s="13"/>
     </row>
-    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I166" s="13"/>
     </row>
-    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I167" s="13"/>
     </row>
-    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I170" s="13"/>
     </row>
-    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I171" s="13"/>
     </row>
-    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I172" s="13"/>
     </row>
-    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I176" s="13"/>
     </row>
-    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I177" s="13"/>
     </row>
-    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I178" s="13"/>
     </row>
-    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I179" s="13"/>
     </row>
-    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I180" s="13"/>
     </row>
-    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I181" s="13"/>
     </row>
-    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I182" s="13"/>
     </row>
-    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I183" s="13"/>
     </row>
-    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I184" s="13"/>
     </row>
-    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I189" s="13"/>
     </row>
-    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I190" s="13"/>
     </row>
-    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I191" s="13"/>
     </row>
-    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I192" s="13"/>
     </row>
-    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I193" s="13"/>
     </row>
-    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I194" s="13"/>
     </row>
-    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I195" s="13"/>
     </row>
-    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I196" s="13"/>
     </row>
-    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I197" s="13"/>
     </row>
-    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I198" s="13"/>
     </row>
-    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I199" s="13"/>
     </row>
-    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I200" s="13"/>
     </row>
-    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I201" s="13"/>
     </row>
-    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I202" s="13"/>
     </row>
-    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I203" s="13"/>
     </row>
-    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I204" s="13"/>
     </row>
-    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I205" s="13"/>
     </row>
-    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I206" s="13"/>
     </row>
-    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I207" s="13"/>
     </row>
-    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I208" s="13"/>
     </row>
-    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I209" s="13"/>
     </row>
-    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I210" s="13"/>
     </row>
-    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I211" s="13"/>
     </row>
-    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I212" s="13"/>
     </row>
-    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I213" s="13"/>
     </row>
-    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I214" s="13"/>
     </row>
-    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I215" s="13"/>
     </row>
-    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I216" s="13"/>
     </row>
-    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I217" s="13"/>
     </row>
-    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I218" s="13"/>
     </row>
-    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I219" s="13"/>
     </row>
-    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I220" s="13"/>
     </row>
-    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I221" s="13"/>
     </row>
-    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I222" s="13"/>
     </row>
-    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I223" s="13"/>
     </row>
-    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I224" s="13"/>
     </row>
-    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I226" s="13"/>
     </row>
-    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I227" s="13"/>
     </row>
-    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I228" s="13"/>
     </row>
-    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I229" s="13"/>
     </row>
-    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I230" s="13"/>
     </row>
-    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I231" s="13"/>
     </row>
-    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I232" s="13"/>
     </row>
-    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I233" s="13"/>
     </row>
-    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I234" s="13"/>
     </row>
-    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I235" s="13"/>
     </row>
-    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I236" s="13"/>
     </row>
-    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I237" s="13"/>
     </row>
-    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I238" s="13"/>
     </row>
-    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I239" s="13"/>
     </row>
-    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I240" s="13"/>
     </row>
-    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I241" s="13"/>
     </row>
-    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I242" s="13"/>
     </row>
-    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I243" s="13"/>
     </row>
-    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I244" s="13"/>
     </row>
-    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I245" s="13"/>
     </row>
-    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I246" s="13"/>
     </row>
-    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I247" s="13"/>
     </row>
-    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I248" s="13"/>
     </row>
-    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I249" s="13"/>
     </row>
-    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I250" s="13"/>
     </row>
-    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I251" s="13"/>
     </row>
-    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I252" s="13"/>
     </row>
-    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I255" s="13"/>
     </row>
-    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I256" s="13"/>
     </row>
-    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I257" s="13"/>
     </row>
-    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I258" s="13"/>
     </row>
-    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I259" s="13"/>
     </row>
-    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I260" s="13"/>
     </row>
-    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I261" s="13"/>
     </row>
-    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I262" s="13"/>
     </row>
-    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I263" s="13"/>
     </row>
-    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I264" s="13"/>
     </row>
-    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I265" s="13"/>
     </row>
-    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I267" s="13"/>
     </row>
-    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I268" s="13"/>
     </row>
-    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I269" s="13"/>
     </row>
-    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I270" s="13"/>
     </row>
-    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I271" s="13"/>
     </row>
-    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I272" s="13"/>
     </row>
-    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I273" s="13"/>
     </row>
-    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I274" s="13"/>
     </row>
-    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I275" s="13"/>
     </row>
-    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I276" s="13"/>
     </row>
-    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I277" s="13"/>
     </row>
-    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I278" s="13"/>
     </row>
-    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I279" s="13"/>
     </row>
-    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I280" s="13"/>
     </row>
-    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I281" s="13"/>
     </row>
-    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I282" s="13"/>
     </row>
-    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I283" s="13"/>
     </row>
-    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I284" s="13"/>
     </row>
-    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I285" s="13"/>
     </row>
-    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I286" s="13"/>
     </row>
-    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I287" s="13"/>
     </row>
-    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I288" s="13"/>
     </row>
-    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I289" s="13"/>
     </row>
-    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I290" s="13"/>
     </row>
-    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I291" s="13"/>
     </row>
-    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I292" s="13"/>
     </row>
-    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I293" s="13"/>
     </row>
-    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I294" s="13"/>
     </row>
-    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I295" s="13"/>
     </row>
-    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I296" s="13"/>
     </row>
-    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I297" s="13"/>
     </row>
-    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I298" s="13"/>
     </row>
-    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I299" s="13"/>
     </row>
-    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I300" s="13"/>
     </row>
-    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I301" s="13"/>
     </row>
-    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I302" s="13"/>
     </row>
-    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I303" s="13"/>
     </row>
-    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I304" s="13"/>
     </row>
-    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I305" s="13"/>
     </row>
-    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I306" s="13"/>
     </row>
-    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I307" s="13"/>
     </row>
-    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I308" s="13"/>
     </row>
-    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I309" s="13"/>
     </row>
-    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I310" s="13"/>
     </row>
-    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I311" s="13"/>
     </row>
-    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I312" s="13"/>
     </row>
-    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I313" s="13"/>
     </row>
-    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I314" s="13"/>
     </row>
-    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I315" s="13"/>
     </row>
-    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I316" s="13"/>
     </row>
-    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I317" s="13"/>
     </row>
-    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I318" s="13"/>
     </row>
-    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I319" s="13"/>
     </row>
-    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I320" s="13"/>
     </row>
-    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I321" s="13"/>
     </row>
-    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I322" s="13"/>
     </row>
-    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I323" s="13"/>
     </row>
-    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I325" s="13"/>
     </row>
-    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I326" s="13"/>
     </row>
-    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I327" s="13"/>
     </row>
-    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I328" s="13"/>
     </row>
-    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I329" s="13"/>
     </row>
-    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I330" s="13"/>
     </row>
-    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I331" s="13"/>
     </row>
-    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I332" s="13"/>
     </row>
-    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I333" s="13"/>
     </row>
-    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I334" s="13"/>
     </row>
-    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I335" s="13"/>
     </row>
-    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I336" s="13"/>
     </row>
-    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I337" s="13"/>
     </row>
-    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I338" s="13"/>
     </row>
-    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I339" s="13"/>
     </row>
-    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I340" s="13"/>
     </row>
-    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I341" s="13"/>
     </row>
-    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I342" s="13"/>
     </row>
-    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I343" s="13"/>
     </row>
-    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I345" s="13"/>
     </row>
-    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I347" s="13"/>
     </row>
-    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I348" s="13"/>
     </row>
-    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I349" s="13"/>
     </row>
-    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I350" s="13"/>
     </row>
-    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I351" s="13"/>
     </row>
-    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I352" s="13"/>
     </row>
-    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I353" s="13"/>
     </row>
-    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I355" s="13"/>
     </row>
-    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I356" s="13"/>
     </row>
-    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I357" s="13"/>
     </row>
-    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I358" s="13"/>
     </row>
-    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I359" s="13"/>
     </row>
-    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I360" s="13"/>
     </row>
-    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I361" s="13"/>
     </row>
-    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I362" s="13"/>
     </row>
-    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I363" s="13"/>
     </row>
-    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I364" s="13"/>
     </row>
-    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I365" s="13"/>
     </row>
-    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I366" s="13"/>
     </row>
-    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I367" s="13"/>
     </row>
-    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I368" s="13"/>
     </row>
-    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I369" s="13"/>
     </row>
-    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I370" s="13"/>
     </row>
-    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I371" s="13"/>
     </row>
-    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I372" s="13"/>
     </row>
-    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I373" s="13"/>
     </row>
-    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I374" s="13"/>
     </row>
-    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I375" s="13"/>
     </row>
-    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I376" s="13"/>
     </row>
-    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I377" s="13"/>
     </row>
-    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I378" s="13"/>
     </row>
-    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I379" s="13"/>
     </row>
-    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I380" s="13"/>
     </row>
-    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I381" s="13"/>
     </row>
-    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I382" s="13"/>
     </row>
-    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I383" s="13"/>
     </row>
-    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I384" s="13"/>
     </row>
-    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I385" s="13"/>
     </row>
-    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I386" s="13"/>
     </row>
-    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I387" s="13"/>
     </row>
-    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I388" s="13"/>
     </row>
-    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I389" s="13"/>
     </row>
-    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I390" s="13"/>
     </row>
-    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I393" s="13"/>
     </row>
-    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I394" s="13"/>
     </row>
-    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I395" s="13"/>
     </row>
-    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I396" s="13"/>
     </row>
-    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I397" s="13"/>
     </row>
-    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I398" s="13"/>
     </row>
-    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I399" s="13"/>
     </row>
-    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I400" s="13"/>
     </row>
-    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I401" s="13"/>
     </row>
-    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I402" s="13"/>
     </row>
-    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I403" s="13"/>
     </row>
-    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I404" s="13"/>
     </row>
-    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I405" s="13"/>
     </row>
-    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I406" s="13"/>
     </row>
-    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I407" s="13"/>
     </row>
-    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I408" s="13"/>
     </row>
-    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I409" s="13"/>
     </row>
-    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I410" s="13"/>
     </row>
-    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I411" s="13"/>
     </row>
-    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I412" s="13"/>
     </row>
-    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I413" s="13"/>
     </row>
-    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I414" s="13"/>
     </row>
-    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I415" s="13"/>
     </row>
-    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I416" s="13"/>
     </row>
-    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I417" s="13"/>
     </row>
-    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I418" s="13"/>
     </row>
-    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I419" s="13"/>
     </row>
-    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I420" s="13"/>
     </row>
-    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I421" s="13"/>
     </row>
-    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I422" s="13"/>
     </row>
-    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I423" s="13"/>
     </row>
-    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I424" s="13"/>
     </row>
-    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I425" s="13"/>
     </row>
-    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I426" s="13"/>
     </row>
-    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I427" s="13"/>
     </row>
-    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I428" s="13"/>
     </row>
-    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I429" s="13"/>
     </row>
-    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I430" s="13"/>
     </row>
-    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I431" s="13"/>
     </row>
-    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I432" s="13"/>
     </row>
-    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I433" s="13"/>
     </row>
-    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I434" s="13"/>
     </row>
-    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I435" s="13"/>
     </row>
-    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I436" s="13"/>
     </row>
-    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I437" s="13"/>
     </row>
-    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I438" s="13"/>
     </row>
-    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I439" s="13"/>
     </row>
-    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I440" s="13"/>
     </row>
-    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I441" s="13"/>
     </row>
-    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I442" s="13"/>
     </row>
-    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I443" s="13"/>
     </row>
-    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I444" s="13"/>
     </row>
-    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I445" s="13"/>
     </row>
-    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I446" s="13"/>
     </row>
-    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I447" s="13"/>
     </row>
-    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I448" s="13"/>
     </row>
-    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I449" s="13"/>
     </row>
-    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I450" s="13"/>
     </row>
-    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I451" s="13"/>
     </row>
-    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I452" s="13"/>
     </row>
-    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I453" s="13"/>
     </row>
-    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I454" s="13"/>
     </row>
-    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I455" s="13"/>
     </row>
-    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I456" s="13"/>
     </row>
-    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I457" s="13"/>
     </row>
-    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I458" s="13"/>
     </row>
-    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I459" s="13"/>
     </row>
-    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I460" s="13"/>
     </row>
-    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I461" s="13"/>
     </row>
-    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I462" s="13"/>
     </row>
-    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I463" s="13"/>
     </row>
-    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I464" s="13"/>
     </row>
-    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I465" s="13"/>
     </row>
-    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I466" s="13"/>
     </row>
-    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I467" s="13"/>
     </row>
-    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I468" s="13"/>
     </row>
-    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I469" s="13"/>
     </row>
-    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I470" s="13"/>
     </row>
-    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I471" s="13"/>
     </row>
-    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I472" s="13"/>
     </row>
-    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I473" s="13"/>
     </row>
-    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I474" s="13"/>
     </row>
-    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I475" s="13"/>
     </row>
-    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I476" s="13"/>
     </row>
-    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I477" s="13"/>
     </row>
-    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I478" s="13"/>
     </row>
-    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I479" s="13"/>
     </row>
-    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I480" s="13"/>
     </row>
-    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I481" s="13"/>
     </row>
-    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I482" s="13"/>
     </row>
-    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I483" s="13"/>
     </row>
-    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I484" s="13"/>
     </row>
-    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I485" s="13"/>
     </row>
-    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I486" s="13"/>
     </row>
-    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I487" s="13"/>
     </row>
-    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I488" s="13"/>
     </row>
-    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I489" s="13"/>
     </row>
-    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I490" s="13"/>
     </row>
-    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I491" s="13"/>
     </row>
-    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I492" s="13"/>
     </row>
-    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I493" s="13"/>
     </row>
-    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I494" s="13"/>
     </row>
-    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I495" s="13"/>
     </row>
-    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I496" s="13"/>
     </row>
-    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I497" s="13"/>
     </row>
-    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I498" s="13"/>
     </row>
-    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I499" s="13"/>
     </row>
-    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I500" s="13"/>
     </row>
-    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I501" s="13"/>
     </row>
-    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I502" s="13"/>
     </row>
-    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I503" s="13"/>
     </row>
-    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I504" s="13"/>
     </row>
-    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I505" s="13"/>
     </row>
-    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I506" s="13"/>
     </row>
-    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I507" s="13"/>
     </row>
-    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I508" s="13"/>
     </row>
-    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I509" s="13"/>
     </row>
-    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I510" s="13"/>
     </row>
-    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I511" s="13"/>
     </row>
-    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I512" s="13"/>
     </row>
-    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I513" s="13"/>
     </row>
-    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I514" s="13"/>
     </row>
-    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I515" s="13"/>
     </row>
-    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I516" s="13"/>
     </row>
-    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I517" s="13"/>
     </row>
-    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I518" s="13"/>
     </row>
-    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I519" s="13"/>
     </row>
-    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I520" s="13"/>
     </row>
-    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I521" s="13"/>
     </row>
-    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I522" s="13"/>
     </row>
-    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I523" s="13"/>
     </row>
-    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I524" s="13"/>
     </row>
-    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I525" s="13"/>
     </row>
-    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I526" s="13"/>
     </row>
-    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I527" s="13"/>
     </row>
-    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I528" s="13"/>
     </row>
-    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I529" s="13"/>
     </row>
-    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I530" s="13"/>
     </row>
-    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I531" s="13"/>
     </row>
-    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I532" s="13"/>
     </row>
-    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I533" s="13"/>
     </row>
-    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I534" s="13"/>
     </row>
-    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I535" s="13"/>
     </row>
-    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I536" s="13"/>
     </row>
-    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I537" s="13"/>
     </row>
-    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I538" s="13"/>
     </row>
-    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I539" s="13"/>
     </row>
-    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I540" s="13"/>
     </row>
-    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I541" s="13"/>
     </row>
-    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I542" s="13"/>
     </row>
-    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I543" s="13"/>
     </row>
-    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I544" s="13"/>
     </row>
-    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I545" s="13"/>
     </row>
-    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I546" s="13"/>
     </row>
-    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I547" s="13"/>
     </row>
-    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I548" s="13"/>
     </row>
-    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I549" s="13"/>
     </row>
-    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I550" s="13"/>
     </row>
-    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I551" s="13"/>
     </row>
-    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I552" s="13"/>
     </row>
-    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I553" s="13"/>
     </row>
-    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I554" s="13"/>
     </row>
-    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I555" s="13"/>
     </row>
-    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I556" s="13"/>
     </row>
-    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I557" s="13"/>
     </row>
-    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I558" s="13"/>
     </row>
-    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I559" s="13"/>
     </row>
-    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I560" s="13"/>
     </row>
-    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I561" s="13"/>
     </row>
-    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I562" s="13"/>
     </row>
-    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I563" s="13"/>
     </row>
-    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I564" s="13"/>
     </row>
-    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I565" s="13"/>
     </row>
-    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I566" s="13"/>
     </row>
-    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I567" s="13"/>
     </row>
-    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I568" s="13"/>
     </row>
-    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I569" s="13"/>
     </row>
-    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I570" s="13"/>
     </row>
-    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I571" s="13"/>
     </row>
-    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I572" s="13"/>
     </row>
-    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I573" s="13"/>
     </row>
-    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I574" s="13"/>
     </row>
-    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I575" s="13"/>
     </row>
-    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I576" s="13"/>
     </row>
-    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I577" s="13"/>
     </row>
-    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I578" s="13"/>
     </row>
-    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I579" s="13"/>
     </row>
-    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I580" s="13"/>
     </row>
-    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I581" s="13"/>
     </row>
-    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I582" s="13"/>
     </row>
-    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I583" s="13"/>
     </row>
-    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I584" s="13"/>
     </row>
-    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I585" s="13"/>
     </row>
-    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I586" s="13"/>
     </row>
-    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I587" s="13"/>
     </row>
-    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I588" s="13"/>
     </row>
-    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I589" s="13"/>
     </row>
-    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I590" s="13"/>
     </row>
-    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I591" s="13"/>
     </row>
-    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I592" s="13"/>
     </row>
-    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I593" s="13"/>
     </row>
-    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I594" s="13"/>
     </row>
-    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I595" s="13"/>
     </row>
-    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I596" s="13"/>
     </row>
-    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I597" s="13"/>
     </row>
-    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I598" s="13"/>
     </row>
-    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I599" s="13"/>
     </row>
-    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I600" s="13"/>
     </row>
-    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I601" s="13"/>
     </row>
-    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I602" s="13"/>
     </row>
-    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I603" s="13"/>
     </row>
-    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I604" s="13"/>
     </row>
-    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I605" s="13"/>
     </row>
-    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I606" s="13"/>
     </row>
-    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I607" s="13"/>
     </row>
-    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I608" s="13"/>
     </row>
-    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I609" s="13"/>
     </row>
-    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I610" s="13"/>
     </row>
-    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I611" s="13"/>
     </row>
-    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I612" s="13"/>
     </row>
-    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I613" s="13"/>
     </row>
-    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I614" s="13"/>
     </row>
-    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I615" s="13"/>
     </row>
-    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I616" s="13"/>
     </row>
-    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I617" s="13"/>
     </row>
-    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I618" s="13"/>
     </row>
-    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I619" s="13"/>
     </row>
-    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I620" s="13"/>
     </row>
-    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I621" s="13"/>
     </row>
-    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I622" s="13"/>
     </row>
-    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I623" s="13"/>
     </row>
-    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I624" s="13"/>
     </row>
-    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I625" s="13"/>
     </row>
-    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I626" s="13"/>
     </row>
-    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I627" s="13"/>
     </row>
-    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I628" s="13"/>
     </row>
-    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I629" s="13"/>
     </row>
-    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I630" s="13"/>
     </row>
-    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I631" s="13"/>
     </row>
-    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I632" s="13"/>
     </row>
-    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I633" s="13"/>
     </row>
-    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I634" s="13"/>
     </row>
-    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I635" s="13"/>
     </row>
-    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I636" s="13"/>
     </row>
-    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I637" s="13"/>
     </row>
-    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I638" s="13"/>
     </row>
-    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I639" s="13"/>
     </row>
-    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I640" s="13"/>
     </row>
-    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I641" s="13"/>
     </row>
-    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I642" s="13"/>
     </row>
-    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I643" s="13"/>
     </row>
-    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I644" s="13"/>
     </row>
-    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I645" s="13"/>
     </row>
-    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I646" s="13"/>
     </row>
-    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I647" s="13"/>
     </row>
-    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I648" s="13"/>
     </row>
-    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I649" s="13"/>
     </row>
-    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I650" s="13"/>
     </row>
-    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I651" s="13"/>
     </row>
-    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I652" s="13"/>
     </row>
-    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I653" s="13"/>
     </row>
-    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I654" s="13"/>
     </row>
-    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I655" s="13"/>
     </row>
-    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I656" s="13"/>
     </row>
-    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I657" s="13"/>
     </row>
-    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I658" s="13"/>
     </row>
-    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I659" s="13"/>
     </row>
-    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I660" s="13"/>
     </row>
-    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I661" s="13"/>
     </row>
-    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I662" s="13"/>
     </row>
-    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I663" s="13"/>
     </row>
-    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I664" s="13"/>
     </row>
-    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I665" s="13"/>
     </row>
-    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I666" s="13"/>
     </row>
-    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I667" s="13"/>
     </row>
-    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I668" s="13"/>
     </row>
-    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I669" s="13"/>
     </row>
-    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I670" s="13"/>
     </row>
-    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I671" s="13"/>
     </row>
-    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I672" s="13"/>
     </row>
-    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I673" s="13"/>
     </row>
-    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I674" s="13"/>
     </row>
-    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I675" s="13"/>
     </row>
-    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I676" s="13"/>
     </row>
-    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I677" s="13"/>
     </row>
-    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I678" s="13"/>
     </row>
-    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I679" s="13"/>
     </row>
-    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I680" s="13"/>
     </row>
-    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I681" s="13"/>
     </row>
-    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I682" s="13"/>
     </row>
-    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I683" s="13"/>
     </row>
-    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I684" s="13"/>
     </row>
-    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I685" s="13"/>
     </row>
-    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I686" s="13"/>
     </row>
-    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I687" s="13"/>
     </row>
-    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I688" s="13"/>
     </row>
-    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I689" s="13"/>
     </row>
-    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I690" s="13"/>
     </row>
-    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I691" s="13"/>
     </row>
-    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I692" s="13"/>
     </row>
-    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I693" s="13"/>
     </row>
-    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I694" s="13"/>
     </row>
-    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I695" s="13"/>
     </row>
-    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I696" s="13"/>
     </row>
-    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I697" s="13"/>
     </row>
-    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I698" s="13"/>
     </row>
-    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I699" s="13"/>
     </row>
-    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I700" s="13"/>
     </row>
-    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I701" s="13"/>
     </row>
-    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I702" s="13"/>
     </row>
-    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I703" s="13"/>
     </row>
-    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I704" s="13"/>
     </row>
-    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I705" s="13"/>
     </row>
-    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I706" s="13"/>
     </row>
-    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I707" s="13"/>
     </row>
-    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I708" s="13"/>
     </row>
-    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I709" s="13"/>
     </row>
-    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I710" s="13"/>
     </row>
-    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I711" s="13"/>
     </row>
-    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I712" s="13"/>
     </row>
-    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I713" s="13"/>
     </row>
-    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I714" s="13"/>
     </row>
-    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I715" s="13"/>
     </row>
-    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I716" s="13"/>
     </row>
-    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I717" s="13"/>
     </row>
-    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I718" s="13"/>
     </row>
-    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I719" s="13"/>
     </row>
-    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I720" s="13"/>
     </row>
-    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I721" s="13"/>
     </row>
-    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I722" s="13"/>
     </row>
-    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I723" s="13"/>
     </row>
-    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I724" s="13"/>
     </row>
-    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I725" s="13"/>
     </row>
-    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I726" s="13"/>
     </row>
-    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I727" s="13"/>
     </row>
-    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I728" s="13"/>
     </row>
-    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I729" s="13"/>
     </row>
-    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I730" s="13"/>
     </row>
-    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I731" s="13"/>
     </row>
-    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I732" s="13"/>
     </row>
-    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I733" s="13"/>
     </row>
-    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I734" s="13"/>
     </row>
-    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I735" s="13"/>
     </row>
-    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I736" s="13"/>
     </row>
-    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I737" s="13"/>
     </row>
-    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I738" s="13"/>
     </row>
-    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I739" s="13"/>
     </row>
-    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I740" s="13"/>
     </row>
-    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I741" s="13"/>
     </row>
-    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I742" s="13"/>
     </row>
-    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I743" s="13"/>
     </row>
-    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I744" s="13"/>
     </row>
-    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I745" s="13"/>
     </row>
-    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I746" s="13"/>
     </row>
-    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I747" s="13"/>
     </row>
-    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I748" s="13"/>
     </row>
-    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I749" s="13"/>
     </row>
-    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I750" s="13"/>
     </row>
-    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I751" s="13"/>
     </row>
-    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I752" s="13"/>
     </row>
-    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I753" s="13"/>
     </row>
-    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I754" s="13"/>
     </row>
-    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I755" s="13"/>
     </row>
-    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I756" s="13"/>
     </row>
-    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I757" s="13"/>
     </row>
-    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I758" s="13"/>
     </row>
-    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I759" s="13"/>
     </row>
-    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I760" s="13"/>
     </row>
-    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I761" s="13"/>
     </row>
-    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I762" s="13"/>
     </row>
-    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I763" s="13"/>
     </row>
-    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I764" s="13"/>
     </row>
-    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I765" s="13"/>
     </row>
-    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I766" s="13"/>
     </row>
-    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I767" s="13"/>
     </row>
-    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I768" s="13"/>
     </row>
-    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I769" s="13"/>
     </row>
-    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I770" s="13"/>
     </row>
-    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I771" s="13"/>
     </row>
-    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I772" s="13"/>
     </row>
-    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I773" s="13"/>
     </row>
-    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I774" s="13"/>
     </row>
-    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I775" s="13"/>
     </row>
-    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I776" s="13"/>
     </row>
-    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I777" s="13"/>
     </row>
-    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I778" s="13"/>
     </row>
-    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I779" s="13"/>
     </row>
-    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I780" s="13"/>
     </row>
-    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I781" s="13"/>
     </row>
-    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I782" s="13"/>
     </row>
-    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I783" s="13"/>
     </row>
-    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I784" s="13"/>
     </row>
-    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I785" s="13"/>
     </row>
-    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I786" s="13"/>
     </row>
-    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I787" s="13"/>
     </row>
-    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I788" s="13"/>
     </row>
-    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I789" s="13"/>
     </row>
-    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I790" s="13"/>
     </row>
-    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I791" s="13"/>
     </row>
-    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I792" s="13"/>
     </row>
-    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I793" s="13"/>
     </row>
-    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I794" s="13"/>
     </row>
-    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I795" s="13"/>
     </row>
-    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I796" s="13"/>
     </row>
-    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I797" s="13"/>
     </row>
-    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I798" s="13"/>
     </row>
-    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I799" s="13"/>
     </row>
-    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I800" s="13"/>
     </row>
-    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I801" s="13"/>
     </row>
-    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I802" s="13"/>
     </row>
-    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I803" s="13"/>
     </row>
-    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I804" s="13"/>
     </row>
-    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I805" s="13"/>
     </row>
-    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I806" s="13"/>
     </row>
-    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I807" s="13"/>
     </row>
-    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I808" s="13"/>
     </row>
-    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I809" s="13"/>
     </row>
-    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I810" s="13"/>
     </row>
-    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I811" s="13"/>
     </row>
-    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I812" s="13"/>
     </row>
-    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I813" s="13"/>
     </row>
-    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I814" s="13"/>
     </row>
-    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I815" s="13"/>
     </row>
-    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I816" s="13"/>
     </row>
-    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I817" s="13"/>
     </row>
-    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I818" s="13"/>
     </row>
-    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I819" s="13"/>
     </row>
-    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I820" s="13"/>
     </row>
-    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I821" s="13"/>
     </row>
-    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I822" s="13"/>
     </row>
-    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I823" s="13"/>
     </row>
-    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I824" s="13"/>
     </row>
-    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I825" s="13"/>
     </row>
-    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I826" s="13"/>
     </row>
-    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I827" s="13"/>
     </row>
-    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I828" s="13"/>
     </row>
-    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I829" s="13"/>
     </row>
-    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I830" s="13"/>
     </row>
-    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I831" s="13"/>
     </row>
-    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I832" s="13"/>
     </row>
-    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I833" s="13"/>
     </row>
-    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I834" s="13"/>
     </row>
-    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I835" s="13"/>
     </row>
-    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I836" s="13"/>
     </row>
-    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I837" s="13"/>
     </row>
-    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I838" s="13"/>
     </row>
-    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I839" s="13"/>
     </row>
-    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I840" s="13"/>
     </row>
-    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I841" s="13"/>
     </row>
-    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I842" s="13"/>
     </row>
-    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I843" s="13"/>
     </row>
-    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I844" s="13"/>
     </row>
-    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I845" s="13"/>
     </row>
-    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I846" s="13"/>
     </row>
-    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I847" s="13"/>
     </row>
-    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I848" s="13"/>
     </row>
-    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I849" s="13"/>
     </row>
-    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I850" s="13"/>
     </row>
-    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I851" s="13"/>
     </row>
-    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I852" s="13"/>
     </row>
-    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I853" s="13"/>
     </row>
-    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I854" s="13"/>
     </row>
-    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I855" s="13"/>
     </row>
-    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I856" s="13"/>
     </row>
-    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I857" s="13"/>
     </row>
-    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I858" s="13"/>
     </row>
-    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I859" s="13"/>
     </row>
-    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I860" s="13"/>
     </row>
-    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I861" s="13"/>
     </row>
-    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I862" s="13"/>
     </row>
-    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I863" s="13"/>
     </row>
-    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I864" s="13"/>
     </row>
-    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I865" s="13"/>
     </row>
-    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I866" s="13"/>
     </row>
-    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I867" s="13"/>
     </row>
-    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I868" s="13"/>
     </row>
-    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I869" s="13"/>
     </row>
-    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I870" s="13"/>
     </row>
-    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I871" s="13"/>
     </row>
-    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I872" s="13"/>
     </row>
-    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I873" s="13"/>
     </row>
-    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I874" s="13"/>
     </row>
-    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I875" s="13"/>
     </row>
-    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I876" s="13"/>
     </row>
-    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I877" s="13"/>
     </row>
-    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I878" s="13"/>
     </row>
-    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I879" s="13"/>
     </row>
-    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I880" s="13"/>
     </row>
-    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I881" s="13"/>
     </row>
-    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I882" s="13"/>
     </row>
-    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I883" s="13"/>
     </row>
-    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I884" s="13"/>
     </row>
-    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I885" s="13"/>
     </row>
-    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I886" s="13"/>
     </row>
-    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I887" s="13"/>
     </row>
-    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I888" s="13"/>
     </row>
-    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I889" s="13"/>
     </row>
-    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I890" s="13"/>
     </row>
-    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I891" s="13"/>
     </row>
-    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I892" s="13"/>
     </row>
-    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I893" s="13"/>
     </row>
-    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I894" s="13"/>
     </row>
-    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I895" s="13"/>
     </row>
-    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I896" s="13"/>
     </row>
-    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I897" s="13"/>
     </row>
-    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I898" s="13"/>
     </row>
-    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I899" s="13"/>
     </row>
-    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I900" s="13"/>
     </row>
-    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I901" s="13"/>
     </row>
-    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I902" s="13"/>
     </row>
-    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I903" s="13"/>
     </row>
-    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I904" s="13"/>
     </row>
-    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I905" s="13"/>
     </row>
-    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I906" s="13"/>
     </row>
-    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I907" s="13"/>
     </row>
-    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I908" s="13"/>
     </row>
-    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I909" s="13"/>
     </row>
-    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I910" s="13"/>
     </row>
-    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I911" s="13"/>
     </row>
-    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I912" s="13"/>
     </row>
-    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I913" s="13"/>
     </row>
-    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I914" s="13"/>
     </row>
-    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I915" s="13"/>
     </row>
-    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I916" s="13"/>
     </row>
-    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I917" s="13"/>
     </row>
-    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I918" s="13"/>
     </row>
-    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I919" s="13"/>
     </row>
-    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I920" s="13"/>
     </row>
-    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I921" s="13"/>
     </row>
-    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I922" s="13"/>
     </row>
-    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I923" s="13"/>
     </row>
-    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I924" s="13"/>
     </row>
-    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I925" s="13"/>
     </row>
-    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I926" s="13"/>
     </row>
-    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I927" s="13"/>
     </row>
-    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I928" s="13"/>
     </row>
-    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I929" s="13"/>
     </row>
-    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I930" s="13"/>
     </row>
-    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I931" s="13"/>
     </row>
-    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I932" s="13"/>
     </row>
-    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I933" s="13"/>
     </row>
-    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I934" s="13"/>
     </row>
-    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I935" s="13"/>
     </row>
-    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I936" s="13"/>
     </row>
-    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I937" s="13"/>
     </row>
-    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I938" s="13"/>
     </row>
-    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I939" s="13"/>
     </row>
-    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I940" s="13"/>
     </row>
-    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I941" s="13"/>
     </row>
-    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I942" s="13"/>
     </row>
-    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I943" s="13"/>
     </row>
-    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I944" s="13"/>
     </row>
-    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I945" s="13"/>
     </row>
-    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I946" s="13"/>
     </row>
-    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I947" s="13"/>
     </row>
-    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I948" s="13"/>
     </row>
-    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I949" s="13"/>
     </row>
-    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I950" s="13"/>
     </row>
-    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I951" s="13"/>
     </row>
-    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I952" s="13"/>
     </row>
-    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I953" s="13"/>
     </row>
-    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I954" s="13"/>
     </row>
-    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I955" s="13"/>
     </row>
-    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I956" s="13"/>
     </row>
-    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I957" s="13"/>
     </row>
-    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I958" s="13"/>
     </row>
-    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I959" s="13"/>
     </row>
-    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I960" s="13"/>
     </row>
-    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I961" s="13"/>
     </row>
-    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I962" s="13"/>
     </row>
-    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I963" s="13"/>
     </row>
-    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I964" s="13"/>
     </row>
-    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I965" s="13"/>
     </row>
-    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I966" s="13"/>
     </row>
-    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I967" s="13"/>
     </row>
-    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I968" s="13"/>
     </row>
-    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I969" s="13"/>
     </row>
-    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I970" s="13"/>
     </row>
-    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I971" s="13"/>
     </row>
-    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I972" s="13"/>
     </row>
-    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I973" s="13"/>
     </row>
-    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I974" s="13"/>
     </row>
-    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I975" s="13"/>
     </row>
-    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I976" s="13"/>
     </row>
-    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I977" s="13"/>
     </row>
-    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I978" s="13"/>
     </row>
-    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I979" s="13"/>
     </row>
-    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I980" s="13"/>
     </row>
-    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I981" s="13"/>
     </row>
-    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I982" s="13"/>
     </row>
-    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I983" s="13"/>
     </row>
-    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I984" s="13"/>
     </row>
-    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I985" s="13"/>
     </row>
-    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I986" s="13"/>
     </row>
-    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I987" s="13"/>
     </row>
-    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I988" s="13"/>
     </row>
-    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I989" s="13"/>
     </row>
-    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I990" s="13"/>
     </row>
-    <row r="991" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I991" s="13"/>
     </row>
-    <row r="992" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I992" s="13"/>
     </row>
-    <row r="993" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I993" s="13"/>
     </row>
-    <row r="994" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I994" s="13"/>
     </row>
-    <row r="995" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I995" s="13"/>
     </row>
-    <row r="996" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I996" s="13"/>
     </row>
-    <row r="997" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I997" s="13"/>
     </row>
-    <row r="998" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I998" s="13"/>
     </row>
-    <row r="999" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I999" s="13"/>
     </row>
-    <row r="1000" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1000" s="13"/>
     </row>
-    <row r="1001" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1001" s="13"/>
     </row>
-    <row r="1002" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1002" s="13"/>
     </row>
-    <row r="1003" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1003" s="13"/>
     </row>
-    <row r="1004" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1004" s="13"/>
     </row>
-    <row r="1005" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1005" s="13"/>
     </row>
-    <row r="1006" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1006" s="13"/>
     </row>
-    <row r="1007" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1007" s="13"/>
     </row>
-    <row r="1008" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1008" s="13"/>
     </row>
-    <row r="1009" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1009" s="13"/>
     </row>
-    <row r="1010" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1010" s="13"/>
     </row>
-    <row r="1011" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1011" s="13"/>
     </row>
-    <row r="1012" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1012" s="13"/>
     </row>
-    <row r="1013" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1013" s="13"/>
     </row>
-    <row r="1014" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1014" s="13"/>
     </row>
-    <row r="1015" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1015" s="13"/>
     </row>
-    <row r="1016" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1016" s="13"/>
     </row>
-    <row r="1017" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1017" s="13"/>
     </row>
-    <row r="1018" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1018" s="13"/>
     </row>
-    <row r="1019" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1019" s="13"/>
     </row>
-    <row r="1020" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1020" s="13"/>
     </row>
-    <row r="1021" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1021" s="13"/>
     </row>
-    <row r="1022" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1022" s="13"/>
     </row>
-    <row r="1023" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1023" s="13"/>
     </row>
-    <row r="1024" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1024" s="13"/>
     </row>
-    <row r="1025" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1025" s="13"/>
     </row>
-    <row r="1026" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1026" s="13"/>
     </row>
-    <row r="1027" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1027" s="13"/>
     </row>
-    <row r="1028" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1028" s="13"/>
     </row>
-    <row r="1029" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1029" s="13"/>
     </row>
-    <row r="1030" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1030" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A99:H102"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A113:H116"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A12:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A26:H29"/>
+    <mergeCell ref="A46:H49"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:H68"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A80:H83"/>
     <mergeCell ref="K84:Q84"/>
     <mergeCell ref="B104:H104"/>
     <mergeCell ref="B103:H103"/>
@@ -7177,123 +7274,30 @@
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="A86:H86"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A80:H83"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:H68"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A26:H29"/>
-    <mergeCell ref="A46:H49"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
     <mergeCell ref="K30:Q30"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="B50:H50"/>
     <mergeCell ref="J36:Q36"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A12:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A99:H102"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A113:H116"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/dicionario_tabelas/dicionario.xlsx
+++ b/dicionario_tabelas/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\GitHub\Sistema-de-Manutencao-de-Veiculos\dicionario_tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Downloads\APENAS MEU\Faculdade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95381DBF-096E-4375-A669-99A62B922DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E95DA-21D2-4195-B485-71796F62AF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="172">
   <si>
     <t>Tabela</t>
   </si>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>Idx_tipos_manutencao_descricao</t>
+  </si>
+  <si>
+    <t>idx_cd_alas</t>
+  </si>
+  <si>
+    <t>idx_cd_manutencao</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Idx_cd_status_manutecoes</t>
   </si>
 </sst>
 </file>
@@ -962,88 +974,54 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,24 +1030,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1289,42 +1301,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:H116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1334,19 +1346,19 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="54"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1356,17 +1368,17 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1376,11 +1388,11 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="35" t="s">
         <v>5</v>
       </c>
@@ -1408,11 +1420,11 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1438,11 +1450,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1466,11 +1478,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1494,11 +1506,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1522,17 +1534,17 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1542,11 +1554,11 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="35" t="s">
         <v>31</v>
       </c>
@@ -1556,11 +1568,11 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1570,11 +1582,11 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="39" t="s">
         <v>14</v>
       </c>
@@ -1582,11 +1594,11 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1596,15 +1608,15 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1614,15 +1626,15 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1632,15 +1644,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1650,15 +1662,15 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1668,88 +1680,88 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="2"/>
       <c r="J16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="2"/>
       <c r="J17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="35" t="s">
         <v>5</v>
       </c>
@@ -1787,16 +1799,16 @@
       <c r="O19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="58"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64" t="s">
+      <c r="Q19" s="81"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
@@ -1830,16 +1842,16 @@
         <v>14</v>
       </c>
       <c r="O20" s="27"/>
-      <c r="P20" s="59" t="s">
+      <c r="P20" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="Q20" s="59"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="Q20" s="84"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1869,16 +1881,16 @@
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="59" t="s">
+      <c r="P21" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="Q21" s="59"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
+      <c r="Q21" s="84"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
@@ -1896,28 +1908,28 @@
         <v>111</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="86"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="2"/>
       <c r="J23" s="30" t="s">
         <v>30</v>
@@ -1931,18 +1943,18 @@
       <c r="M23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="62" t="s">
+      <c r="N23" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="35" t="s">
         <v>31</v>
       </c>
@@ -1952,11 +1964,11 @@
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="54"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="12"/>
       <c r="J24" s="44" t="s">
         <v>165</v>
@@ -1968,18 +1980,18 @@
       <c r="M24" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="63" t="s">
+      <c r="N24" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="39" t="s">
         <v>14</v>
       </c>
@@ -1987,11 +1999,11 @@
       <c r="E25" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="54"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2001,15 +2013,15 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2019,15 +2031,15 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2037,15 +2049,15 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2055,15 +2067,15 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2073,88 +2085,88 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="54"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="2"/>
       <c r="J30" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="76" t="s">
+      <c r="K30" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="78"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="71"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="54"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="2"/>
       <c r="J31" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="76" t="s">
+      <c r="K31" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="78"/>
-    </row>
-    <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="71"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="54"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="82" t="s">
+      <c r="J32" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="35" t="s">
         <v>5</v>
       </c>
@@ -2192,16 +2204,16 @@
       <c r="O33" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="79" t="s">
+      <c r="P33" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="80"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81" t="s">
+      <c r="Q33" s="90"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="11" t="s">
         <v>11</v>
       </c>
@@ -2235,16 +2247,16 @@
         <v>14</v>
       </c>
       <c r="O34" s="19"/>
-      <c r="P34" s="76" t="s">
+      <c r="P34" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="78"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64" t="s">
+      <c r="Q34" s="71"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="11" t="s">
         <v>49</v>
       </c>
@@ -2274,16 +2286,16 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="19"/>
-      <c r="P35" s="76" t="s">
+      <c r="P35" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="Q35" s="78"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="Q35" s="71"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="11" t="s">
         <v>21</v>
       </c>
@@ -2299,22 +2311,22 @@
         <v>56</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="53"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="61"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
@@ -2330,10 +2342,10 @@
         <v>57</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="54"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2343,17 +2355,17 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="50" t="s">
+      <c r="O37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="54"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+      <c r="P37" s="63"/>
+      <c r="Q37" s="57"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
@@ -2369,10 +2381,10 @@
         <v>60</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="56" t="s">
+      <c r="J38" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="54"/>
+      <c r="K38" s="57"/>
       <c r="L38" s="7" t="s">
         <v>14</v>
       </c>
@@ -2380,17 +2392,17 @@
       <c r="N38" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="56" t="s">
+      <c r="O38" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="54"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
+      <c r="P38" s="63"/>
+      <c r="Q38" s="57"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="11" t="s">
         <v>40</v>
       </c>
@@ -2414,11 +2426,11 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64" t="s">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
@@ -2442,11 +2454,11 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64" t="s">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="11" t="s">
         <v>66</v>
       </c>
@@ -2470,11 +2482,11 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64" t="s">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="54"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="11" t="s">
         <v>11</v>
       </c>
@@ -2500,17 +2512,17 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="54"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="2"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -2520,11 +2532,11 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="54"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="35" t="s">
         <v>31</v>
       </c>
@@ -2534,11 +2546,11 @@
       <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="54"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2548,11 +2560,11 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="40" t="s">
         <v>14</v>
       </c>
@@ -2560,11 +2572,11 @@
       <c r="E45" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="54"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="2"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2574,15 +2586,15 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="2"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2592,15 +2604,15 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
       <c r="I47" s="2"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2610,15 +2622,15 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2628,15 +2640,15 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
       <c r="I49" s="2"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2646,88 +2658,88 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="54"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="2"/>
       <c r="J50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K50" s="49" t="s">
+      <c r="K50" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-    </row>
-    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+    </row>
+    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="54"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="2"/>
       <c r="J51" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="49" t="s">
+      <c r="K51" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="54"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="62" t="s">
+      <c r="J52" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="50" t="s">
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="35" t="s">
         <v>5</v>
       </c>
@@ -2765,16 +2777,16 @@
       <c r="O53" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P53" s="48" t="s">
+      <c r="P53" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Q53" s="48"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64" t="s">
+      <c r="Q53" s="67"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="11" t="s">
         <v>11</v>
       </c>
@@ -2808,16 +2820,16 @@
         <v>14</v>
       </c>
       <c r="O54" s="22"/>
-      <c r="P54" s="49" t="s">
+      <c r="P54" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="Q54" s="49"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64" t="s">
+      <c r="Q54" s="48"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="11" t="s">
         <v>40</v>
       </c>
@@ -2847,16 +2859,16 @@
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
-      <c r="P55" s="49" t="s">
+      <c r="P55" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="Q55" s="49"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
+      <c r="Q55" s="48"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="11" t="s">
         <v>40</v>
       </c>
@@ -2872,22 +2884,22 @@
         <v>81</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="53"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75" t="s">
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="61"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="11" t="s">
         <v>83</v>
       </c>
@@ -2903,10 +2915,10 @@
         <v>85</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="54"/>
+      <c r="K57" s="57"/>
       <c r="L57" s="1" t="s">
         <v>31</v>
       </c>
@@ -2916,17 +2928,17 @@
       <c r="N57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="50" t="s">
+      <c r="O57" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="54"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64" t="s">
+      <c r="P57" s="63"/>
+      <c r="Q57" s="57"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="54"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="11" t="s">
         <v>11</v>
       </c>
@@ -2944,10 +2956,10 @@
         <v>86</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="55" t="s">
+      <c r="J58" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="K58" s="54"/>
+      <c r="K58" s="57"/>
       <c r="L58" s="7" t="s">
         <v>14</v>
       </c>
@@ -2955,17 +2967,17 @@
       <c r="N58" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O58" s="56" t="s">
+      <c r="O58" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="54"/>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="74" t="s">
+      <c r="P58" s="63"/>
+      <c r="Q58" s="57"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="54"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="14" t="s">
         <v>88</v>
       </c>
@@ -2991,11 +3003,11 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="74" t="s">
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="54"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="11" t="s">
         <v>11</v>
       </c>
@@ -3021,11 +3033,11 @@
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64" t="s">
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
@@ -3051,17 +3063,17 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="50" t="s">
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="54"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="57"/>
       <c r="I62" s="12"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -3071,11 +3083,11 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="50" t="s">
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="35" t="s">
         <v>31</v>
       </c>
@@ -3085,11 +3097,11 @@
       <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="51"/>
-      <c r="H63" s="54"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="57"/>
       <c r="I63" s="12"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -3099,21 +3111,21 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="56" t="s">
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="56" t="s">
+      <c r="F64" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="51"/>
-      <c r="H64" s="54"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="57"/>
       <c r="I64" s="12"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
@@ -3123,15 +3135,15 @@
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
       <c r="I65" s="12"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
@@ -3141,15 +3153,15 @@
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
       <c r="I66" s="12"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
@@ -3159,15 +3171,15 @@
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
       <c r="I67" s="12"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
@@ -3177,15 +3189,15 @@
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
     </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
       <c r="I68" s="15"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -3195,19 +3207,19 @@
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="54"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="57"/>
       <c r="I69" s="15"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3217,19 +3229,19 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="54"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="57"/>
       <c r="I70" s="15"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3239,17 +3251,17 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="65" t="s">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="54"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="57"/>
       <c r="I71" s="13"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3259,11 +3271,11 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="50" t="s">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="54"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="35" t="s">
         <v>5</v>
       </c>
@@ -3291,11 +3303,11 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="64" t="s">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="54"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
@@ -3321,11 +3333,11 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="64" t="s">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="54"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="11" t="s">
         <v>150</v>
       </c>
@@ -3349,11 +3361,11 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="64" t="s">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="11" t="s">
         <v>49</v>
       </c>
@@ -3377,17 +3389,17 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50" t="s">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="54"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="57"/>
       <c r="I76" s="2"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3397,11 +3409,11 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="50" t="s">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="35" t="s">
         <v>31</v>
       </c>
@@ -3411,11 +3423,11 @@
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="50" t="s">
+      <c r="F77" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="51"/>
-      <c r="H77" s="54"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="57"/>
       <c r="I77" s="2"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -3425,15 +3437,21 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="39"/>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="57"/>
+      <c r="C78" s="39" t="s">
+        <v>14</v>
+      </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="54"/>
+      <c r="F78" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="63"/>
+      <c r="H78" s="57"/>
       <c r="I78" s="2"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -3443,15 +3461,15 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="54"/>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="65"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="39"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="70"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="79"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -3461,15 +3479,15 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
       <c r="I80" s="4"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3479,15 +3497,15 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
       <c r="I81" s="4"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3497,15 +3515,15 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
       <c r="I82" s="4"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -3515,15 +3533,15 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="73"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
       <c r="I83" s="4"/>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
@@ -3533,88 +3551,88 @@
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
     </row>
-    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="54"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="57"/>
       <c r="I84" s="2"/>
       <c r="J84" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K84" s="57" t="s">
+      <c r="K84" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="L84" s="57"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="57"/>
-    </row>
-    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="80"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="80"/>
+      <c r="Q84" s="80"/>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="54"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="57"/>
       <c r="I85" s="2"/>
       <c r="J85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K85" s="57" t="s">
+      <c r="K85" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="57"/>
-    </row>
-    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="65" t="s">
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="80"/>
+      <c r="Q85" s="80"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="54"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="57"/>
       <c r="I86" s="13"/>
-      <c r="J86" s="58" t="s">
+      <c r="J86" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
-    </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="50" t="s">
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="81"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="35" t="s">
         <v>5</v>
       </c>
@@ -3652,16 +3670,16 @@
       <c r="O87" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P87" s="66" t="s">
+      <c r="P87" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Q87" s="66"/>
-    </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="64" t="s">
+      <c r="Q87" s="82"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="54"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="11" t="s">
         <v>11</v>
       </c>
@@ -3695,16 +3713,16 @@
         <v>14</v>
       </c>
       <c r="O88" s="27"/>
-      <c r="P88" s="67" t="s">
+      <c r="P88" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="Q88" s="67"/>
-    </row>
-    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="64" t="s">
+      <c r="Q88" s="83"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="11" t="s">
         <v>17</v>
       </c>
@@ -3736,16 +3754,16 @@
       </c>
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
-      <c r="P89" s="67" t="s">
+      <c r="P89" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="Q89" s="67"/>
-    </row>
-    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="64" t="s">
+      <c r="Q89" s="83"/>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="11" t="s">
         <v>11</v>
       </c>
@@ -3763,19 +3781,22 @@
         <v>24</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-    </row>
-    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64" t="s">
+      <c r="J90" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
+      <c r="O90" s="63"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="61"/>
+    </row>
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="11" t="s">
         <v>11</v>
       </c>
@@ -3793,19 +3814,30 @@
         <v>130</v>
       </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-    </row>
-    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+      <c r="J91" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="57"/>
+      <c r="L91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O91" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="57"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="54"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="11" t="s">
         <v>11</v>
       </c>
@@ -3823,15 +3855,24 @@
         <v>131</v>
       </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J92" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="K92" s="57"/>
+      <c r="L92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O92" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="P92" s="63"/>
+      <c r="Q92" s="57"/>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>139</v>
       </c>
@@ -3859,11 +3900,11 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="64" t="s">
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="11" t="s">
         <v>11</v>
       </c>
@@ -3889,24 +3930,24 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="50" t="s">
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="54"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="57"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="50" t="s">
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="54"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="35" t="s">
         <v>31</v>
       </c>
@@ -3916,127 +3957,133 @@
       <c r="E96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F96" s="50" t="s">
+      <c r="F96" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="54"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="57"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="56"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="39"/>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="57"/>
+      <c r="C97" s="39" t="s">
+        <v>170</v>
+      </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="54"/>
+      <c r="F97" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="63"/>
+      <c r="H97" s="57"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
-      <c r="B98" s="54"/>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="65"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="39"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="54"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="57"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="87"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="50"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="88"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="52"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="88"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="52"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="89"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="54"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="54"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="57"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="54"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c